--- a/AWO_Einnahmen_Ausgaben_2022.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05EF9AD-9D39-4F5B-9DA3-78E6F8EB2158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6B05A1-E84A-45F0-BE79-D6DD0C0A5B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="62">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>Spende Ritter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WGV </t>
   </si>
 </sst>
 </file>
@@ -905,6 +908,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -913,47 +922,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="350">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="325">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1069,101 +1042,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -5183,17 +5061,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="12">
+    <format dxfId="6">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5286,17 +5164,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="15">
+    <format dxfId="9">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6422,7 +6300,7 @@
   </sheetPr>
   <dimension ref="A1:IK173"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
@@ -6444,17 +6322,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3" t="s">
         <v>0</v>
@@ -6530,7 +6408,7 @@
       <c r="C4" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="95" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="20"/>
@@ -8200,7 +8078,7 @@
       </c>
       <c r="H110" s="28">
         <f>H108+Ausgaben!I170</f>
-        <v>608.47</v>
+        <v>441.04</v>
       </c>
       <c r="I110" s="29">
         <f>I108+Ausgaben!J170</f>
@@ -8230,7 +8108,7 @@
       <c r="C112" s="24"/>
       <c r="D112" s="29">
         <f>SUM(E110:I110)</f>
-        <v>10399.14</v>
+        <v>10231.710000000001</v>
       </c>
       <c r="E112" s="17"/>
       <c r="F112" s="18"/>
@@ -9031,692 +8909,692 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D112 E3:I3 E108:I172 D107:I107 G57:G60 G53 F54:G56 F61:G61 E62:G63 D69:G69 E12:G12 F13:G19 G23 F24:G24 F33:G34 F37:G37 F40:G44 F46:G46 G45 F48:G52 G47 F64 G64:G65 F66:G68 D71:G71 G70 F72:G78 D79:G84 D92:G92 G85 F86:G91 F93:G93 D94:G94 D98:G98 G95 E96:G96 F97:G97 D102:G107 F99:G100 G101 F21:G22 G20 H4:I29 G31:G32 G4:G11 F26:G29 G25 H31:I107 I30 G35:G36 G38:G39">
-    <cfRule type="cellIs" dxfId="349" priority="238" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="324" priority="238" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="348" priority="236" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="323" priority="236" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="347" priority="230" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="230" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="346" priority="207" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="207" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="345" priority="209" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="209" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="cellIs" dxfId="344" priority="205" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="205" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
-    <cfRule type="cellIs" dxfId="343" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="181" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="342" priority="179" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="179" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="341" priority="174" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="174" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E18">
-    <cfRule type="cellIs" dxfId="340" priority="173" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="173" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="339" priority="171" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="171" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="338" priority="167" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="167" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="337" priority="164" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="164" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="336" priority="159" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="159" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:E28">
-    <cfRule type="cellIs" dxfId="335" priority="157" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="157" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="334" priority="156" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="156" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F31">
-    <cfRule type="cellIs" dxfId="333" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="154" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="332" priority="153" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="153" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="331" priority="152" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="152" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="330" priority="151" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="151" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="329" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="148" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="328" priority="146" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="146" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="327" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="326" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="325" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="138" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="324" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="323" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:E44">
-    <cfRule type="cellIs" dxfId="322" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="321" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="320" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="319" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="318" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="317" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="316" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:E48">
-    <cfRule type="cellIs" dxfId="315" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="314" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="313" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="312" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="311" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="310" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="309" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="308" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="307" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="306" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="305" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="304" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="303" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="302" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="301" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="300" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="299" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="298" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="297" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="296" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="cellIs" dxfId="295" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="294" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="cellIs" dxfId="293" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="292" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="291" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:E72">
-    <cfRule type="cellIs" dxfId="290" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="289" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="288" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="287" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="286" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="285" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="284" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="283" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76">
-    <cfRule type="cellIs" dxfId="282" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="281" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="cellIs" dxfId="280" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="279" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78">
-    <cfRule type="cellIs" dxfId="278" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="cellIs" dxfId="277" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="276" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="275" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="274" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="273" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="272" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="271" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="270" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="cellIs" dxfId="269" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="268" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90">
-    <cfRule type="cellIs" dxfId="267" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="266" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91">
-    <cfRule type="cellIs" dxfId="265" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93:E93">
-    <cfRule type="cellIs" dxfId="264" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:D95">
-    <cfRule type="cellIs" dxfId="263" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96">
-    <cfRule type="cellIs" dxfId="262" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="261" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="260" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:E99">
-    <cfRule type="cellIs" dxfId="259" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="258" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100">
-    <cfRule type="cellIs" dxfId="257" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101:D101">
-    <cfRule type="cellIs" dxfId="256" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="255" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="cellIs" dxfId="254" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="253" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="252" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="251" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="250" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="cellIs" dxfId="249" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="cellIs" dxfId="248" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="247" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="246" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="245" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="244" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="242" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="241" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="240" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="239" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="cellIs" dxfId="238" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="237" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D18">
-    <cfRule type="cellIs" dxfId="236" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="235" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="234" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="233" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="232" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="231" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="230" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:H30">
-    <cfRule type="cellIs" dxfId="229" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F30">
-    <cfRule type="cellIs" dxfId="228" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="227" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="226" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="225" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="224" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="223" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="222" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="221" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="220" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="219" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="218" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="217" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="216" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="215" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="214" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="213" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="212" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9753,9 +9631,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9777,17 +9655,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45"/>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
       <c r="K1" s="4"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3" t="s">
@@ -9832,23 +9710,23 @@
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47"/>
       <c r="B3" s="15">
-        <v>44564</v>
+        <v>44562</v>
       </c>
       <c r="C3" s="60">
         <v>1</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E3" s="56" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="20"/>
-      <c r="G3" s="20">
-        <v>-33.590000000000003</v>
-      </c>
+      <c r="G3" s="20"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="I3" s="21">
+        <v>-167.43</v>
+      </c>
       <c r="J3" s="22"/>
       <c r="K3" s="4"/>
       <c r="L3" s="2"/>
@@ -9859,21 +9737,21 @@
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47"/>
       <c r="B4" s="15">
-        <v>44565</v>
+        <v>44564</v>
       </c>
       <c r="C4" s="60">
         <v>2</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="20">
-        <v>-200</v>
-      </c>
-      <c r="G4" s="21"/>
+        <v>22</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20">
+        <v>-33.590000000000003</v>
+      </c>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
       <c r="J4" s="22"/>
@@ -9885,22 +9763,22 @@
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
-      <c r="B5" s="100">
-        <v>44201</v>
+      <c r="B5" s="15">
+        <v>44565</v>
       </c>
       <c r="C5" s="61">
         <v>3</v>
       </c>
-      <c r="D5" s="101" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="102" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="103"/>
-      <c r="G5" s="104">
-        <v>-34</v>
-      </c>
+      <c r="D5" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="20">
+        <v>-200</v>
+      </c>
+      <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="22"/>
@@ -9912,21 +9790,21 @@
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47"/>
-      <c r="B6" s="100">
+      <c r="B6" s="96">
         <v>44201</v>
       </c>
       <c r="C6" s="61">
         <v>4</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="99" t="s">
+      <c r="E6" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="103"/>
-      <c r="G6" s="104">
-        <v>-150</v>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100">
+        <v>-34</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -9939,21 +9817,21 @@
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47"/>
-      <c r="B7" s="100">
+      <c r="B7" s="96">
         <v>44201</v>
       </c>
       <c r="C7" s="60">
         <v>5</v>
       </c>
-      <c r="D7" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="56" t="s">
+      <c r="D7" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21">
-        <v>-12</v>
+      <c r="F7" s="99"/>
+      <c r="G7" s="100">
+        <v>-150</v>
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
@@ -9966,21 +9844,21 @@
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47"/>
-      <c r="B8" s="43">
-        <v>40560</v>
+      <c r="B8" s="96">
+        <v>44201</v>
       </c>
       <c r="C8" s="60">
         <v>6</v>
       </c>
-      <c r="D8" s="101" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="102" t="s">
+      <c r="D8" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="103"/>
-      <c r="G8" s="104">
-        <v>-18.36</v>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21">
+        <v>-12</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
@@ -9994,20 +9872,20 @@
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47"/>
       <c r="B9" s="43">
-        <v>44580</v>
+        <v>40560</v>
       </c>
       <c r="C9" s="60">
         <v>7</v>
       </c>
-      <c r="D9" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="56" t="s">
+      <c r="D9" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21">
-        <v>-21.72</v>
+      <c r="F9" s="99"/>
+      <c r="G9" s="100">
+        <v>-18.36</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -10021,20 +9899,20 @@
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47"/>
       <c r="B10" s="43">
-        <v>44589</v>
+        <v>44580</v>
       </c>
       <c r="C10" s="60">
         <v>8</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21">
-        <v>-25</v>
+        <v>-21.72</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
@@ -10048,20 +9926,20 @@
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
       <c r="B11" s="43">
-        <v>44592</v>
+        <v>44589</v>
       </c>
       <c r="C11" s="60">
         <v>9</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21">
-        <v>-10</v>
+        <v>-25</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -10075,20 +9953,20 @@
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="47"/>
       <c r="B12" s="43">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="C12" s="60">
         <v>10</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="56" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -10102,20 +9980,20 @@
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47"/>
       <c r="B13" s="43">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="C13" s="60">
         <v>11</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="56" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21">
-        <v>-99.82</v>
+        <v>-12</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
@@ -10128,16 +10006,22 @@
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
-      <c r="B14" s="43"/>
+      <c r="B14" s="43">
+        <v>44594</v>
+      </c>
       <c r="C14" s="60">
         <v>12</v>
       </c>
-      <c r="D14" s="55"/>
+      <c r="D14" s="55" t="s">
+        <v>59</v>
+      </c>
       <c r="E14" s="56" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
+      <c r="G14" s="21">
+        <v>-99.82</v>
+      </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="22"/>
@@ -38802,7 +38686,7 @@
       </c>
       <c r="I170" s="34">
         <f>SUM(I3:I169)</f>
-        <v>0</v>
+        <v>-167.43</v>
       </c>
       <c r="J170" s="51">
         <f>SUM(J3:J169)</f>
@@ -40727,901 +40611,921 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
-    <cfRule type="cellIs" dxfId="211" priority="511" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="515" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="210" priority="501" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="505" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="209" priority="463" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="467" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="208" priority="419" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="423" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="206" priority="395" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="399" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="205" priority="393" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="397" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="203" priority="379" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="383" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="202" priority="345" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="349" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="201" priority="302" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="306" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="200" priority="288" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="292" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="199" priority="287" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="291" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="198" priority="284" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="288" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="197" priority="283" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="287" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="196" priority="282" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="286" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="195" priority="281" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="285" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="194" priority="280" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="284" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="193" priority="279" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="283" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="192" priority="278" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="282" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="191" priority="277" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="281" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="190" priority="276" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="280" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="189" priority="275" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="279" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="188" priority="274" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="278" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="187" priority="273" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="277" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="186" priority="272" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="276" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="185" priority="271" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="275" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="184" priority="270" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="274" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="183" priority="269" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="273" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="182" priority="268" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="272" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="181" priority="267" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="271" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="180" priority="266" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="270" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="179" priority="264" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="268" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="178" priority="263" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="267" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="177" priority="262" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="266" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="176" priority="261" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="265" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="175" priority="260" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="264" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="174" priority="259" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="263" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="173" priority="258" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="262" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="172" priority="257" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="261" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="171" priority="256" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="260" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="170" priority="255" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="259" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="169" priority="252" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="256" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="168" priority="251" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="255" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="167" priority="250" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="254" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="166" priority="249" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="253" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="165" priority="248" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="252" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="164" priority="247" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="251" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="163" priority="246" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="250" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="162" priority="245" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="249" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="161" priority="244" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="248" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="160" priority="242" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="246" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="159" priority="241" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="245" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="158" priority="240" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="244" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="157" priority="239" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="243" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="156" priority="238" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="242" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="155" priority="237" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="241" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="154" priority="236" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="240" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="153" priority="235" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="239" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="152" priority="233" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="237" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="151" priority="232" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="236" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="150" priority="231" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="235" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="149" priority="230" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="234" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="148" priority="229" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="233" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="147" priority="228" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="232" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="146" priority="227" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="231" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="145" priority="226" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="230" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="144" priority="204" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="208" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="143" priority="195" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="199" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="142" priority="193" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="197" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="141" priority="192" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="196" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="140" priority="177" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="181" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="139" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="180" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="138" priority="174" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="137" priority="172" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="176" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="136" priority="156" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="160" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="135" priority="151" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="155" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="134" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="154" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="133" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E4 E7 E9:E11 E13:E26">
-    <cfRule type="cellIs" dxfId="132" priority="131" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:E5 E7:E26">
+    <cfRule type="cellIs" dxfId="109" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="111" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="110" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="109" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="108" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="107" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="106" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="105" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="104" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="103" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="102" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="101" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="100" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="99" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="98" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="97" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="96" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="95" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="94" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="93" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="92" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="91" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="90" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="89" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="88" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="87" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="86" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="85" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="84" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="82" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="81" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="80" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="79" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="78" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="77" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="76" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="75" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="74" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="73" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="72" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="71" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="70" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="69" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="68" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="67" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="66" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="65" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="64" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="63" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="62" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="61" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="60" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="59" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="58" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="57" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="56" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="55" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="54" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="53" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="52" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="51" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="50" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="49" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="48" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="47" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="46" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="45" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="44" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="43" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="42" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="41" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="40" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="39" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="38" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="37" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="36" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="35" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="34" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="33" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="32" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="31" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="30" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="29" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D114">
-    <cfRule type="cellIs" dxfId="28" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="27" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="26" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="25" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="24" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="23" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="22" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="21" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="20" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D122">
-    <cfRule type="cellIs" dxfId="19" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="18" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="17" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="16" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
+  <conditionalFormatting sqref="E6">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
+  <conditionalFormatting sqref="E9">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E13">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E93 E59:E66 E37 E48 E44 E116 E95:E102 E107:E114 E132:E138 E144:E169 E125:E130 E70:E89 E3:E4 E7 E9:E26" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E93 E59:E66 E37 E48 E44 E116 E95:E102 E107:E114 E132:E138 E144:E169 E125:E130 E70:E89 E10:E26 E3:E5 E8" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E139:E143" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E104:E106 E115 E119:E120 E122 E32:E33 E40:E41 E46:E47 E54:E55 E68:E69 E91:E92 E5:E6" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E104:E106 E115 E119:E120 E122 E32:E33 E40:E41 E46:E47 E54:E55 E68:E69 E91:E92 E6:E7" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E103 E117:E118 E121 E123:E124 E27:E31 E34:E36 E38:E39 E42:E43 E45 E49:E53 E56:E58 E67 E90 E94 E8" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E103 E117:E118 E121 E123:E124 E27:E31 E34:E36 E38:E39 E42:E43 E45 E49:E53 E56:E58 E67 E90 E94 E9" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2022.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6B05A1-E84A-45F0-BE79-D6DD0C0A5B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6375476C-8ABF-41B9-BAD3-C078C26579CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="65">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -229,6 +229,15 @@
   </si>
   <si>
     <t xml:space="preserve">WGV </t>
+  </si>
+  <si>
+    <t>Vereinsring</t>
+  </si>
+  <si>
+    <t>AWO Bund Rückverteilung</t>
+  </si>
+  <si>
+    <t>Bürgerbus</t>
   </si>
 </sst>
 </file>
@@ -926,12 +935,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="325">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="328">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1042,6 +1046,26 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -5061,17 +5085,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="6">
+    <format dxfId="5">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5164,17 +5188,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="9">
+    <format dxfId="8">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6302,7 +6326,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6499,14 +6523,22 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="15">
+        <v>44614</v>
+      </c>
       <c r="B8" s="60">
         <v>5</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="41"/>
+      <c r="C8" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
+      <c r="F8" s="21">
+        <v>4.3499999999999996</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="19"/>
@@ -8027,7 +8059,7 @@
       </c>
       <c r="F108" s="28">
         <f>SUM(F3:F107)</f>
-        <v>7135.0300000000007</v>
+        <v>7139.380000000001</v>
       </c>
       <c r="G108" s="28">
         <f>SUM(G3:G107)</f>
@@ -8070,7 +8102,7 @@
       </c>
       <c r="F110" s="28">
         <f>F108+Ausgaben!G170</f>
-        <v>6718.5400000000009</v>
+        <v>6446.0300000000007</v>
       </c>
       <c r="G110" s="28">
         <f>G108+Ausgaben!H170</f>
@@ -8108,7 +8140,7 @@
       <c r="C112" s="24"/>
       <c r="D112" s="29">
         <f>SUM(E110:I110)</f>
-        <v>10231.710000000001</v>
+        <v>9959.2000000000007</v>
       </c>
       <c r="E112" s="17"/>
       <c r="F112" s="18"/>
@@ -8909,692 +8941,692 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D112 E3:I3 E108:I172 D107:I107 G57:G60 G53 F54:G56 F61:G61 E62:G63 D69:G69 E12:G12 F13:G19 G23 F24:G24 F33:G34 F37:G37 F40:G44 F46:G46 G45 F48:G52 G47 F64 G64:G65 F66:G68 D71:G71 G70 F72:G78 D79:G84 D92:G92 G85 F86:G91 F93:G93 D94:G94 D98:G98 G95 E96:G96 F97:G97 D102:G107 F99:G100 G101 F21:G22 G20 H4:I29 G31:G32 G4:G11 F26:G29 G25 H31:I107 I30 G35:G36 G38:G39">
-    <cfRule type="cellIs" dxfId="324" priority="238" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="327" priority="239" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="323" priority="236" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="326" priority="237" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="322" priority="230" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="325" priority="231" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="321" priority="207" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="324" priority="208" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="320" priority="209" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="323" priority="210" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="cellIs" dxfId="319" priority="205" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="206" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
-    <cfRule type="cellIs" dxfId="318" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="317" priority="179" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="180" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="316" priority="174" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="175" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E18">
-    <cfRule type="cellIs" dxfId="315" priority="173" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="174" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="314" priority="171" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="172" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="313" priority="167" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="168" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="312" priority="164" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="165" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="311" priority="159" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="160" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:E28">
-    <cfRule type="cellIs" dxfId="310" priority="157" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="158" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="309" priority="156" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="157" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F31">
-    <cfRule type="cellIs" dxfId="308" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="155" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="307" priority="153" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="154" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="306" priority="152" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="153" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="305" priority="151" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="152" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="304" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="149" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="303" priority="146" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="147" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="302" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="143" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="301" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="300" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="299" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="138" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="298" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:E44">
-    <cfRule type="cellIs" dxfId="297" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="296" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="295" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="294" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="293" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="292" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="291" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:E48">
-    <cfRule type="cellIs" dxfId="290" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="289" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="288" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="287" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="286" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="288" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="287" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="286" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
     <cfRule type="cellIs" dxfId="285" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="284" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="283" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="282" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="281" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="280" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="279" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="278" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="277" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="276" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="275" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="274" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="273" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="272" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="271" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="cellIs" dxfId="270" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="269" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="cellIs" dxfId="268" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="267" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="266" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:E72">
-    <cfRule type="cellIs" dxfId="265" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="264" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="263" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="262" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="261" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="260" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="259" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="258" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76">
-    <cfRule type="cellIs" dxfId="257" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="256" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="cellIs" dxfId="255" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="254" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78">
-    <cfRule type="cellIs" dxfId="253" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="cellIs" dxfId="252" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="251" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="250" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="249" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="248" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="247" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="246" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="245" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="cellIs" dxfId="244" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="243" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90">
-    <cfRule type="cellIs" dxfId="242" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="241" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91">
-    <cfRule type="cellIs" dxfId="240" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93:E93">
-    <cfRule type="cellIs" dxfId="239" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:D95">
-    <cfRule type="cellIs" dxfId="238" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96">
-    <cfRule type="cellIs" dxfId="237" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="236" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="235" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:E99">
-    <cfRule type="cellIs" dxfId="234" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="233" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100">
-    <cfRule type="cellIs" dxfId="232" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101:D101">
-    <cfRule type="cellIs" dxfId="231" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="230" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="cellIs" dxfId="229" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="228" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="227" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="226" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="225" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="cellIs" dxfId="224" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="cellIs" dxfId="223" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="222" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="221" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="220" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="219" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="218" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="217" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="218" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D11">
+    <cfRule type="cellIs" dxfId="217" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="216" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D18">
+    <cfRule type="cellIs" dxfId="215" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="214" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:E20">
+    <cfRule type="cellIs" dxfId="213" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="212" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="cellIs" dxfId="211" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E25">
+    <cfRule type="cellIs" dxfId="210" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="cellIs" dxfId="209" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:H30">
+    <cfRule type="cellIs" dxfId="208" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:F30">
+    <cfRule type="cellIs" dxfId="207" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="cellIs" dxfId="206" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="205" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" dxfId="204" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="203" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="202" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="201" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="200" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="199" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="198" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="197" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="196" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="195" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="cellIs" dxfId="194" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="cellIs" dxfId="193" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41">
+    <cfRule type="cellIs" dxfId="192" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="191" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="190" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="216" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="215" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D11">
-    <cfRule type="cellIs" dxfId="214" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="213" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D18">
-    <cfRule type="cellIs" dxfId="212" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="211" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="210" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="209" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="208" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="207" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="206" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30:H30">
-    <cfRule type="cellIs" dxfId="205" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30:F30">
-    <cfRule type="cellIs" dxfId="204" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="203" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="202" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="201" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="200" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="199" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="198" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="197" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="196" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="195" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="194" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="193" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="192" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="191" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="190" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="189" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="188" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="187" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9633,7 +9665,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9962,7 +9994,7 @@
         <v>57</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21">
@@ -10033,16 +10065,22 @@
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="47"/>
-      <c r="B15" s="43"/>
+      <c r="B15" s="43">
+        <v>44607</v>
+      </c>
       <c r="C15" s="60">
         <v>13</v>
       </c>
-      <c r="D15" s="55"/>
+      <c r="D15" s="55" t="s">
+        <v>62</v>
+      </c>
       <c r="E15" s="56" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
+      <c r="G15" s="21">
+        <v>-20</v>
+      </c>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="22"/>
@@ -10054,16 +10092,22 @@
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="47"/>
-      <c r="B16" s="43"/>
+      <c r="B16" s="43">
+        <v>44608</v>
+      </c>
       <c r="C16" s="60">
         <v>14</v>
       </c>
-      <c r="D16" s="55"/>
+      <c r="D16" s="55" t="s">
+        <v>50</v>
+      </c>
       <c r="E16" s="56" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
+      <c r="G16" s="21">
+        <v>-33.86</v>
+      </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="22"/>
@@ -10075,16 +10119,22 @@
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47"/>
-      <c r="B17" s="15"/>
+      <c r="B17" s="15">
+        <v>44620</v>
+      </c>
       <c r="C17" s="60">
         <v>15</v>
       </c>
-      <c r="D17" s="55"/>
+      <c r="D17" s="55" t="s">
+        <v>64</v>
+      </c>
       <c r="E17" s="56" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="G17" s="21">
+        <v>-50</v>
+      </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="22"/>
@@ -10096,16 +10146,22 @@
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47"/>
-      <c r="B18" s="15"/>
+      <c r="B18" s="15">
+        <v>44622</v>
+      </c>
       <c r="C18" s="60">
         <v>16</v>
       </c>
-      <c r="D18" s="55"/>
+      <c r="D18" s="97" t="s">
+        <v>45</v>
+      </c>
       <c r="E18" s="56" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
+      <c r="G18" s="21">
+        <v>-141</v>
+      </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="22"/>
@@ -10117,16 +10173,22 @@
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47"/>
-      <c r="B19" s="15"/>
+      <c r="B19" s="15">
+        <v>44622</v>
+      </c>
       <c r="C19" s="60">
         <v>17</v>
       </c>
-      <c r="D19" s="55"/>
+      <c r="D19" s="97" t="s">
+        <v>45</v>
+      </c>
       <c r="E19" s="56" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
+      <c r="G19" s="21">
+        <v>-20</v>
+      </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="22"/>
@@ -10138,16 +10200,22 @@
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="47"/>
-      <c r="B20" s="15"/>
+      <c r="B20" s="15">
+        <v>44623</v>
+      </c>
       <c r="C20" s="60">
         <v>18</v>
       </c>
-      <c r="D20" s="55"/>
+      <c r="D20" s="55" t="s">
+        <v>21</v>
+      </c>
       <c r="E20" s="56" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
+      <c r="G20" s="21">
+        <v>-12</v>
+      </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="22"/>
@@ -38678,7 +38746,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-416.48999999999995</v>
+        <v>-693.34999999999991</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -40611,912 +40679,922 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
-    <cfRule type="cellIs" dxfId="186" priority="515" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="517" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="185" priority="505" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="507" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="184" priority="467" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="469" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="183" priority="423" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="425" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="182" priority="399" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="401" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="181" priority="397" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="399" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="180" priority="383" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="385" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="179" priority="349" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="351" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="178" priority="306" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="308" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="177" priority="292" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="294" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="176" priority="291" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="293" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="175" priority="288" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="290" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="174" priority="287" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="289" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="173" priority="286" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="288" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="172" priority="285" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="287" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="171" priority="284" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="286" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="170" priority="283" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="285" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="169" priority="282" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="284" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="168" priority="281" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="283" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="167" priority="280" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="282" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="166" priority="279" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="281" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="165" priority="278" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="280" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="164" priority="277" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="279" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="163" priority="276" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="278" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="162" priority="275" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="277" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="161" priority="274" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="276" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="160" priority="273" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="275" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="159" priority="272" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="274" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="158" priority="271" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="273" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="157" priority="270" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="272" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="156" priority="268" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="270" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="155" priority="267" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="269" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="154" priority="266" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="268" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="153" priority="265" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="267" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="152" priority="264" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="266" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="151" priority="263" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="265" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="150" priority="262" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="264" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="149" priority="261" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="263" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="148" priority="260" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="262" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="147" priority="259" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="261" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="146" priority="256" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="258" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="145" priority="255" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="257" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="144" priority="254" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="256" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="143" priority="253" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="255" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="142" priority="252" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="254" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="141" priority="251" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="253" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="140" priority="250" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="252" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="139" priority="249" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="251" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="138" priority="248" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="250" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="137" priority="246" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="248" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="136" priority="245" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="247" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="135" priority="244" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="246" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="134" priority="243" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="245" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="133" priority="242" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="244" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="132" priority="241" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="243" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="131" priority="240" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="242" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="130" priority="239" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="241" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="129" priority="237" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="239" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="128" priority="236" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="238" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="127" priority="235" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="237" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="126" priority="234" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="236" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="125" priority="233" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="235" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="124" priority="232" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="234" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="123" priority="231" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="233" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="122" priority="230" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="232" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="121" priority="208" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="210" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="120" priority="199" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="201" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="119" priority="197" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="199" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="118" priority="196" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="198" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="117" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="183" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="116" priority="180" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="115" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="180" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="114" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="113" priority="160" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="112" priority="155" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="157" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="111" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="156" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="110" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E5 E7:E26">
-    <cfRule type="cellIs" dxfId="109" priority="135" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:E5 E7:E19 E21:E26">
+    <cfRule type="cellIs" dxfId="112" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="108" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="107" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="106" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="105" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="104" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="103" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="102" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="101" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="100" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="99" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="98" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="97" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="96" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="95" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="94" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="93" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="92" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="91" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="90" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="89" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="88" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="87" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="86" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="85" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="84" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="83" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="82" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="81" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="80" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="79" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="78" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="77" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="76" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="75" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="74" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="73" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="72" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="71" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="70" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="69" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="68" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="67" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="66" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="65" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="64" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="63" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="62" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="61" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="60" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="59" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="58" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="57" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="56" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="55" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="54" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="53" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="52" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="51" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="50" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="49" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="48" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="47" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="46" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="45" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="44" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="43" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="42" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="41" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="40" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="39" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="38" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="37" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="36" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="35" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="34" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="33" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="32" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="31" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="29" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="28" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="27" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D114">
-    <cfRule type="cellIs" dxfId="26" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="25" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="24" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="23" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="22" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="21" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="20" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="19" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="18" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D122">
-    <cfRule type="cellIs" dxfId="17" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="16" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
+  <conditionalFormatting sqref="E20">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E93 E59:E66 E37 E48 E44 E116 E95:E102 E107:E114 E132:E138 E144:E169 E125:E130 E70:E89 E10:E26 E3:E5 E8" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E93 E59:E66 E37 E48 E44 E116 E95:E102 E107:E114 E132:E138 E144:E169 E125:E130 E70:E89 E8 E3:E5 E10:E26" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E139:E143" xr:uid="{00000000-0002-0000-0100-000001000000}">

--- a/AWO_Einnahmen_Ausgaben_2022.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6375476C-8ABF-41B9-BAD3-C078C26579CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB42D8E4-38FC-41DC-8145-5DE4ED069022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -19,9 +19,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$K$164</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$I$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$I$100</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$J$170</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$I$112</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$I$109</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="68">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -186,15 +186,6 @@
     <t>GEZ</t>
   </si>
   <si>
-    <t>7a</t>
-  </si>
-  <si>
-    <t>9a</t>
-  </si>
-  <si>
-    <t>12a</t>
-  </si>
-  <si>
     <t>Telekom</t>
   </si>
   <si>
@@ -238,6 +229,24 @@
   </si>
   <si>
     <t>Bürgerbus</t>
+  </si>
+  <si>
+    <t>80er Fr.Hungreder</t>
+  </si>
+  <si>
+    <t>Wasser</t>
+  </si>
+  <si>
+    <t>TzgL 22.3.</t>
+  </si>
+  <si>
+    <t>Spende Fr.Irion</t>
+  </si>
+  <si>
+    <t>Spende Vereinsfoerderung</t>
+  </si>
+  <si>
+    <t>TzgL Ausgaben Roland</t>
   </si>
 </sst>
 </file>
@@ -935,117 +944,11 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="328">
+  <dxfs count="327">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2642,6 +2545,107 @@
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0"/>
   <colors>
@@ -2771,7 +2775,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bernd Wild" refreshedDate="44565.375680902776" createdVersion="4" refreshedVersion="7" minRefreshableVersion="3" recordCount="105" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="D2:I107" sheet="Einnahmen"/>
+    <worksheetSource ref="D2:I104" sheet="Einnahmen"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Zweck II" numFmtId="0">
@@ -5085,17 +5089,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="5">
+    <format dxfId="323">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="322">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="321">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5188,17 +5192,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="8">
+    <format dxfId="326">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="325">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="324">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6322,11 +6326,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:IK173"/>
+  <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6399,7 +6403,7 @@
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="54" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12">
@@ -6430,7 +6434,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D4" s="95" t="s">
         <v>28</v>
@@ -6455,7 +6459,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>26</v>
@@ -6480,7 +6484,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>22</v>
@@ -6505,7 +6509,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>13</v>
@@ -6530,7 +6534,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>14</v>
@@ -6548,14 +6552,22 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="15">
+        <v>44643</v>
+      </c>
       <c r="B9" s="60">
         <v>6</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="41"/>
+      <c r="C9" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>0</v>
+      </c>
       <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
+      <c r="F9" s="21">
+        <v>112</v>
+      </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="19"/>
@@ -6565,14 +6577,22 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="15">
+        <v>44643</v>
+      </c>
       <c r="B10" s="60">
         <v>7</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="41"/>
+      <c r="C10" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>13</v>
+      </c>
       <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
+      <c r="F10" s="21">
+        <v>30</v>
+      </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="19"/>
@@ -6582,27 +6602,37 @@
       </c>
     </row>
     <row r="11" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
+      <c r="A11" s="15">
+        <v>44644</v>
+      </c>
+      <c r="B11" s="60">
+        <v>8</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18">
+        <v>450</v>
+      </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="19"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="53"/>
+      <c r="K11" s="53" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="60">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="55"/>
-      <c r="D12" s="41"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="17"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
@@ -6610,30 +6640,30 @@
       <c r="I12" s="19"/>
       <c r="J12" s="2"/>
       <c r="K12" s="53" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="60">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="55"/>
       <c r="D13" s="57"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
+      <c r="F13" s="58"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="19"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="53" t="s">
-        <v>25</v>
+      <c r="K13" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
-      <c r="B14" s="60" t="s">
-        <v>48</v>
+      <c r="B14" s="60">
+        <v>11</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="57"/>
@@ -6643,29 +6673,31 @@
       <c r="H14" s="18"/>
       <c r="I14" s="19"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="53"/>
+      <c r="K14" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="60">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15" s="55"/>
       <c r="D15" s="57"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="58"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="19"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="60">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C16" s="55"/>
       <c r="D16" s="57"/>
@@ -6676,13 +6708,13 @@
       <c r="I16" s="19"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="60">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C17" s="55"/>
       <c r="D17" s="57"/>
@@ -6693,13 +6725,13 @@
       <c r="I17" s="19"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
-      <c r="B18" s="60" t="s">
-        <v>49</v>
+      <c r="B18" s="60">
+        <v>15</v>
       </c>
       <c r="C18" s="55"/>
       <c r="D18" s="57"/>
@@ -6709,12 +6741,14 @@
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="60">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C19" s="55"/>
       <c r="D19" s="57"/>
@@ -6725,13 +6759,13 @@
       <c r="I19" s="19"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="60">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C20" s="55"/>
       <c r="D20" s="57"/>
@@ -6741,14 +6775,12 @@
       <c r="H20" s="18"/>
       <c r="I20" s="19"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="60">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C21" s="55"/>
       <c r="D21" s="57"/>
@@ -6758,14 +6790,12 @@
       <c r="H21" s="18"/>
       <c r="I21" s="19"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="60">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C22" s="55"/>
       <c r="D22" s="57"/>
@@ -6775,14 +6805,12 @@
       <c r="H22" s="18"/>
       <c r="I22" s="19"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
-      <c r="B23" s="60">
-        <v>17</v>
+      <c r="B23" s="16">
+        <v>20</v>
       </c>
       <c r="C23" s="55"/>
       <c r="D23" s="57"/>
@@ -6796,8 +6824,8 @@
     </row>
     <row r="24" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
-      <c r="B24" s="60">
-        <v>18</v>
+      <c r="B24" s="16">
+        <v>21</v>
       </c>
       <c r="C24" s="55"/>
       <c r="D24" s="57"/>
@@ -6812,7 +6840,7 @@
     <row r="25" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="60">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C25" s="55"/>
       <c r="D25" s="57"/>
@@ -6826,10 +6854,10 @@
     </row>
     <row r="26" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
-      <c r="B26" s="16">
-        <v>20</v>
-      </c>
-      <c r="C26" s="55"/>
+      <c r="B26" s="60">
+        <v>23</v>
+      </c>
+      <c r="C26" s="40"/>
       <c r="D26" s="57"/>
       <c r="E26" s="17"/>
       <c r="F26" s="18"/>
@@ -6842,7 +6870,7 @@
     <row r="27" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="16">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C27" s="55"/>
       <c r="D27" s="57"/>
@@ -6856,11 +6884,11 @@
     </row>
     <row r="28" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
-      <c r="B28" s="60">
-        <v>22</v>
+      <c r="B28" s="16">
+        <v>25</v>
       </c>
       <c r="C28" s="55"/>
-      <c r="D28" s="57"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="17"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
@@ -6870,11 +6898,11 @@
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="60">
-        <v>23</v>
-      </c>
-      <c r="C29" s="40"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="16">
+        <v>26</v>
+      </c>
+      <c r="C29" s="55"/>
       <c r="D29" s="57"/>
       <c r="E29" s="17"/>
       <c r="F29" s="18"/>
@@ -6885,12 +6913,12 @@
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="16">
-        <v>24</v>
-      </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="57"/>
+        <v>27</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="17"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
@@ -6900,11 +6928,11 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="16">
-        <v>25</v>
-      </c>
-      <c r="C31" s="55"/>
+        <v>28</v>
+      </c>
+      <c r="C31" s="42"/>
       <c r="D31" s="41"/>
       <c r="E31" s="17"/>
       <c r="F31" s="18"/>
@@ -6917,10 +6945,10 @@
     <row r="32" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="43"/>
       <c r="B32" s="16">
-        <v>26</v>
-      </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="57"/>
+        <v>29</v>
+      </c>
+      <c r="C32" s="42"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="17"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
@@ -6930,9 +6958,9 @@
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="16">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C33" s="42"/>
       <c r="D33" s="19"/>
@@ -6945,12 +6973,12 @@
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="16">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
@@ -6960,12 +6988,12 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="43"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="16">
-        <v>29</v>
-      </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="19"/>
+        <v>32</v>
+      </c>
+      <c r="C35" s="55"/>
+      <c r="D35" s="41"/>
       <c r="E35" s="17"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
@@ -6977,7 +7005,7 @@
     <row r="36" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="16">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C36" s="42"/>
       <c r="D36" s="19"/>
@@ -6992,10 +7020,10 @@
     <row r="37" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="16">
-        <v>31</v>
-      </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="19"/>
+        <v>34</v>
+      </c>
+      <c r="C37" s="55"/>
+      <c r="D37" s="41"/>
       <c r="E37" s="17"/>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
@@ -7006,12 +7034,12 @@
     </row>
     <row r="38" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
-      <c r="B38" s="16">
-        <v>32</v>
-      </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="17"/>
+      <c r="B38" s="61">
+        <v>35</v>
+      </c>
+      <c r="C38" s="40"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="20"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
@@ -7022,10 +7050,10 @@
     <row r="39" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="15"/>
       <c r="B39" s="16">
-        <v>33</v>
-      </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="19"/>
+        <v>36</v>
+      </c>
+      <c r="C39" s="55"/>
+      <c r="D39" s="41"/>
       <c r="E39" s="17"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -7037,7 +7065,7 @@
     <row r="40" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
       <c r="B40" s="16">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C40" s="55"/>
       <c r="D40" s="41"/>
@@ -7051,12 +7079,12 @@
     </row>
     <row r="41" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="15"/>
-      <c r="B41" s="61">
-        <v>35</v>
-      </c>
-      <c r="C41" s="40"/>
+      <c r="B41" s="16">
+        <v>38</v>
+      </c>
+      <c r="C41" s="55"/>
       <c r="D41" s="57"/>
-      <c r="E41" s="20"/>
+      <c r="E41" s="17"/>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
@@ -7066,12 +7094,12 @@
     </row>
     <row r="42" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15"/>
-      <c r="B42" s="16">
-        <v>36</v>
-      </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="17"/>
+      <c r="B42" s="61">
+        <v>39</v>
+      </c>
+      <c r="C42" s="40"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="20"/>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
@@ -7082,11 +7110,11 @@
     <row r="43" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15"/>
       <c r="B43" s="16">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C43" s="55"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="17"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="20"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
@@ -7097,11 +7125,11 @@
     <row r="44" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="B44" s="16">
-        <v>38</v>
-      </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="17"/>
+        <v>41</v>
+      </c>
+      <c r="C44" s="40"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="20"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
@@ -7111,12 +7139,12 @@
     </row>
     <row r="45" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15"/>
-      <c r="B45" s="61">
-        <v>39</v>
-      </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
+      <c r="B45" s="16">
+        <v>42</v>
+      </c>
+      <c r="C45" s="55"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="17"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
@@ -7127,11 +7155,11 @@
     <row r="46" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15"/>
       <c r="B46" s="16">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C46" s="55"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="20"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="17"/>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
@@ -7142,11 +7170,11 @@
     <row r="47" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
       <c r="B47" s="16">
-        <v>41</v>
-      </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="20"/>
+        <v>44</v>
+      </c>
+      <c r="C47" s="55"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="17"/>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
@@ -7157,10 +7185,10 @@
     <row r="48" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15"/>
       <c r="B48" s="16">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C48" s="55"/>
-      <c r="D48" s="57"/>
+      <c r="D48" s="41"/>
       <c r="E48" s="17"/>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
@@ -7172,7 +7200,7 @@
     <row r="49" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="15"/>
       <c r="B49" s="16">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C49" s="55"/>
       <c r="D49" s="41"/>
@@ -7187,11 +7215,11 @@
     <row r="50" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15"/>
       <c r="B50" s="16">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C50" s="55"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="17"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="20"/>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
       <c r="H50" s="18"/>
@@ -7202,11 +7230,11 @@
     <row r="51" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15"/>
       <c r="B51" s="16">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C51" s="55"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="17"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="20"/>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
       <c r="H51" s="18"/>
@@ -7217,11 +7245,11 @@
     <row r="52" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="15"/>
       <c r="B52" s="16">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C52" s="55"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="17"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="20"/>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
@@ -7232,11 +7260,11 @@
     <row r="53" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15"/>
       <c r="B53" s="16">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C53" s="55"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="20"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="17"/>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
       <c r="H53" s="18"/>
@@ -7247,7 +7275,7 @@
     <row r="54" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="B54" s="16">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C54" s="55"/>
       <c r="D54" s="2"/>
@@ -7261,11 +7289,11 @@
     </row>
     <row r="55" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
-      <c r="B55" s="16">
-        <v>49</v>
-      </c>
-      <c r="C55" s="55"/>
-      <c r="D55" s="2"/>
+      <c r="B55" s="61">
+        <v>52</v>
+      </c>
+      <c r="C55" s="40"/>
+      <c r="D55" s="19"/>
       <c r="E55" s="20"/>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
@@ -7276,12 +7304,12 @@
     </row>
     <row r="56" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15"/>
-      <c r="B56" s="16">
-        <v>50</v>
-      </c>
-      <c r="C56" s="55"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="17"/>
+      <c r="B56" s="42">
+        <v>53</v>
+      </c>
+      <c r="C56" s="40"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="20"/>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
       <c r="H56" s="18"/>
@@ -7292,13 +7320,13 @@
     <row r="57" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15"/>
       <c r="B57" s="16">
-        <v>51</v>
-      </c>
-      <c r="C57" s="55"/>
-      <c r="D57" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="C57" s="42"/>
+      <c r="D57" s="19"/>
       <c r="E57" s="20"/>
       <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
+      <c r="G57" s="58"/>
       <c r="H57" s="18"/>
       <c r="I57" s="19"/>
       <c r="J57" s="2"/>
@@ -7306,12 +7334,12 @@
     </row>
     <row r="58" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="15"/>
-      <c r="B58" s="61">
-        <v>52</v>
-      </c>
-      <c r="C58" s="40"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="20"/>
+      <c r="B58" s="16">
+        <v>55</v>
+      </c>
+      <c r="C58" s="55"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="17"/>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
@@ -7321,12 +7349,12 @@
     </row>
     <row r="59" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15"/>
-      <c r="B59" s="42">
-        <v>53</v>
-      </c>
-      <c r="C59" s="40"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="20"/>
+      <c r="B59" s="16">
+        <v>56</v>
+      </c>
+      <c r="C59" s="55"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="17"/>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
@@ -7337,13 +7365,13 @@
     <row r="60" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15"/>
       <c r="B60" s="16">
-        <v>54</v>
-      </c>
-      <c r="C60" s="42"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="20"/>
+        <v>57</v>
+      </c>
+      <c r="C60" s="55"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="17"/>
       <c r="F60" s="18"/>
-      <c r="G60" s="58"/>
+      <c r="G60" s="18"/>
       <c r="H60" s="18"/>
       <c r="I60" s="19"/>
       <c r="J60" s="2"/>
@@ -7351,13 +7379,12 @@
     </row>
     <row r="61" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15"/>
-      <c r="B61" s="16">
-        <v>55</v>
-      </c>
-      <c r="C61" s="55"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="18"/>
+      <c r="B61" s="61">
+        <v>58</v>
+      </c>
+      <c r="C61" s="40"/>
+      <c r="D61" s="19"/>
+      <c r="F61" s="17"/>
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
       <c r="I61" s="19"/>
@@ -7366,13 +7393,13 @@
     </row>
     <row r="62" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15"/>
-      <c r="B62" s="16">
-        <v>56</v>
-      </c>
-      <c r="C62" s="55"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="18"/>
+      <c r="B62" s="60">
+        <v>59</v>
+      </c>
+      <c r="C62" s="40"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="21"/>
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
       <c r="I62" s="19"/>
@@ -7381,12 +7408,12 @@
     </row>
     <row r="63" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
-      <c r="B63" s="16">
-        <v>57</v>
-      </c>
-      <c r="C63" s="55"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="17"/>
+      <c r="B63" s="60">
+        <v>60</v>
+      </c>
+      <c r="C63" s="40"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="20"/>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
@@ -7396,12 +7423,13 @@
     </row>
     <row r="64" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15"/>
-      <c r="B64" s="61">
-        <v>58</v>
+      <c r="B64" s="60">
+        <v>61</v>
       </c>
       <c r="C64" s="40"/>
       <c r="D64" s="19"/>
-      <c r="F64" s="17"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="18"/>
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
       <c r="I64" s="19"/>
@@ -7411,12 +7439,12 @@
     <row r="65" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15"/>
       <c r="B65" s="60">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C65" s="40"/>
       <c r="D65" s="19"/>
       <c r="E65" s="20"/>
-      <c r="F65" s="21"/>
+      <c r="F65" s="58"/>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
       <c r="I65" s="19"/>
@@ -7425,12 +7453,12 @@
     </row>
     <row r="66" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15"/>
-      <c r="B66" s="60">
-        <v>60</v>
-      </c>
-      <c r="C66" s="40"/>
+      <c r="B66" s="16">
+        <v>63</v>
+      </c>
+      <c r="C66" s="42"/>
       <c r="D66" s="19"/>
-      <c r="E66" s="20"/>
+      <c r="E66" s="17"/>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
@@ -7440,8 +7468,8 @@
     </row>
     <row r="67" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="15"/>
-      <c r="B67" s="60">
-        <v>61</v>
+      <c r="B67" s="61">
+        <v>64</v>
       </c>
       <c r="C67" s="40"/>
       <c r="D67" s="19"/>
@@ -7455,13 +7483,13 @@
     </row>
     <row r="68" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15"/>
-      <c r="B68" s="60">
-        <v>62</v>
-      </c>
-      <c r="C68" s="40"/>
+      <c r="B68" s="16">
+        <v>65</v>
+      </c>
+      <c r="C68" s="42"/>
       <c r="D68" s="19"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="58"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="18"/>
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
       <c r="I68" s="19"/>
@@ -7471,7 +7499,7 @@
     <row r="69" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="15"/>
       <c r="B69" s="16">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C69" s="42"/>
       <c r="D69" s="19"/>
@@ -7485,12 +7513,12 @@
     </row>
     <row r="70" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="15"/>
-      <c r="B70" s="61">
-        <v>64</v>
-      </c>
-      <c r="C70" s="40"/>
+      <c r="B70" s="16">
+        <v>67</v>
+      </c>
+      <c r="C70" s="42"/>
       <c r="D70" s="19"/>
-      <c r="E70" s="20"/>
+      <c r="E70" s="17"/>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
@@ -7501,10 +7529,10 @@
     <row r="71" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="15"/>
       <c r="B71" s="16">
-        <v>65</v>
-      </c>
-      <c r="C71" s="42"/>
-      <c r="D71" s="19"/>
+        <v>68</v>
+      </c>
+      <c r="C71" s="55"/>
+      <c r="D71" s="41"/>
       <c r="E71" s="17"/>
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
@@ -7516,10 +7544,10 @@
     <row r="72" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="15"/>
       <c r="B72" s="16">
-        <v>66</v>
-      </c>
-      <c r="C72" s="42"/>
-      <c r="D72" s="19"/>
+        <v>69</v>
+      </c>
+      <c r="C72" s="55"/>
+      <c r="D72" s="41"/>
       <c r="E72" s="17"/>
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
@@ -7531,9 +7559,9 @@
     <row r="73" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="15"/>
       <c r="B73" s="16">
-        <v>67</v>
-      </c>
-      <c r="C73" s="42"/>
+        <v>70</v>
+      </c>
+      <c r="C73" s="55"/>
       <c r="D73" s="19"/>
       <c r="E73" s="17"/>
       <c r="F73" s="18"/>
@@ -7546,10 +7574,10 @@
     <row r="74" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="15"/>
       <c r="B74" s="16">
-        <v>68</v>
-      </c>
-      <c r="C74" s="55"/>
-      <c r="D74" s="41"/>
+        <v>71</v>
+      </c>
+      <c r="C74" s="42"/>
+      <c r="D74" s="19"/>
       <c r="E74" s="17"/>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
@@ -7561,10 +7589,10 @@
     <row r="75" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="15"/>
       <c r="B75" s="16">
-        <v>69</v>
-      </c>
-      <c r="C75" s="55"/>
-      <c r="D75" s="41"/>
+        <v>72</v>
+      </c>
+      <c r="C75" s="42"/>
+      <c r="D75" s="19"/>
       <c r="E75" s="17"/>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
@@ -7576,9 +7604,9 @@
     <row r="76" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="15"/>
       <c r="B76" s="16">
-        <v>70</v>
-      </c>
-      <c r="C76" s="55"/>
+        <v>73</v>
+      </c>
+      <c r="C76" s="42"/>
       <c r="D76" s="19"/>
       <c r="E76" s="17"/>
       <c r="F76" s="18"/>
@@ -7591,7 +7619,7 @@
     <row r="77" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="B77" s="16">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C77" s="42"/>
       <c r="D77" s="19"/>
@@ -7604,9 +7632,9 @@
       <c r="K77" s="2"/>
     </row>
     <row r="78" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="15"/>
+      <c r="A78" s="43"/>
       <c r="B78" s="16">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C78" s="42"/>
       <c r="D78" s="19"/>
@@ -7621,9 +7649,9 @@
     <row r="79" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="15"/>
       <c r="B79" s="16">
-        <v>73</v>
-      </c>
-      <c r="C79" s="42"/>
+        <v>76</v>
+      </c>
+      <c r="C79" s="40"/>
       <c r="D79" s="19"/>
       <c r="E79" s="17"/>
       <c r="F79" s="18"/>
@@ -7634,9 +7662,9 @@
       <c r="K79" s="2"/>
     </row>
     <row r="80" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="15"/>
+      <c r="A80" s="43"/>
       <c r="B80" s="16">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C80" s="42"/>
       <c r="D80" s="19"/>
@@ -7651,7 +7679,7 @@
     <row r="81" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="43"/>
       <c r="B81" s="16">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C81" s="42"/>
       <c r="D81" s="19"/>
@@ -7665,13 +7693,12 @@
     </row>
     <row r="82" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="15"/>
-      <c r="B82" s="16">
-        <v>76</v>
-      </c>
-      <c r="C82" s="40"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="18"/>
+      <c r="B82" s="60">
+        <v>79</v>
+      </c>
+      <c r="C82" s="64"/>
+      <c r="E82" s="65"/>
+      <c r="F82" s="21"/>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
       <c r="I82" s="19"/>
@@ -7679,12 +7706,12 @@
       <c r="K82" s="2"/>
     </row>
     <row r="83" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="43"/>
+      <c r="A83" s="15"/>
       <c r="B83" s="16">
-        <v>77</v>
-      </c>
-      <c r="C83" s="42"/>
-      <c r="D83" s="19"/>
+        <v>80</v>
+      </c>
+      <c r="C83" s="55"/>
+      <c r="D83" s="41"/>
       <c r="E83" s="17"/>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
@@ -7694,12 +7721,12 @@
       <c r="K83" s="2"/>
     </row>
     <row r="84" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="43"/>
+      <c r="A84" s="15"/>
       <c r="B84" s="16">
-        <v>78</v>
-      </c>
-      <c r="C84" s="42"/>
-      <c r="D84" s="19"/>
+        <v>81</v>
+      </c>
+      <c r="C84" s="55"/>
+      <c r="D84" s="41"/>
       <c r="E84" s="17"/>
       <c r="F84" s="18"/>
       <c r="G84" s="18"/>
@@ -7710,12 +7737,13 @@
     </row>
     <row r="85" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="15"/>
-      <c r="B85" s="60">
-        <v>79</v>
-      </c>
-      <c r="C85" s="64"/>
-      <c r="E85" s="65"/>
-      <c r="F85" s="21"/>
+      <c r="B85" s="16">
+        <v>82</v>
+      </c>
+      <c r="C85" s="55"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="18"/>
       <c r="G85" s="18"/>
       <c r="H85" s="18"/>
       <c r="I85" s="19"/>
@@ -7725,7 +7753,7 @@
     <row r="86" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15"/>
       <c r="B86" s="16">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C86" s="55"/>
       <c r="D86" s="41"/>
@@ -7740,7 +7768,7 @@
     <row r="87" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15"/>
       <c r="B87" s="16">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C87" s="55"/>
       <c r="D87" s="41"/>
@@ -7755,7 +7783,7 @@
     <row r="88" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15"/>
       <c r="B88" s="16">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C88" s="55"/>
       <c r="D88" s="41"/>
@@ -7770,10 +7798,10 @@
     <row r="89" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="15"/>
       <c r="B89" s="16">
-        <v>83</v>
-      </c>
-      <c r="C89" s="55"/>
-      <c r="D89" s="41"/>
+        <v>86</v>
+      </c>
+      <c r="C89" s="42"/>
+      <c r="D89" s="19"/>
       <c r="E89" s="17"/>
       <c r="F89" s="18"/>
       <c r="G89" s="18"/>
@@ -7785,10 +7813,10 @@
     <row r="90" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="15"/>
       <c r="B90" s="16">
-        <v>84</v>
-      </c>
-      <c r="C90" s="55"/>
-      <c r="D90" s="41"/>
+        <v>87</v>
+      </c>
+      <c r="C90" s="42"/>
+      <c r="D90" s="19"/>
       <c r="E90" s="17"/>
       <c r="F90" s="18"/>
       <c r="G90" s="18"/>
@@ -7800,10 +7828,10 @@
     <row r="91" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="15"/>
       <c r="B91" s="16">
-        <v>85</v>
-      </c>
-      <c r="C91" s="55"/>
-      <c r="D91" s="41"/>
+        <v>88</v>
+      </c>
+      <c r="C91" s="42"/>
+      <c r="D91" s="19"/>
       <c r="E91" s="17"/>
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
@@ -7814,13 +7842,13 @@
     </row>
     <row r="92" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15"/>
-      <c r="B92" s="16">
-        <v>86</v>
-      </c>
-      <c r="C92" s="42"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="18"/>
+      <c r="B92" s="60">
+        <v>89</v>
+      </c>
+      <c r="C92" s="40"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
       <c r="G92" s="18"/>
       <c r="H92" s="18"/>
       <c r="I92" s="19"/>
@@ -7830,7 +7858,7 @@
     <row r="93" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15"/>
       <c r="B93" s="16">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C93" s="42"/>
       <c r="D93" s="19"/>
@@ -7845,7 +7873,7 @@
     <row r="94" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="15"/>
       <c r="B94" s="16">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C94" s="42"/>
       <c r="D94" s="19"/>
@@ -7859,13 +7887,13 @@
     </row>
     <row r="95" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="15"/>
-      <c r="B95" s="60">
-        <v>89</v>
-      </c>
-      <c r="C95" s="40"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="21"/>
+      <c r="B95" s="16">
+        <v>92</v>
+      </c>
+      <c r="C95" s="42"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="18"/>
       <c r="G95" s="18"/>
       <c r="H95" s="18"/>
       <c r="I95" s="19"/>
@@ -7875,7 +7903,7 @@
     <row r="96" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="15"/>
       <c r="B96" s="16">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C96" s="42"/>
       <c r="D96" s="19"/>
@@ -7890,7 +7918,7 @@
     <row r="97" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="15"/>
       <c r="B97" s="16">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C97" s="42"/>
       <c r="D97" s="19"/>
@@ -7905,12 +7933,12 @@
     <row r="98" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15"/>
       <c r="B98" s="16">
-        <v>92</v>
-      </c>
-      <c r="C98" s="42"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="18"/>
+        <v>95</v>
+      </c>
+      <c r="C98" s="40"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
       <c r="G98" s="18"/>
       <c r="H98" s="18"/>
       <c r="I98" s="19"/>
@@ -7920,7 +7948,7 @@
     <row r="99" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="15"/>
       <c r="B99" s="16">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C99" s="42"/>
       <c r="D99" s="19"/>
@@ -7935,7 +7963,7 @@
     <row r="100" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="15"/>
       <c r="B100" s="16">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C100" s="42"/>
       <c r="D100" s="19"/>
@@ -7949,13 +7977,11 @@
     </row>
     <row r="101" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="15"/>
-      <c r="B101" s="16">
-        <v>95</v>
-      </c>
-      <c r="C101" s="40"/>
-      <c r="D101" s="41"/>
-      <c r="E101" s="21"/>
-      <c r="F101" s="21"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="42"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="18"/>
       <c r="G101" s="18"/>
       <c r="H101" s="18"/>
       <c r="I101" s="19"/>
@@ -7964,9 +7990,7 @@
     </row>
     <row r="102" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="15"/>
-      <c r="B102" s="16">
-        <v>96</v>
-      </c>
+      <c r="B102" s="16"/>
       <c r="C102" s="42"/>
       <c r="D102" s="19"/>
       <c r="E102" s="17"/>
@@ -7979,9 +8003,7 @@
     </row>
     <row r="103" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="15"/>
-      <c r="B103" s="16">
-        <v>97</v>
-      </c>
+      <c r="B103" s="16"/>
       <c r="C103" s="42"/>
       <c r="D103" s="19"/>
       <c r="E103" s="17"/>
@@ -8002,147 +8024,149 @@
       <c r="G104" s="18"/>
       <c r="H104" s="18"/>
       <c r="I104" s="19"/>
-      <c r="J104" s="2"/>
+      <c r="J104" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="K104" s="2"/>
     </row>
     <row r="105" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="15"/>
-      <c r="B105" s="16"/>
-      <c r="C105" s="42"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
-      <c r="I105" s="19"/>
+      <c r="A105" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" s="25"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="27">
+        <f>SUM(E3:E104)</f>
+        <v>322.39999999999998</v>
+      </c>
+      <c r="F105" s="28">
+        <f>SUM(F3:F104)</f>
+        <v>7731.380000000001</v>
+      </c>
+      <c r="G105" s="28">
+        <f>SUM(G3:G104)</f>
+        <v>2000.5</v>
+      </c>
+      <c r="H105" s="28">
+        <f>SUM(H3:H104)</f>
+        <v>608.47</v>
+      </c>
+      <c r="I105" s="29">
+        <f>SUM(I3:I104)</f>
+        <v>949.23</v>
+      </c>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
     <row r="106" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="15"/>
-      <c r="B106" s="16"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="18"/>
-      <c r="I106" s="19"/>
+      <c r="A106" s="35"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="36"/>
+      <c r="F106" s="36"/>
+      <c r="G106" s="36"/>
+      <c r="H106" s="36"/>
+      <c r="I106" s="36"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
     <row r="107" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="15"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="42"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="18"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A107" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107" s="25"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="52"/>
+      <c r="E107" s="28">
+        <f>E105+Ausgaben!F170</f>
+        <v>122.39999999999998</v>
+      </c>
+      <c r="F107" s="28">
+        <f>F105+Ausgaben!G170</f>
+        <v>6940.4400000000014</v>
+      </c>
+      <c r="G107" s="28">
+        <f>G105+Ausgaben!H170</f>
+        <v>2000.5</v>
+      </c>
+      <c r="H107" s="28">
+        <f>H105+Ausgaben!I170</f>
+        <v>441.04</v>
+      </c>
+      <c r="I107" s="29">
+        <f>I105+Ausgaben!J170</f>
+        <v>949.23</v>
+      </c>
+      <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
     <row r="108" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B108" s="25"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="27">
-        <f>SUM(E3:E107)</f>
-        <v>322.39999999999998</v>
-      </c>
-      <c r="F108" s="28">
-        <f>SUM(F3:F107)</f>
-        <v>7139.380000000001</v>
-      </c>
-      <c r="G108" s="28">
-        <f>SUM(G3:G107)</f>
-        <v>2000.5</v>
-      </c>
-      <c r="H108" s="28">
-        <f>SUM(H3:H107)</f>
-        <v>608.47</v>
-      </c>
-      <c r="I108" s="29">
-        <f>SUM(I3:I107)</f>
-        <v>949.23</v>
-      </c>
+      <c r="A108" s="37"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="37"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
     </row>
     <row r="109" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="35"/>
-      <c r="B109" s="35"/>
-      <c r="C109" s="35"/>
-      <c r="D109" s="35"/>
-      <c r="E109" s="36"/>
-      <c r="F109" s="36"/>
-      <c r="G109" s="36"/>
-      <c r="H109" s="36"/>
-      <c r="I109" s="36"/>
+      <c r="A109" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109" s="5"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="29">
+        <f>SUM(E107:I107)</f>
+        <v>10453.61</v>
+      </c>
+      <c r="E109" s="17"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="18"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
     </row>
     <row r="110" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B110" s="25"/>
-      <c r="C110" s="25"/>
-      <c r="D110" s="52"/>
-      <c r="E110" s="28">
-        <f>E108+Ausgaben!F170</f>
-        <v>122.39999999999998</v>
-      </c>
-      <c r="F110" s="28">
-        <f>F108+Ausgaben!G170</f>
-        <v>6446.0300000000007</v>
-      </c>
-      <c r="G110" s="28">
-        <f>G108+Ausgaben!H170</f>
-        <v>2000.5</v>
-      </c>
-      <c r="H110" s="28">
-        <f>H108+Ausgaben!I170</f>
-        <v>441.04</v>
-      </c>
-      <c r="I110" s="29">
-        <f>I108+Ausgaben!J170</f>
-        <v>949.23</v>
-      </c>
+      <c r="A110" s="38"/>
+      <c r="B110" s="38"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="38"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="18"/>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
     <row r="111" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="37"/>
-      <c r="B111" s="37"/>
-      <c r="C111" s="37"/>
-      <c r="D111" s="37"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="13"/>
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="18"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
     <row r="112" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B112" s="5"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="29">
-        <f>SUM(E110:I110)</f>
-        <v>9959.2000000000007</v>
-      </c>
-      <c r="E112" s="17"/>
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="18"/>
       <c r="F112" s="18"/>
       <c r="G112" s="18"/>
       <c r="H112" s="18"/>
@@ -8151,10 +8175,10 @@
       <c r="K112" s="2"/>
     </row>
     <row r="113" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="38"/>
-      <c r="B113" s="38"/>
-      <c r="C113" s="38"/>
-      <c r="D113" s="38"/>
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
       <c r="E113" s="18"/>
       <c r="F113" s="18"/>
       <c r="G113" s="18"/>
@@ -8167,9 +8191,7 @@
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
-      <c r="D114" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="D114" s="2"/>
       <c r="E114" s="18"/>
       <c r="F114" s="18"/>
       <c r="G114" s="18"/>
@@ -8893,755 +8915,711 @@
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
     </row>
-    <row r="170" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="18"/>
-      <c r="F170" s="18"/>
-      <c r="G170" s="18"/>
-      <c r="H170" s="18"/>
-      <c r="I170" s="18"/>
-      <c r="J170" s="2"/>
+    <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K170" s="2"/>
     </row>
-    <row r="171" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="18"/>
-      <c r="F171" s="18"/>
-      <c r="G171" s="18"/>
-      <c r="H171" s="18"/>
-      <c r="I171" s="18"/>
-      <c r="J171" s="2"/>
-      <c r="K171" s="2"/>
-    </row>
-    <row r="172" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="18"/>
-      <c r="F172" s="18"/>
-      <c r="G172" s="18"/>
-      <c r="H172" s="18"/>
-      <c r="I172" s="18"/>
-      <c r="J172" s="2"/>
-      <c r="K172" s="2"/>
-    </row>
-    <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K173" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:I103" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:I100" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D112 E3:I3 E108:I172 D107:I107 G57:G60 G53 F54:G56 F61:G61 E62:G63 D69:G69 E12:G12 F13:G19 G23 F24:G24 F33:G34 F37:G37 F40:G44 F46:G46 G45 F48:G52 G47 F64 G64:G65 F66:G68 D71:G71 G70 F72:G78 D79:G84 D92:G92 G85 F86:G91 F93:G93 D94:G94 D98:G98 G95 E96:G96 F97:G97 D102:G107 F99:G100 G101 F21:G22 G20 H4:I29 G31:G32 G4:G11 F26:G29 G25 H31:I107 I30 G35:G36 G38:G39">
-    <cfRule type="cellIs" dxfId="327" priority="239" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 G20 F21:G21 F30:G31 F34:G34 F37:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F18:G19 G17 G28:G29 G4:G10 F23:G26 G22 H28:I104 I27 G32:G33 G35:G36 F12:G16 H4:I26">
+    <cfRule type="cellIs" dxfId="320" priority="240" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="cellIs" dxfId="319" priority="238" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" dxfId="318" priority="232" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="cellIs" dxfId="317" priority="209" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56">
+    <cfRule type="cellIs" dxfId="316" priority="211" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="cellIs" dxfId="315" priority="207" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="314" priority="183" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="313" priority="181" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:E14">
+    <cfRule type="cellIs" dxfId="312" priority="176" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="311" priority="175" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="310" priority="173" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="309" priority="169" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="308" priority="166" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="307" priority="161" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E25">
+    <cfRule type="cellIs" dxfId="306" priority="159" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="305" priority="158" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:F28">
+    <cfRule type="cellIs" dxfId="304" priority="156" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="303" priority="155" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="cellIs" dxfId="302" priority="154" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="301" priority="153" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="300" priority="150" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="299" priority="148" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="298" priority="144" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="297" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="cellIs" dxfId="296" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="295" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="cellIs" dxfId="294" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:E41">
+    <cfRule type="cellIs" dxfId="293" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="292" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="cellIs" dxfId="291" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="290" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="cellIs" dxfId="289" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="288" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="cellIs" dxfId="287" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:E45">
+    <cfRule type="cellIs" dxfId="286" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="285" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="284" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="283" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="cellIs" dxfId="282" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" dxfId="281" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="280" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="cellIs" dxfId="279" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="278" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="cellIs" dxfId="277" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="276" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="cellIs" dxfId="275" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="cellIs" dxfId="274" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="cellIs" dxfId="273" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="272" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="cellIs" dxfId="271" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="cellIs" dxfId="270" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="269" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="268" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="cellIs" dxfId="267" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="cellIs" dxfId="266" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="cellIs" dxfId="265" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="cellIs" dxfId="264" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="cellIs" dxfId="263" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="cellIs" dxfId="262" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69:E69">
+    <cfRule type="cellIs" dxfId="261" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="260" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70">
+    <cfRule type="cellIs" dxfId="259" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="258" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71">
+    <cfRule type="cellIs" dxfId="257" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="256" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72">
+    <cfRule type="cellIs" dxfId="255" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="254" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73">
+    <cfRule type="cellIs" dxfId="253" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="252" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74">
+    <cfRule type="cellIs" dxfId="251" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="250" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75">
+    <cfRule type="cellIs" dxfId="249" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="cellIs" dxfId="248" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="247" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D83">
+    <cfRule type="cellIs" dxfId="246" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="245" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84">
+    <cfRule type="cellIs" dxfId="244" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="243" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85">
+    <cfRule type="cellIs" dxfId="242" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="241" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D86">
+    <cfRule type="cellIs" dxfId="240" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="239" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87">
+    <cfRule type="cellIs" dxfId="238" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="237" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D88">
+    <cfRule type="cellIs" dxfId="236" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D90:E90">
+    <cfRule type="cellIs" dxfId="235" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92:D92">
+    <cfRule type="cellIs" dxfId="234" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D93">
+    <cfRule type="cellIs" dxfId="233" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="232" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D94">
+    <cfRule type="cellIs" dxfId="231" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D96:E96">
+    <cfRule type="cellIs" dxfId="230" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="229" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97">
+    <cfRule type="cellIs" dxfId="228" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:D98">
+    <cfRule type="cellIs" dxfId="227" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="226" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="225" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="224" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="223" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="222" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="221" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:E20">
+    <cfRule type="cellIs" dxfId="220" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:E21">
+    <cfRule type="cellIs" dxfId="219" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:E23">
+    <cfRule type="cellIs" dxfId="218" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="cellIs" dxfId="217" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="cellIs" dxfId="216" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="215" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="214" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="213" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="212" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="210" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="209" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:E17">
+    <cfRule type="cellIs" dxfId="208" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="207" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="cellIs" dxfId="206" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:E22">
+    <cfRule type="cellIs" dxfId="205" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="cellIs" dxfId="204" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:H27">
+    <cfRule type="cellIs" dxfId="203" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:F27">
+    <cfRule type="cellIs" dxfId="202" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="cellIs" dxfId="201" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="cellIs" dxfId="200" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="326" priority="237" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="325" priority="231" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="198" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="324" priority="208" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="197" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="323" priority="210" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
-    <cfRule type="cellIs" dxfId="322" priority="206" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E14">
-    <cfRule type="cellIs" dxfId="321" priority="182" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="320" priority="180" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="319" priority="175" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E18">
-    <cfRule type="cellIs" dxfId="318" priority="174" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="317" priority="172" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="316" priority="168" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="315" priority="165" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="314" priority="160" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:E28">
-    <cfRule type="cellIs" dxfId="313" priority="158" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="312" priority="157" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:F31">
-    <cfRule type="cellIs" dxfId="311" priority="155" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F33">
+    <cfRule type="cellIs" dxfId="196" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="310" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="309" priority="153" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="308" priority="152" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="193" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="307" priority="149" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="192" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="306" priority="147" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="191" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="305" priority="143" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="190" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="304" priority="140" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="189" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="303" priority="139" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="188" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="302" priority="138" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="187" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="301" priority="137" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D29">
+    <cfRule type="cellIs" dxfId="186" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44:E44">
-    <cfRule type="cellIs" dxfId="300" priority="136" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="185" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="299" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="298" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="297" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="296" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="295" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="294" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:E48">
-    <cfRule type="cellIs" dxfId="293" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="292" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="291" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="290" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="289" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="288" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="287" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="286" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="285" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="284" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="283" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="282" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="281" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="280" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="279" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="278" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="277" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="276" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="275" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="274" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="cellIs" dxfId="273" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="272" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="cellIs" dxfId="271" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="270" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="269" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72:E72">
-    <cfRule type="cellIs" dxfId="268" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="267" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="266" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="265" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="264" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="263" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="262" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="261" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D76">
-    <cfRule type="cellIs" dxfId="260" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="259" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D77">
-    <cfRule type="cellIs" dxfId="258" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="257" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D78">
-    <cfRule type="cellIs" dxfId="256" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B85">
-    <cfRule type="cellIs" dxfId="255" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="254" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="253" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="252" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="251" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="250" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="249" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="248" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D89">
-    <cfRule type="cellIs" dxfId="247" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="246" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D90">
-    <cfRule type="cellIs" dxfId="245" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="244" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D91">
-    <cfRule type="cellIs" dxfId="243" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D93:E93">
-    <cfRule type="cellIs" dxfId="242" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95:D95">
-    <cfRule type="cellIs" dxfId="241" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D96">
-    <cfRule type="cellIs" dxfId="240" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="239" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="238" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D99:E99">
-    <cfRule type="cellIs" dxfId="237" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="236" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D100">
-    <cfRule type="cellIs" dxfId="235" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C101:D101">
-    <cfRule type="cellIs" dxfId="234" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="233" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D14">
-    <cfRule type="cellIs" dxfId="232" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="231" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="230" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="229" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="228" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:E23">
-    <cfRule type="cellIs" dxfId="227" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:E24">
-    <cfRule type="cellIs" dxfId="226" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="225" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="224" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="223" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="222" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="221" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="220" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="218" priority="35" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="184" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="cellIs" dxfId="217" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="216" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D18">
-    <cfRule type="cellIs" dxfId="215" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="214" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="213" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="212" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="211" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="210" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="209" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30:H30">
-    <cfRule type="cellIs" dxfId="208" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30:F30">
-    <cfRule type="cellIs" dxfId="207" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="206" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="205" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="204" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="203" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="202" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="201" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="200" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="199" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="198" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="197" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="196" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="195" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="194" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="193" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="192" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="191" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="190" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49:D52 D58 D56 D60:D64 D70 D74:D75 D86:D91 D45:D47 D42:D43" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$M$1:$M$21</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D39:D40 D42:D44 D83:D88 D71:D72 D67 D57:D61 D53 D55" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D48 D44 D102:D107 D96:D100 D92:D94 D76:D84 D71:D73 D69 D3:D41" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>$K$1:$K$22</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D45 D41 D66 D68:D70 D73:D81 D89:D91 D93:D97 D99:D104 D3:D38" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>$K$1:$K$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D59" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>$K$1:$K$21</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D56" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>$K$1:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D65:D68 D101 D95" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>$M$1:$M$22</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D62:D65 D92 D98" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>$M$1:$M$19</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -9651,7 +9629,7 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="120" max="18" man="1"/>
+    <brk id="117" max="18" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -9665,7 +9643,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9748,7 +9726,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E3" s="56" t="s">
         <v>22</v>
@@ -9775,7 +9753,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E4" s="56" t="s">
         <v>22</v>
@@ -9802,7 +9780,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E5" s="56" t="s">
         <v>28</v>
@@ -9883,7 +9861,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E8" s="56" t="s">
         <v>22</v>
@@ -9937,7 +9915,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E10" s="56" t="s">
         <v>22</v>
@@ -9964,7 +9942,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E11" s="56" t="s">
         <v>23</v>
@@ -9991,7 +9969,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E12" s="56" t="s">
         <v>14</v>
@@ -10018,7 +9996,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E13" s="56" t="s">
         <v>22</v>
@@ -10045,7 +10023,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E14" s="56" t="s">
         <v>22</v>
@@ -10072,7 +10050,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E15" s="56" t="s">
         <v>14</v>
@@ -10099,7 +10077,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E16" s="56" t="s">
         <v>22</v>
@@ -10126,7 +10104,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E17" s="56" t="s">
         <v>14</v>
@@ -10225,16 +10203,22 @@
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="47"/>
-      <c r="B21" s="15"/>
+      <c r="B21" s="15">
+        <v>44629</v>
+      </c>
       <c r="C21" s="60">
         <v>19</v>
       </c>
-      <c r="D21" s="55"/>
+      <c r="D21" s="55" t="s">
+        <v>62</v>
+      </c>
       <c r="E21" s="56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
+      <c r="G21" s="21">
+        <v>-24.8</v>
+      </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="22"/>
@@ -10244,16 +10228,22 @@
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="47"/>
-      <c r="B22" s="15"/>
+      <c r="B22" s="15">
+        <v>44636</v>
+      </c>
       <c r="C22" s="60">
         <v>20</v>
       </c>
-      <c r="D22" s="55"/>
+      <c r="D22" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="E22" s="56" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
+      <c r="G22" s="21">
+        <v>-41.72</v>
+      </c>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="22"/>
@@ -10263,16 +10253,22 @@
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="47"/>
-      <c r="B23" s="15"/>
+      <c r="B23" s="15">
+        <v>44637</v>
+      </c>
       <c r="C23" s="16">
         <v>21</v>
       </c>
-      <c r="D23" s="55"/>
+      <c r="D23" s="55" t="s">
+        <v>63</v>
+      </c>
       <c r="E23" s="56" t="s">
         <v>22</v>
       </c>
       <c r="F23" s="17"/>
-      <c r="G23" s="21"/>
+      <c r="G23" s="21">
+        <v>-21.94</v>
+      </c>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="22"/>
@@ -10282,16 +10278,22 @@
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47"/>
-      <c r="B24" s="15"/>
+      <c r="B24" s="15">
+        <v>44644</v>
+      </c>
       <c r="C24" s="16">
         <v>22</v>
       </c>
-      <c r="D24" s="55"/>
+      <c r="D24" s="55" t="s">
+        <v>67</v>
+      </c>
       <c r="E24" s="56" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="17"/>
-      <c r="G24" s="21"/>
+      <c r="G24" s="21">
+        <v>-9.1300000000000008</v>
+      </c>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="22"/>
@@ -38746,7 +38748,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-693.34999999999991</v>
+        <v>-790.93999999999994</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -40679,907 +40681,907 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
-    <cfRule type="cellIs" dxfId="189" priority="517" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="517" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="188" priority="507" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="507" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="187" priority="469" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="469" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="186" priority="425" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="425" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="185" priority="401" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="401" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="184" priority="399" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="399" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="183" priority="385" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="385" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="182" priority="351" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="351" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="181" priority="308" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="308" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="180" priority="294" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="294" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="179" priority="293" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="293" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="178" priority="290" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="290" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="177" priority="289" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="289" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="176" priority="288" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="288" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="175" priority="287" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="287" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="174" priority="286" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="286" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="173" priority="285" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="285" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="172" priority="284" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="284" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="171" priority="283" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="283" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="170" priority="282" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="282" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="169" priority="281" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="281" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="168" priority="280" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="280" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="167" priority="279" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="279" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="166" priority="278" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="278" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="165" priority="277" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="277" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="164" priority="276" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="276" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="163" priority="275" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="275" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="162" priority="274" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="274" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="161" priority="273" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="273" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="160" priority="272" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="272" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="159" priority="270" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="270" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="158" priority="269" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="269" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="157" priority="268" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="268" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="156" priority="267" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="267" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="155" priority="266" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="266" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="154" priority="265" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="265" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="153" priority="264" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="264" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="152" priority="263" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="263" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="151" priority="262" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="262" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="150" priority="261" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="261" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="149" priority="258" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="258" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="148" priority="257" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="257" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="147" priority="256" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="256" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="146" priority="255" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="255" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="145" priority="254" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="254" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="144" priority="253" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="253" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="143" priority="252" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="252" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="142" priority="251" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="251" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="141" priority="250" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="250" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="140" priority="248" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="248" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="139" priority="247" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="247" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="138" priority="246" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="246" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="137" priority="245" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="245" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="136" priority="244" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="244" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="135" priority="243" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="243" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="134" priority="242" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="242" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="133" priority="241" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="241" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="132" priority="239" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="239" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="131" priority="238" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="238" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="130" priority="237" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="237" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="129" priority="236" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="236" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="128" priority="235" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="235" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="127" priority="234" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="234" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="126" priority="233" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="233" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="125" priority="232" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="232" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="124" priority="210" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="210" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="123" priority="201" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="201" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="122" priority="199" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="199" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="121" priority="198" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="198" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="120" priority="183" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="183" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="119" priority="182" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="118" priority="180" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="180" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="117" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="116" priority="162" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="115" priority="157" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="157" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="114" priority="156" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="156" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="113" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E7:E19 E21:E26">
-    <cfRule type="cellIs" dxfId="112" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="111" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="110" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="109" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="108" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="107" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="106" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="105" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="104" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="103" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="102" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="101" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="100" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="99" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="98" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="97" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="96" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="95" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="94" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="93" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="92" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="91" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="90" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="89" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="88" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="87" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="86" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="85" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="84" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="83" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="82" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="81" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="80" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="79" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="78" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="77" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="76" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="75" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="74" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="73" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="72" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="71" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="70" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="69" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="68" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="67" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="66" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="65" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="64" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="63" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="62" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="61" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="60" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="59" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="58" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="57" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="56" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="55" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="54" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="53" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="52" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="51" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="50" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="49" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="48" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="47" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="46" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="45" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="44" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="43" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="42" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="41" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="40" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="39" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="38" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="37" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="36" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="35" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="34" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="33" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="32" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="31" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="30" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D114">
-    <cfRule type="cellIs" dxfId="29" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="28" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="27" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="26" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="25" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="24" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="23" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="22" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="21" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D122">
-    <cfRule type="cellIs" dxfId="20" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="19" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="18" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="17" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="16" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="15" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="14" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AWO_Einnahmen_Ausgaben_2022.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB42D8E4-38FC-41DC-8145-5DE4ED069022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF49F2F-FA37-4529-8B88-693CCF77B9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="71">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -247,6 +247,15 @@
   </si>
   <si>
     <t>TzgL Ausgaben Roland</t>
+  </si>
+  <si>
+    <t>TzgL 5.4.</t>
+  </si>
+  <si>
+    <t>Rückzahlung Roland A27</t>
+  </si>
+  <si>
+    <t>TzgL Ausgaben Roland (Achtung 3€ zuviel Überwiesen, Rückzahlung in Barkasse E10)</t>
   </si>
 </sst>
 </file>
@@ -944,7 +953,37 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="327">
+  <dxfs count="333">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -5089,17 +5128,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="323">
+    <format dxfId="329">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="322">
+    <format dxfId="328">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="321">
+    <format dxfId="327">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5192,17 +5231,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="326">
+    <format dxfId="332">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="325">
+    <format dxfId="331">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="324">
+    <format dxfId="330">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6330,7 +6369,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6627,14 +6666,22 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="15">
+        <v>44657</v>
+      </c>
       <c r="B12" s="60">
         <v>9</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
+      <c r="C12" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21">
+        <v>102</v>
+      </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="19"/>
@@ -6644,13 +6691,21 @@
       </c>
     </row>
     <row r="13" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
+      <c r="A13" s="15">
+        <v>44657</v>
+      </c>
       <c r="B13" s="60">
         <v>10</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="17"/>
+      <c r="C13" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
+        <v>3</v>
+      </c>
       <c r="F13" s="58"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -8038,11 +8093,11 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>322.39999999999998</v>
+        <v>325.39999999999998</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>7731.380000000001</v>
+        <v>7833.380000000001</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -8081,11 +8136,11 @@
       <c r="D107" s="52"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>122.39999999999998</v>
+        <v>125.39999999999998</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>6940.4400000000014</v>
+        <v>6810.6200000000008</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -8123,7 +8178,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>10453.61</v>
+        <v>10326.790000000001</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8923,688 +8978,678 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 G20 F21:G21 F30:G31 F34:G34 F37:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F18:G19 G17 G28:G29 G4:G10 F23:G26 G22 H28:I104 I27 G32:G33 G35:G36 F12:G16 H4:I26">
-    <cfRule type="cellIs" dxfId="320" priority="240" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 G20 F21:G21 F30:G31 F34:G34 F37:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F18:G19 G17 G28:G29 G4:G10 F23:G26 G22 H28:I104 I27 G32:G33 G35:G36 F13:G16 H4:I26 G12">
+    <cfRule type="cellIs" dxfId="326" priority="241" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="319" priority="238" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="325" priority="239" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="318" priority="232" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="324" priority="233" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="317" priority="209" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="323" priority="210" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="316" priority="211" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="212" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="315" priority="207" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="314" priority="183" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="208" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="313" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="312" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="177" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="311" priority="175" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="176" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="310" priority="173" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="174" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="309" priority="169" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="308" priority="166" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="167" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="307" priority="161" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="306" priority="159" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="160" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="305" priority="158" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="159" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="304" priority="156" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="157" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="303" priority="155" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="156" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="302" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="155" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="301" priority="153" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="154" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="300" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="151" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="299" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="149" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="298" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="145" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="297" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="296" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="295" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="294" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="293" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="138" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="292" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="291" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="290" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="289" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="288" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="287" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="286" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="285" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="284" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="283" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="282" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="281" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="280" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="279" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="278" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="277" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="276" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="275" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="274" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="273" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="272" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="271" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="270" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="269" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="268" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="267" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="266" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="265" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="264" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="263" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="262" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="261" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="260" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="259" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="258" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="257" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="256" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="255" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="254" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="253" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="252" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="251" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="250" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="249" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="248" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="247" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="246" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="245" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="244" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="243" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="242" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="241" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="240" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="239" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="238" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="237" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="236" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="235" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="234" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="233" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="232" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="231" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="230" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="229" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="228" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="227" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="226" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="225" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="224" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="223" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="222" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="221" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="220" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:E21">
-    <cfRule type="cellIs" dxfId="219" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="cellIs" dxfId="218" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="217" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="216" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="215" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="214" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="213" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="212" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="210" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="209" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:E17">
-    <cfRule type="cellIs" dxfId="208" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="207" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="206" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="205" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="204" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="cellIs" dxfId="203" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="202" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="201" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="200" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="199" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="198" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="197" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="196" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="195" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="194" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="193" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="192" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="191" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="190" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="189" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="188" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="187" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="186" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="185" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="184" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="cellIs" dxfId="183" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D13">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9642,8 +9687,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10288,7 +10333,7 @@
         <v>67</v>
       </c>
       <c r="E24" s="56" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="21">
@@ -10303,16 +10348,22 @@
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47"/>
-      <c r="B25" s="15"/>
+      <c r="B25" s="15">
+        <v>44651</v>
+      </c>
       <c r="C25" s="60">
         <v>23</v>
       </c>
-      <c r="D25" s="55"/>
+      <c r="D25" s="55" t="s">
+        <v>49</v>
+      </c>
       <c r="E25" s="56" t="s">
         <v>22</v>
       </c>
       <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
+      <c r="G25" s="21">
+        <v>-39.020000000000003</v>
+      </c>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="22"/>
@@ -10322,16 +10373,22 @@
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="47"/>
-      <c r="B26" s="15"/>
+      <c r="B26" s="15">
+        <v>44652</v>
+      </c>
       <c r="C26" s="60">
         <v>24</v>
       </c>
-      <c r="D26" s="55"/>
+      <c r="D26" s="55" t="s">
+        <v>21</v>
+      </c>
       <c r="E26" s="56" t="s">
         <v>22</v>
       </c>
       <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
+      <c r="G26" s="21">
+        <v>-12</v>
+      </c>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="22"/>
@@ -10341,14 +10398,22 @@
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="47"/>
-      <c r="B27" s="43"/>
+      <c r="B27" s="43">
+        <v>44655</v>
+      </c>
       <c r="C27" s="60">
         <v>25</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="41"/>
+      <c r="D27" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
+      <c r="G27" s="21">
+        <v>-141</v>
+      </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="22"/>
@@ -10358,14 +10423,22 @@
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="47"/>
-      <c r="B28" s="43"/>
+      <c r="B28" s="43">
+        <v>44655</v>
+      </c>
       <c r="C28" s="60">
         <v>26</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="41"/>
+      <c r="D28" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
+      <c r="G28" s="21">
+        <v>-20</v>
+      </c>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="22"/>
@@ -10375,14 +10448,22 @@
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="47"/>
-      <c r="B29" s="43"/>
+      <c r="B29" s="43">
+        <v>44657</v>
+      </c>
       <c r="C29" s="60">
         <v>27</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
+      <c r="D29" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="21">
+        <v>-19.8</v>
+      </c>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="22"/>
@@ -38748,7 +38829,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-790.93999999999994</v>
+        <v>-1022.7599999999999</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -40681,922 +40762,932 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
-    <cfRule type="cellIs" dxfId="182" priority="517" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="522" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="181" priority="507" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="512" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="180" priority="469" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="474" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="179" priority="425" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="430" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="178" priority="401" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="406" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="177" priority="399" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="404" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="176" priority="385" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="390" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="175" priority="351" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="356" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="174" priority="308" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="313" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="173" priority="294" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="299" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="172" priority="293" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="298" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="171" priority="290" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="295" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="170" priority="289" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="294" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="169" priority="288" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="293" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="168" priority="287" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="292" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="167" priority="286" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="291" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="166" priority="285" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="290" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="165" priority="284" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="289" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="164" priority="283" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="288" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="163" priority="282" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="287" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="162" priority="281" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="286" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="161" priority="280" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="285" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="160" priority="279" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="284" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="159" priority="278" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="283" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="158" priority="277" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="282" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="157" priority="276" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="281" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="156" priority="275" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="280" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="155" priority="274" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="279" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="154" priority="273" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="278" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="153" priority="272" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="277" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="152" priority="270" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="275" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="151" priority="269" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="274" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="150" priority="268" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="273" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="149" priority="267" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="272" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="148" priority="266" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="271" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="147" priority="265" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="270" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="146" priority="264" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="269" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="145" priority="263" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="268" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="144" priority="262" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="267" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="143" priority="261" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="266" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="142" priority="258" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="263" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="141" priority="257" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="262" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="140" priority="256" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="261" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="139" priority="255" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="260" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="138" priority="254" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="259" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="137" priority="253" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="258" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="136" priority="252" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="257" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="135" priority="251" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="256" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="134" priority="250" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="255" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="133" priority="248" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="253" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="132" priority="247" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="252" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="131" priority="246" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="251" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="130" priority="245" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="250" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="129" priority="244" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="249" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="128" priority="243" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="248" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="127" priority="242" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="247" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="126" priority="241" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="246" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="125" priority="239" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="244" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="124" priority="238" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="243" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="123" priority="237" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="242" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="122" priority="236" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="241" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="121" priority="235" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="240" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="120" priority="234" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="239" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="119" priority="233" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="238" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="118" priority="232" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="237" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="117" priority="210" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="215" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="116" priority="201" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="206" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="115" priority="199" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="204" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="114" priority="198" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="203" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="113" priority="183" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="188" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="112" priority="182" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="187" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="111" priority="180" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="185" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="110" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="183" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="109" priority="162" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="167" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="108" priority="157" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="107" priority="156" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="161" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="106" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="147" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E5 E7:E19 E21:E26">
-    <cfRule type="cellIs" dxfId="105" priority="137" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:E5 E7:E19 E21:E25">
+    <cfRule type="cellIs" dxfId="111" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="104" priority="114" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="107" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="103" priority="113" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="106" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="105" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="104" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="103" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="102" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="101" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="100" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="99" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="98" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="97" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="96" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="95" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="94" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="93" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="92" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="cellIs" dxfId="91" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="90" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="89" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="88" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="87" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="86" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="85" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="84" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="83" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="82" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="81" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="80" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="79" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="78" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="77" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="76" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="75" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="74" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="73" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="72" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="71" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="70" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="69" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="68" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="67" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="66" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="65" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="64" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="63" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="62" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="61" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="60" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="59" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="58" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="57" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="56" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="55" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="54" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="53" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="52" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="51" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="50" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="49" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="48" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="47" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="46" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="45" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="44" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="43" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="42" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="41" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="40" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="39" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="38" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="37" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="36" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="35" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="34" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="33" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="32" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="31" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="30" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="29" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D114">
+    <cfRule type="cellIs" dxfId="28" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D115">
+    <cfRule type="cellIs" dxfId="27" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="26" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="25" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="24" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="23" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="22" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="21" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" dxfId="20" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D122">
+    <cfRule type="cellIs" dxfId="19" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="18" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="17" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="16" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="14" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="12" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="10" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E28">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="102" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="101" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="100" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="99" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="98" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="97" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="96" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="95" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="94" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="93" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="92" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="91" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="90" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="89" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="88" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="87" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="86" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="85" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="84" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="83" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="82" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="81" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="80" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="79" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="78" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="77" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="76" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="75" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="74" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="73" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="72" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="71" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="70" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="69" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="68" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="67" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="66" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="65" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="64" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="63" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="62" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="61" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="60" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="59" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="58" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="57" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="56" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="55" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="54" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="53" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="52" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="51" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="50" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="49" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="48" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="47" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="46" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="45" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="44" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="43" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="42" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="41" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="40" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="39" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="38" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="37" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="36" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="35" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="34" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="33" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="32" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="31" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="30" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="29" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="28" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="27" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="26" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D114">
-    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D122">
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E93 E59:E66 E37 E48 E44 E116 E95:E102 E107:E114 E132:E138 E144:E169 E125:E130 E70:E89 E8 E3:E5 E10:E26" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E93 E59:E66 E37 E48 E44 E116 E95:E102 E107:E114 E132:E138 E144:E169 E125:E130 E70:E89 E8 E3:E5 E10:E29" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E139:E143" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -41605,7 +41696,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E104:E106 E115 E119:E120 E122 E32:E33 E40:E41 E46:E47 E54:E55 E68:E69 E91:E92 E6:E7" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E103 E117:E118 E121 E123:E124 E27:E31 E34:E36 E38:E39 E42:E43 E45 E49:E53 E56:E58 E67 E90 E94 E9" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E103 E117:E118 E121 E123:E124 E9 E34:E36 E38:E39 E42:E43 E45 E49:E53 E56:E58 E67 E90 E94 E30:E31" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2022.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF49F2F-FA37-4529-8B88-693CCF77B9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B750F97-7454-4F8D-8030-515F79DD16EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="74">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -256,6 +256,15 @@
   </si>
   <si>
     <t>TzgL Ausgaben Roland (Achtung 3€ zuviel Überwiesen, Rückzahlung in Barkasse E10)</t>
+  </si>
+  <si>
+    <t>Ausgaben Briefm Roland</t>
+  </si>
+  <si>
+    <t>Spenden Radservice</t>
+  </si>
+  <si>
+    <t>Ausgaben Radservice Petra</t>
   </si>
 </sst>
 </file>
@@ -953,11 +962,112 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="333">
+  <dxfs count="328">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2559,132 +2669,6 @@
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0"/>
   <colors>
@@ -5128,17 +5112,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="329">
+    <format dxfId="4">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="328">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="327">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5231,17 +5215,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="332">
+    <format dxfId="7">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="331">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="330">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6368,8 +6352,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6716,14 +6700,22 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="15">
+        <v>44662</v>
+      </c>
       <c r="B14" s="60">
         <v>11</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="57"/>
+      <c r="C14" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>0</v>
+      </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
+      <c r="F14" s="18">
+        <v>60</v>
+      </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="19"/>
@@ -8097,7 +8089,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>7833.380000000001</v>
+        <v>7893.380000000001</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -8140,7 +8132,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>6810.6200000000008</v>
+        <v>6806.7000000000007</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -8178,7 +8170,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>10326.790000000001</v>
+        <v>10322.870000000001</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8979,677 +8971,677 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 G20 F21:G21 F30:G31 F34:G34 F37:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F18:G19 G17 G28:G29 G4:G10 F23:G26 G22 H28:I104 I27 G32:G33 G35:G36 F13:G16 H4:I26 G12">
-    <cfRule type="cellIs" dxfId="326" priority="241" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="327" priority="241" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="325" priority="239" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="326" priority="239" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="324" priority="233" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="325" priority="233" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="323" priority="210" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="324" priority="210" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="322" priority="212" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="323" priority="212" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="321" priority="208" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="208" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="319" priority="182" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="318" priority="177" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="320" priority="177" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="317" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="176" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="316" priority="174" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="174" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="315" priority="170" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="314" priority="167" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="167" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="313" priority="162" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="312" priority="160" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="160" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="311" priority="159" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="159" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="310" priority="157" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="157" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="309" priority="156" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="156" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="308" priority="155" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="155" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="307" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="154" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="306" priority="151" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="151" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="305" priority="149" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="149" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="304" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="145" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="303" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="302" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="301" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="300" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="299" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="138" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="298" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="297" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="296" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="295" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="294" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="293" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="292" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="291" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="290" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="289" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="288" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="287" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="286" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="285" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="284" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="283" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="282" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="281" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="280" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="279" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="278" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="277" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="276" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="275" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="274" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="273" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="272" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="271" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="270" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="269" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="268" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="267" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="266" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="265" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="264" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="263" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="262" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="261" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="260" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="259" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="258" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="257" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="256" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="255" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="254" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="253" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="252" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="251" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="250" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="249" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="248" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="247" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="246" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="245" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="244" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="243" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="242" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="241" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="240" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="239" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="238" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="237" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="236" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="235" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="234" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="233" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="232" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="229" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="228" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="227" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="226" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:E21">
-    <cfRule type="cellIs" dxfId="225" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="cellIs" dxfId="224" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="223" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="222" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="221" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="220" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="219" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="218" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="216" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="215" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:E17">
-    <cfRule type="cellIs" dxfId="214" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="213" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="212" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="211" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="210" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="cellIs" dxfId="209" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="208" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="207" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="206" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="205" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="204" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="203" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="202" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="201" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="200" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="199" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="198" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="197" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="196" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="195" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="194" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="193" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="192" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="191" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="190" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="cellIs" dxfId="189" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D13">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D12:D14">
+    <cfRule type="cellIs" dxfId="193" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9687,8 +9679,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10473,14 +10465,22 @@
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="47"/>
-      <c r="B30" s="15"/>
+      <c r="B30" s="15">
+        <v>44658</v>
+      </c>
       <c r="C30" s="60">
         <v>28</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="56"/>
+      <c r="D30" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="56" t="s">
+        <v>20</v>
+      </c>
       <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
+      <c r="G30" s="21">
+        <v>-25.5</v>
+      </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="22"/>
@@ -10490,14 +10490,22 @@
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="47"/>
-      <c r="B31" s="15"/>
+      <c r="B31" s="15">
+        <v>44661</v>
+      </c>
       <c r="C31" s="60">
         <v>29</v>
       </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
+      <c r="D31" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="21">
+        <v>-38.42</v>
+      </c>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="22"/>
@@ -38829,7 +38837,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-1022.7599999999999</v>
+        <v>-1086.6799999999998</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -40762,932 +40770,937 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
-    <cfRule type="cellIs" dxfId="188" priority="522" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="524" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="187" priority="512" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="514" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="186" priority="474" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="476" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="185" priority="430" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="432" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="184" priority="406" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="408" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="183" priority="404" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="406" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="182" priority="390" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="392" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="181" priority="356" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="358" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="180" priority="313" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="315" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="179" priority="299" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="301" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="178" priority="298" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="300" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="177" priority="295" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="297" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="176" priority="294" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="296" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="175" priority="293" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="295" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="174" priority="292" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="294" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="173" priority="291" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="293" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="172" priority="290" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="292" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="171" priority="289" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="291" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="170" priority="288" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="290" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="169" priority="287" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="289" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="168" priority="286" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="288" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="167" priority="285" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="287" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="166" priority="284" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="286" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="165" priority="283" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="285" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="164" priority="282" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="284" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="163" priority="281" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="283" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="162" priority="280" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="282" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="161" priority="279" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="281" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="160" priority="278" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="280" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="159" priority="277" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="279" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="158" priority="275" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="277" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="157" priority="274" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="276" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="156" priority="273" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="275" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="155" priority="272" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="274" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="154" priority="271" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="273" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="153" priority="270" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="272" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="152" priority="269" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="271" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="151" priority="268" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="270" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="150" priority="267" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="269" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="149" priority="266" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="268" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="148" priority="263" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="265" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="147" priority="262" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="264" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="146" priority="261" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="263" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="145" priority="260" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="262" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="144" priority="259" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="261" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="143" priority="258" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="260" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="142" priority="257" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="259" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="141" priority="256" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="258" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="140" priority="255" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="257" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="139" priority="253" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="255" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="138" priority="252" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="254" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="137" priority="251" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="253" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="136" priority="250" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="252" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="135" priority="249" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="251" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="134" priority="248" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="250" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="133" priority="247" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="249" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="132" priority="246" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="248" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="131" priority="244" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="246" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="130" priority="243" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="245" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="129" priority="242" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="244" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="128" priority="241" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="243" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="127" priority="240" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="242" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="126" priority="239" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="241" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="125" priority="238" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="240" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="124" priority="237" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="239" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="123" priority="215" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="217" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="122" priority="206" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="208" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="121" priority="204" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="206" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="120" priority="203" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="205" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="119" priority="188" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="190" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="118" priority="187" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="189" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="117" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="187" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="116" priority="183" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="185" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="115" priority="167" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="169" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="114" priority="162" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="164" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="113" priority="161" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="112" priority="147" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="149" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E7:E19 E21:E25">
-    <cfRule type="cellIs" dxfId="111" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="107" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="112" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="111" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="110" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="109" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="108" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="107" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="106" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="105" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="104" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="103" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="102" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="101" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="100" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="99" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="cellIs" dxfId="98" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="97" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="96" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="95" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="94" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="93" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="92" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="91" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="90" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="89" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="88" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="87" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="86" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="85" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="84" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="83" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="82" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="81" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="80" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="79" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="78" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="77" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="76" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="75" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="74" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="73" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="72" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="71" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="70" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="69" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="68" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="67" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="66" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="65" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="64" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="63" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="62" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="61" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="60" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="59" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="58" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="57" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="56" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="55" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="54" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="53" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="52" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="51" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="50" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="49" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="48" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="47" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="46" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="45" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="44" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="43" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="42" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="41" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="40" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="39" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="38" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="37" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="36" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D114">
+    <cfRule type="cellIs" dxfId="35" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D115">
+    <cfRule type="cellIs" dxfId="34" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="33" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="32" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="31" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="29" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="28" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" dxfId="27" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D122">
+    <cfRule type="cellIs" dxfId="26" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="25" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="24" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="23" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="22" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="21" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="20" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="19" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="18" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="17" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="16" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E28">
+    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="106" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="105" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="104" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="103" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="102" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="101" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="100" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="99" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="98" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="97" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="96" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="95" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="94" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="93" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="92" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="91" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="90" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="89" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="88" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="87" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="86" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="85" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="84" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="83" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="82" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="81" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="80" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="79" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="78" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="77" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="76" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="75" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="74" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="73" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="72" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="71" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="70" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="69" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="68" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="67" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="66" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="65" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="64" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="63" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="62" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="61" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="60" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="59" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="58" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="57" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="56" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="55" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="54" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="53" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="52" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="51" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="50" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="49" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="48" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="47" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="46" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="45" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="44" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="43" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="42" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="41" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="40" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="39" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="38" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="37" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="36" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="35" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="34" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="33" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="32" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="31" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="30" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="29" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D114">
-    <cfRule type="cellIs" dxfId="28" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="27" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="26" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="25" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="24" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="23" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="22" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="21" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="20" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D122">
-    <cfRule type="cellIs" dxfId="19" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="18" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="17" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="16" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="14" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="12" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="10" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E28">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E93 E59:E66 E37 E48 E44 E116 E95:E102 E107:E114 E132:E138 E144:E169 E125:E130 E70:E89 E8 E3:E5 E10:E29" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E93 E59:E66 E37 E48 E44 E116 E95:E102 E107:E114 E132:E138 E144:E169 E125:E130 E70:E89 E8 E3:E5 E10:E29 E31" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E139:E143" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -41696,7 +41709,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E104:E106 E115 E119:E120 E122 E32:E33 E40:E41 E46:E47 E54:E55 E68:E69 E91:E92 E6:E7" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E103 E117:E118 E121 E123:E124 E9 E34:E36 E38:E39 E42:E43 E45 E49:E53 E56:E58 E67 E90 E94 E30:E31" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E103 E117:E118 E121 E123:E124 E9 E34:E36 E38:E39 E42:E43 E45 E49:E53 E56:E58 E67 E90 E94 E30" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2022.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B750F97-7454-4F8D-8030-515F79DD16EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6214DF8-E00E-4D4C-B520-E18F6FD820C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="84">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -265,6 +265,36 @@
   </si>
   <si>
     <t>Ausgaben Radservice Petra</t>
+  </si>
+  <si>
+    <t>JHV Spenden</t>
+  </si>
+  <si>
+    <t>Kappel</t>
+  </si>
+  <si>
+    <t>Bezirk</t>
+  </si>
+  <si>
+    <t>TzGl</t>
+  </si>
+  <si>
+    <t>TzgL 19.4.</t>
+  </si>
+  <si>
+    <t>JHV Roland</t>
+  </si>
+  <si>
+    <t>JHV Blumen</t>
+  </si>
+  <si>
+    <t>Bürobedarf</t>
+  </si>
+  <si>
+    <t>JHV Hdb</t>
+  </si>
+  <si>
+    <t>TzgL 3.5.</t>
   </si>
 </sst>
 </file>
@@ -962,7 +992,52 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="328">
+  <dxfs count="338">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1068,6 +1143,11 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -5112,17 +5192,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="4">
+    <format dxfId="13">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5215,17 +5295,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="7">
+    <format dxfId="16">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6351,9 +6431,9 @@
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6725,14 +6805,22 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
+      <c r="A15" s="15">
+        <v>44671</v>
+      </c>
       <c r="B15" s="60">
         <v>12</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
+      <c r="C15" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21">
+        <v>80</v>
+      </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="19"/>
@@ -6742,13 +6830,22 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
+      <c r="A16" s="15">
+        <v>44675</v>
+      </c>
       <c r="B16" s="60">
         <v>13</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="17"/>
+      <c r="C16" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="17">
+        <f>105+9</f>
+        <v>114</v>
+      </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -6759,14 +6856,22 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+      <c r="A17" s="15">
+        <v>44685</v>
+      </c>
       <c r="B17" s="60">
         <v>14</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
+      <c r="C17" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21">
+        <v>80</v>
+      </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="19"/>
@@ -8085,11 +8190,11 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>325.39999999999998</v>
+        <v>439.4</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>7893.380000000001</v>
+        <v>8053.380000000001</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -8128,11 +8233,11 @@
       <c r="D107" s="52"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>125.39999999999998</v>
+        <v>239.39999999999998</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>6806.7000000000007</v>
+        <v>6176.9800000000014</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -8170,7 +8275,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>10322.870000000001</v>
+        <v>9807.1500000000015</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8970,678 +9075,658 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 G20 F21:G21 F30:G31 F34:G34 F37:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F18:G19 G17 G28:G29 G4:G10 F23:G26 G22 H28:I104 I27 G32:G33 G35:G36 F13:G16 H4:I26 G12">
-    <cfRule type="cellIs" dxfId="327" priority="241" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 G20 F21:G21 F30:G31 F34:G34 F37:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F18:G19 G17 G28:G29 G4:G10 F23:G26 G22 H28:I104 I27 G32:G33 G35:G36 F13:G14 H4:I26 G12 F16:G16 G15">
+    <cfRule type="cellIs" dxfId="337" priority="243" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="326" priority="239" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="336" priority="241" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="325" priority="233" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="335" priority="235" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="324" priority="210" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="334" priority="212" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="323" priority="212" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="333" priority="214" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="322" priority="208" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="332" priority="210" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="321" priority="182" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="331" priority="184" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="320" priority="177" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="319" priority="176" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="318" priority="174" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="330" priority="179" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="317" priority="170" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="327" priority="172" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="316" priority="167" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="326" priority="169" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="315" priority="162" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="325" priority="164" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="314" priority="160" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="324" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="313" priority="159" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="323" priority="161" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="312" priority="157" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="159" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="311" priority="156" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="158" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="310" priority="155" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="157" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="309" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="156" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="308" priority="151" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="153" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="307" priority="149" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="151" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="306" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="147" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="305" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="304" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="143" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="303" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="302" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="301" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="300" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="299" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="138" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="298" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="297" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="296" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="295" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="294" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="293" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="292" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="291" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="290" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="289" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="288" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="287" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="286" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="285" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="284" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="283" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="282" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="281" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="280" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="279" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="278" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="277" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="276" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="275" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="274" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="273" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="272" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="271" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="270" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="269" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="268" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="267" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="266" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="265" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="264" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="263" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="262" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="261" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="260" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="259" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="258" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="257" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="256" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="255" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="254" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="253" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="252" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="251" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="250" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="249" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="248" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="247" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="246" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="245" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="244" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="243" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="242" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="241" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="240" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="239" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="238" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="237" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="236" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="235" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="234" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="233" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="232" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="231" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="230" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:E21">
-    <cfRule type="cellIs" dxfId="229" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="cellIs" dxfId="228" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="227" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="226" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="225" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="224" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="223" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="222" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="221" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="220" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:E17">
-    <cfRule type="cellIs" dxfId="219" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="218" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="217" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="216" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="215" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="cellIs" dxfId="214" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="213" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="212" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="211" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="210" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="209" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="208" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="207" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="206" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="205" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="204" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="203" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="202" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="201" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="200" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="199" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="198" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="197" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="196" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="195" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="cellIs" dxfId="194" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D14">
-    <cfRule type="cellIs" dxfId="193" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D12:D15">
+    <cfRule type="cellIs" dxfId="203" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:E16">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9678,9 +9763,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10515,14 +10600,22 @@
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="47"/>
-      <c r="B32" s="15"/>
+      <c r="B32" s="15">
+        <v>44665</v>
+      </c>
       <c r="C32" s="60">
         <v>30</v>
       </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="41"/>
+      <c r="D32" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
+      <c r="G32" s="21">
+        <v>-31.92</v>
+      </c>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="22"/>
@@ -10532,14 +10625,22 @@
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="47"/>
-      <c r="B33" s="15"/>
+      <c r="B33" s="15">
+        <v>44670</v>
+      </c>
       <c r="C33" s="60">
         <v>31</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="41"/>
+      <c r="D33" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="56" t="s">
+        <v>23</v>
+      </c>
       <c r="F33" s="20"/>
-      <c r="G33" s="21"/>
+      <c r="G33" s="21">
+        <v>-72.95</v>
+      </c>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="22"/>
@@ -10549,14 +10650,22 @@
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47"/>
-      <c r="B34" s="15"/>
+      <c r="B34" s="15">
+        <v>44670</v>
+      </c>
       <c r="C34" s="60">
         <v>32</v>
       </c>
-      <c r="D34" s="55"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="21"/>
+      <c r="D34" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="99"/>
+      <c r="G34" s="100">
+        <v>-18.36</v>
+      </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="22"/>
@@ -10566,14 +10675,22 @@
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="47"/>
-      <c r="B35" s="15"/>
+      <c r="B35" s="15">
+        <v>44670</v>
+      </c>
       <c r="C35" s="60">
         <v>33</v>
       </c>
-      <c r="D35" s="55"/>
-      <c r="E35" s="56"/>
+      <c r="D35" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="F35" s="20"/>
-      <c r="G35" s="21"/>
+      <c r="G35" s="21">
+        <v>-11.3</v>
+      </c>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="22"/>
@@ -10583,14 +10700,22 @@
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="47"/>
-      <c r="B36" s="15"/>
+      <c r="B36" s="15">
+        <v>44671</v>
+      </c>
       <c r="C36" s="60">
         <v>34</v>
       </c>
-      <c r="D36" s="55"/>
-      <c r="E36" s="41"/>
+      <c r="D36" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F36" s="20"/>
-      <c r="G36" s="21"/>
+      <c r="G36" s="21">
+        <v>-41.72</v>
+      </c>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="22"/>
@@ -10600,14 +10725,22 @@
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="47"/>
-      <c r="B37" s="15"/>
+      <c r="B37" s="15">
+        <v>44672</v>
+      </c>
       <c r="C37" s="16">
         <v>35</v>
       </c>
-      <c r="D37" s="55"/>
-      <c r="E37" s="41"/>
+      <c r="D37" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F37" s="17"/>
-      <c r="G37" s="21"/>
+      <c r="G37" s="21">
+        <v>-8.91</v>
+      </c>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="22"/>
@@ -10617,14 +10750,22 @@
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="47"/>
-      <c r="B38" s="15"/>
+      <c r="B38" s="15">
+        <v>44675</v>
+      </c>
       <c r="C38" s="16">
         <v>36</v>
       </c>
-      <c r="D38" s="55"/>
-      <c r="E38" s="56"/>
+      <c r="D38" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="56" t="s">
+        <v>23</v>
+      </c>
       <c r="F38" s="20"/>
-      <c r="G38" s="21"/>
+      <c r="G38" s="21">
+        <v>-200</v>
+      </c>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="22"/>
@@ -10634,14 +10775,22 @@
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="47"/>
-      <c r="B39" s="15"/>
+      <c r="B39" s="15">
+        <v>44677</v>
+      </c>
       <c r="C39" s="16">
         <v>37</v>
       </c>
-      <c r="D39" s="55"/>
-      <c r="E39" s="41"/>
+      <c r="D39" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F39" s="20"/>
-      <c r="G39" s="21"/>
+      <c r="G39" s="21">
+        <v>-58.51</v>
+      </c>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="22"/>
@@ -10651,14 +10800,22 @@
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="47"/>
-      <c r="B40" s="15"/>
+      <c r="B40" s="15">
+        <v>44683</v>
+      </c>
       <c r="C40" s="60">
         <v>38</v>
       </c>
-      <c r="D40" s="55"/>
-      <c r="E40" s="41"/>
+      <c r="D40" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F40" s="20"/>
-      <c r="G40" s="21"/>
+      <c r="G40" s="21">
+        <v>-44.55</v>
+      </c>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
       <c r="J40" s="22"/>
@@ -10668,14 +10825,22 @@
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="47"/>
-      <c r="B41" s="15"/>
+      <c r="B41" s="15">
+        <v>44683</v>
+      </c>
       <c r="C41" s="60">
         <v>39</v>
       </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="41"/>
+      <c r="D41" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F41" s="20"/>
-      <c r="G41" s="21"/>
+      <c r="G41" s="21">
+        <v>-128.5</v>
+      </c>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
       <c r="J41" s="22"/>
@@ -10685,14 +10850,22 @@
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="47"/>
-      <c r="B42" s="15"/>
+      <c r="B42" s="15">
+        <v>44683</v>
+      </c>
       <c r="C42" s="61">
         <v>40</v>
       </c>
-      <c r="D42" s="55"/>
-      <c r="E42" s="56"/>
+      <c r="D42" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F42" s="20"/>
-      <c r="G42" s="21"/>
+      <c r="G42" s="21">
+        <v>-12</v>
+      </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="22"/>
@@ -10702,14 +10875,22 @@
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="47"/>
-      <c r="B43" s="15"/>
+      <c r="B43" s="15">
+        <v>44685</v>
+      </c>
       <c r="C43" s="60">
         <v>41</v>
       </c>
-      <c r="D43" s="55"/>
-      <c r="E43" s="56"/>
+      <c r="D43" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F43" s="17"/>
-      <c r="G43" s="21"/>
+      <c r="G43" s="21">
+        <v>-20</v>
+      </c>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
       <c r="J43" s="22"/>
@@ -10719,14 +10900,22 @@
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="47"/>
-      <c r="B44" s="15"/>
+      <c r="B44" s="15">
+        <v>44685</v>
+      </c>
       <c r="C44" s="60">
         <v>42</v>
       </c>
-      <c r="D44" s="40"/>
-      <c r="E44" s="41"/>
+      <c r="D44" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F44" s="17"/>
-      <c r="G44" s="21"/>
+      <c r="G44" s="21">
+        <v>-141</v>
+      </c>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="22"/>
@@ -38837,7 +39026,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-1086.6799999999998</v>
+        <v>-1876.3999999999999</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -40770,946 +40959,931 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
-    <cfRule type="cellIs" dxfId="192" priority="524" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="533" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="191" priority="514" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="523" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="190" priority="476" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="485" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="189" priority="432" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="441" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="188" priority="408" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="417" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="187" priority="406" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="415" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="186" priority="392" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="401" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="185" priority="358" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="367" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="184" priority="315" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="324" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="183" priority="301" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="310" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="182" priority="300" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="309" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="181" priority="297" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="306" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="180" priority="296" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="305" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="179" priority="295" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="304" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="178" priority="294" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="303" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="177" priority="293" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="302" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="176" priority="292" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="301" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="175" priority="291" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="300" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="174" priority="290" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="299" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="173" priority="289" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="298" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="172" priority="288" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="297" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="171" priority="287" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="296" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="170" priority="286" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="295" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="169" priority="285" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="294" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="168" priority="284" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="293" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="167" priority="283" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="292" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="166" priority="282" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="291" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="165" priority="281" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="290" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="164" priority="280" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="289" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="163" priority="279" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="288" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="162" priority="277" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="286" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="161" priority="276" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="285" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="160" priority="275" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="284" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="159" priority="274" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="283" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="158" priority="273" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="282" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="157" priority="272" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="281" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="156" priority="271" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="280" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="155" priority="270" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="279" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="154" priority="269" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="278" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="153" priority="268" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="277" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="152" priority="265" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="274" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="151" priority="264" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="273" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="150" priority="263" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="272" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="149" priority="262" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="271" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="148" priority="261" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="270" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="147" priority="260" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="269" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="146" priority="259" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="268" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="145" priority="258" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="267" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="144" priority="257" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="266" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="143" priority="255" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="264" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="142" priority="254" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="263" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="141" priority="253" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="262" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="140" priority="252" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="261" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="139" priority="251" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="260" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="138" priority="250" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="259" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="137" priority="249" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="258" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="136" priority="248" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="257" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="135" priority="246" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="255" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="134" priority="245" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="254" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="133" priority="244" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="253" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="132" priority="243" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="252" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="131" priority="242" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="251" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="130" priority="241" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="250" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="129" priority="240" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="249" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="128" priority="239" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="248" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="127" priority="217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="226" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="126" priority="208" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="217" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="125" priority="206" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="124" priority="205" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="215" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="123" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="199" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="122" priority="189" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="198" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="121" priority="187" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="196" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="120" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="194" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="119" priority="169" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="118" priority="164" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="173" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="117" priority="163" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="172" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="116" priority="149" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="158" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E7:E19 E21:E25">
-    <cfRule type="cellIs" dxfId="115" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="153" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="114" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="112" priority="116" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="112" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="111" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="110" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="cellIs" dxfId="109" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="108" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="107" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="106" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="105" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="104" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="103" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="102" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="101" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="100" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="99" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="98" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="97" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="96" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="95" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="94" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="93" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="92" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="91" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="90" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="89" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="88" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="87" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="86" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="85" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="84" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="83" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="82" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="81" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="80" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="79" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="78" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="77" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="76" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="75" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="74" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="73" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="72" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="71" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="70" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="69" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="68" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="67" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="66" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="65" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="64" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="63" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="62" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="61" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="60" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="59" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="58" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="57" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="56" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="55" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="54" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="53" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="52" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="51" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="50" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="49" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="48" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="47" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D114">
+    <cfRule type="cellIs" dxfId="46" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D115">
+    <cfRule type="cellIs" dxfId="45" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="44" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="43" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="42" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="41" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="40" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="39" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" dxfId="38" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D122">
+    <cfRule type="cellIs" dxfId="37" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="36" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="35" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="34" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="33" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="32" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="31" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="30" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="29" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="28" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="27" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="26" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="25" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="24" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="23" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="22" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E28">
+    <cfRule type="cellIs" dxfId="21" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="cellIs" dxfId="20" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="19" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="18" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E32">
+    <cfRule type="cellIs" dxfId="17" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="111" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="110" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="109" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="108" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="107" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="106" priority="110" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E39:E41">
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="105" priority="109" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E42:E44">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="104" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="103" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="102" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="101" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="100" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="99" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="98" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="97" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="96" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="95" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="94" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="93" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="92" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="91" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="90" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="89" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="88" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="87" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="86" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="85" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="84" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="83" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="82" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="81" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="80" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="79" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="78" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="77" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="76" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="75" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="74" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="73" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="72" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="71" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="70" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="69" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="68" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="67" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="66" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="65" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="64" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="63" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="62" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="61" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="60" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="59" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="58" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="57" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="56" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="55" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="54" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="53" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="52" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="51" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="50" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="49" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="48" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="47" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="46" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="45" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="44" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="43" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="42" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="41" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="40" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="39" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="38" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="37" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="36" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D114">
-    <cfRule type="cellIs" dxfId="35" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="34" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="33" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="32" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="31" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="29" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="28" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="27" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D122">
-    <cfRule type="cellIs" dxfId="26" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="25" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="24" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="23" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="22" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="21" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="20" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="19" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="18" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="17" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="16" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E28">
-    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E42:E44">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E93 E59:E66 E37 E48 E44 E116 E95:E102 E107:E114 E132:E138 E144:E169 E125:E130 E70:E89 E8 E3:E5 E10:E29 E31" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E93 E59:E66 E48 E116 E95:E102 E107:E114 E132:E138 E144:E169 E125:E130 E70:E89 E8 E3:E5 E10:E29 E31:E33 E35:E44" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E139:E143" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E104:E106 E115 E119:E120 E122 E32:E33 E40:E41 E46:E47 E54:E55 E68:E69 E91:E92 E6:E7" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E104:E106 E115 E119:E120 E122 E6:E7 E91:E92 E46:E47 E54:E55 E68:E69" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E103 E117:E118 E121 E123:E124 E9 E34:E36 E38:E39 E42:E43 E45 E49:E53 E56:E58 E67 E90 E94 E30" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E103 E117:E118 E121 E123:E124 E9 E30 E34 E94 E45 E49:E53 E56:E58 E67 E90" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2022.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6214DF8-E00E-4D4C-B520-E18F6FD820C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845BB293-B834-4321-9A20-16DC28BB9FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="90">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -295,6 +295,24 @@
   </si>
   <si>
     <t>TzgL 3.5.</t>
+  </si>
+  <si>
+    <t>Beamer</t>
+  </si>
+  <si>
+    <t>Lautsprecher</t>
+  </si>
+  <si>
+    <t>TzgL 17.5.</t>
+  </si>
+  <si>
+    <t>Wasserkocher</t>
+  </si>
+  <si>
+    <t>Klammern Sonnenschirme</t>
+  </si>
+  <si>
+    <t>Vereinsring Sitzung im Häusle</t>
   </si>
 </sst>
 </file>
@@ -992,37 +1010,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="338">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="325">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1143,41 +1131,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -5192,17 +5145,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="13">
+    <format dxfId="7">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5295,17 +5248,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="16">
+    <format dxfId="10">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6432,8 +6385,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6881,14 +6834,22 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="15">
+        <v>44699</v>
+      </c>
       <c r="B18" s="60">
         <v>15</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
+      <c r="C18" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21">
+        <v>79</v>
+      </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
@@ -6898,13 +6859,21 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+      <c r="A19" s="15">
+        <v>44692</v>
+      </c>
       <c r="B19" s="60">
         <v>16</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="17"/>
+      <c r="C19" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="17">
+        <v>20</v>
+      </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
@@ -8190,11 +8159,11 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>439.4</v>
+        <v>459.4</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>8053.380000000001</v>
+        <v>8132.380000000001</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -8233,11 +8202,11 @@
       <c r="D107" s="52"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>239.39999999999998</v>
+        <v>259.39999999999998</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>6176.9800000000014</v>
+        <v>5784.6100000000015</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -8275,7 +8244,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>9807.1500000000015</v>
+        <v>9434.7800000000007</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -9075,657 +9044,647 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 G20 F21:G21 F30:G31 F34:G34 F37:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F18:G19 G17 G28:G29 G4:G10 F23:G26 G22 H28:I104 I27 G32:G33 G35:G36 F13:G14 H4:I26 G12 F16:G16 G15">
-    <cfRule type="cellIs" dxfId="337" priority="243" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 G20 F21:G21 F30:G31 F34:G34 F37:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F19:G19 G28:G29 G4:G10 F23:G26 G22 H28:I104 I27 G32:G33 G35:G36 F13:G14 H4:I26 G12 F16:G16 G15 G17:G18">
+    <cfRule type="cellIs" dxfId="324" priority="244" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="336" priority="241" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="323" priority="242" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="335" priority="235" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="236" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="334" priority="212" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="213" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="333" priority="214" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="215" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="332" priority="210" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="211" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="331" priority="184" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="185" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="330" priority="179" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="327" priority="172" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="180" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="326" priority="169" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="325" priority="164" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="165" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="324" priority="162" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="323" priority="161" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="322" priority="159" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="160" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="321" priority="158" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="159" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="320" priority="157" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="158" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="319" priority="156" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="157" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="318" priority="153" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="154" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="317" priority="151" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="152" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="316" priority="147" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="148" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="315" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="145" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="314" priority="143" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="313" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="143" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="312" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="311" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="310" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="309" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="308" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="307" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="306" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="305" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="304" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="303" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="302" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="301" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="300" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="299" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="298" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="297" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="296" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="295" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="294" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="293" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="292" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="291" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="290" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="289" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="288" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="287" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="286" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="285" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="284" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="283" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="282" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="281" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="280" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="279" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="278" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="277" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="276" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="275" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="274" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="273" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="272" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="271" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="270" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="269" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="268" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="267" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="266" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="265" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="264" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="263" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="262" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="261" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="260" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="259" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="258" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="257" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="256" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="255" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="254" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="253" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="252" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="251" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="250" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="249" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="248" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="247" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="246" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="245" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="244" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="242" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="241" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="240" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:E21">
-    <cfRule type="cellIs" dxfId="239" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="cellIs" dxfId="238" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="237" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="236" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="235" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="234" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="233" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="232" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="cellIs" dxfId="220" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:E22">
+    <cfRule type="cellIs" dxfId="219" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="cellIs" dxfId="218" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:H27">
+    <cfRule type="cellIs" dxfId="217" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:F27">
+    <cfRule type="cellIs" dxfId="216" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="cellIs" dxfId="215" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="cellIs" dxfId="214" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="cellIs" dxfId="213" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="212" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="211" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="cellIs" dxfId="210" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="209" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="cellIs" dxfId="208" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="207" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="206" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="205" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="204" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="203" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="202" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="201" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="cellIs" dxfId="200" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="199" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="198" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D11">
+    <cfRule type="cellIs" dxfId="197" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D15">
+    <cfRule type="cellIs" dxfId="196" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:E16">
+    <cfRule type="cellIs" dxfId="195" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D18">
+    <cfRule type="cellIs" dxfId="194" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="228" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="227" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="226" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="225" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:H27">
-    <cfRule type="cellIs" dxfId="224" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="223" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="222" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="221" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="220" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="219" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="218" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="217" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="216" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="215" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="214" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="213" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="212" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="211" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="210" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="209" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="208" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="207" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="206" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="205" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D11">
-    <cfRule type="cellIs" dxfId="204" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D15">
-    <cfRule type="cellIs" dxfId="203" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -9764,8 +9723,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10925,14 +10884,22 @@
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="47"/>
-      <c r="B45" s="15"/>
+      <c r="B45" s="15">
+        <v>44698</v>
+      </c>
       <c r="C45" s="60">
         <v>43</v>
       </c>
-      <c r="D45" s="55"/>
-      <c r="E45" s="41"/>
+      <c r="D45" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
+      <c r="G45" s="21">
+        <v>-10.64</v>
+      </c>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="22"/>
@@ -10942,14 +10909,22 @@
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="47"/>
-      <c r="B46" s="15"/>
+      <c r="B46" s="15">
+        <v>44698</v>
+      </c>
       <c r="C46" s="16">
         <v>44</v>
       </c>
-      <c r="D46" s="55"/>
-      <c r="E46" s="41"/>
+      <c r="D46" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F46" s="20"/>
-      <c r="G46" s="21"/>
+      <c r="G46" s="21">
+        <v>-268.05</v>
+      </c>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="22"/>
@@ -10959,14 +10934,22 @@
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="47"/>
-      <c r="B47" s="15"/>
+      <c r="B47" s="15">
+        <v>44698</v>
+      </c>
       <c r="C47" s="60">
         <v>45</v>
       </c>
-      <c r="D47" s="55"/>
-      <c r="E47" s="41"/>
+      <c r="D47" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F47" s="20"/>
-      <c r="G47" s="21"/>
+      <c r="G47" s="21">
+        <v>-111</v>
+      </c>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
       <c r="J47" s="22"/>
@@ -10976,14 +10959,22 @@
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="47"/>
-      <c r="B48" s="15"/>
+      <c r="B48" s="15">
+        <v>44699</v>
+      </c>
       <c r="C48" s="60">
         <v>46</v>
       </c>
-      <c r="D48" s="55"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="21"/>
+      <c r="D48" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="20"/>
+      <c r="G48" s="21">
+        <v>-41.72</v>
+      </c>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
       <c r="J48" s="22"/>
@@ -10993,14 +10984,22 @@
     </row>
     <row r="49" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="47"/>
-      <c r="B49" s="15"/>
+      <c r="B49" s="15">
+        <v>44699</v>
+      </c>
       <c r="C49" s="61">
         <v>47</v>
       </c>
-      <c r="D49" s="55"/>
-      <c r="E49" s="56"/>
+      <c r="D49" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F49" s="20"/>
-      <c r="G49" s="21"/>
+      <c r="G49" s="21">
+        <v>-9.99</v>
+      </c>
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
       <c r="J49" s="22"/>
@@ -11010,14 +11009,22 @@
     </row>
     <row r="50" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="47"/>
-      <c r="B50" s="15"/>
+      <c r="B50" s="15">
+        <v>44705</v>
+      </c>
       <c r="C50" s="60">
         <v>48</v>
       </c>
-      <c r="D50" s="55"/>
-      <c r="E50" s="56"/>
+      <c r="D50" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F50" s="20"/>
-      <c r="G50" s="21"/>
+      <c r="G50" s="21">
+        <v>-29.97</v>
+      </c>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
       <c r="J50" s="22"/>
@@ -39026,7 +39033,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-1876.3999999999999</v>
+        <v>-2347.7699999999995</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -40959,931 +40966,916 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
-    <cfRule type="cellIs" dxfId="202" priority="533" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="537" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="201" priority="523" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="527" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="200" priority="485" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="489" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="199" priority="441" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="445" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="198" priority="417" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="421" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="197" priority="415" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="419" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="196" priority="401" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="405" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="195" priority="367" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="371" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="194" priority="324" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="328" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="193" priority="310" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="314" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="192" priority="309" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="313" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="191" priority="306" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="310" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="190" priority="305" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="309" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="189" priority="304" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="308" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="188" priority="303" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="307" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="187" priority="302" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="306" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="186" priority="301" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="305" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="185" priority="300" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="304" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="184" priority="299" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="303" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="183" priority="298" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="302" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="182" priority="297" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="301" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="181" priority="296" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="300" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="180" priority="295" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="299" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="179" priority="294" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="298" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="178" priority="293" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="297" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="177" priority="292" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="296" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="176" priority="291" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="295" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="175" priority="290" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="294" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="174" priority="289" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="293" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="173" priority="288" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="292" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="172" priority="286" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="290" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="171" priority="285" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="289" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="170" priority="284" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="288" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="169" priority="283" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="287" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="168" priority="282" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="286" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="167" priority="281" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="285" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="166" priority="280" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="284" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="165" priority="279" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="283" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="164" priority="278" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="282" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="163" priority="277" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="281" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="162" priority="274" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="278" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="161" priority="273" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="277" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="160" priority="272" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="276" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="159" priority="271" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="275" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="158" priority="270" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="274" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="157" priority="269" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="273" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="156" priority="268" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="272" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="155" priority="267" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="271" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="154" priority="266" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="270" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="153" priority="264" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="268" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="152" priority="263" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="267" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="151" priority="262" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="266" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="150" priority="261" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="265" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="149" priority="260" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="264" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="148" priority="259" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="263" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="147" priority="258" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="262" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="146" priority="257" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="261" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="145" priority="255" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="259" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="144" priority="254" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="258" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="143" priority="253" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="257" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="142" priority="252" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="256" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="141" priority="251" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="255" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="140" priority="250" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="254" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="139" priority="249" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="253" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="138" priority="248" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="252" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="137" priority="226" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="230" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="136" priority="217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="221" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="135" priority="215" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="219" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="133" priority="199" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="203" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="132" priority="198" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="202" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="131" priority="196" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="200" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="130" priority="194" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="198" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="129" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="128" priority="173" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="177" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="127" priority="172" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="176" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="126" priority="158" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E7:E19 E21:E25">
-    <cfRule type="cellIs" dxfId="125" priority="153" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="157" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="124" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="108" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="107" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="106" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="105" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="104" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="103" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="102" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="101" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="100" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="99" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="98" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="97" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="96" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="95" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="94" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="93" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="92" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="91" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="90" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="89" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="88" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="87" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="86" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="85" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="84" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="83" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="82" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="81" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="80" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="79" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="78" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="77" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="76" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="75" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="74" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="73" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="72" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="71" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="70" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="69" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="68" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="67" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="66" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="65" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="64" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="63" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="62" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="61" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="60" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="59" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="58" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="57" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="56" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="55" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="54" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="53" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="52" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="51" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="50" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D114">
+    <cfRule type="cellIs" dxfId="49" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D115">
+    <cfRule type="cellIs" dxfId="48" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="47" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="46" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="45" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="44" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="43" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="42" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" dxfId="41" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D122">
+    <cfRule type="cellIs" dxfId="40" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="39" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="38" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="37" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="36" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="35" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="34" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="33" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="32" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="31" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="30" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="29" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="28" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="27" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="26" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="25" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E28">
+    <cfRule type="cellIs" dxfId="24" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="cellIs" dxfId="23" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="22" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="21" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E32">
+    <cfRule type="cellIs" dxfId="20" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="19" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="18" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="17" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="16" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="15" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="14" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:E41">
+    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E44">
+    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E44">
+    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="112" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="111" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="110" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="109" priority="111" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="108" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="107" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="106" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="105" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="104" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="103" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="102" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="101" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="100" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="99" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="98" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="97" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="96" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="95" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="94" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="93" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="92" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="91" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="90" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="89" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="88" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="87" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="86" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="85" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="84" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="83" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="82" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="81" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="80" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="79" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="78" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="77" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="76" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="75" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="74" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="73" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="72" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="71" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="70" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="69" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="68" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="67" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="66" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="65" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="64" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="63" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="62" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="61" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="60" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="59" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="58" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="57" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="56" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="55" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="54" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="53" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="52" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="51" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="50" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="49" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="48" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="47" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D114">
-    <cfRule type="cellIs" dxfId="46" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="45" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="44" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="43" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="42" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="41" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="40" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="39" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="38" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D122">
-    <cfRule type="cellIs" dxfId="37" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="36" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="35" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="34" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="33" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="32" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="31" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="30" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="29" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="28" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="27" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="26" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="25" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="24" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="23" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="22" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E28">
-    <cfRule type="cellIs" dxfId="21" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="20" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="19" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="18" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E32">
-    <cfRule type="cellIs" dxfId="17" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="10" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="9" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="7" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39:E41">
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
     <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
+  <conditionalFormatting sqref="E49:E50">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E93 E59:E66 E48 E116 E95:E102 E107:E114 E132:E138 E144:E169 E125:E130 E70:E89 E8 E3:E5 E10:E29 E31:E33 E35:E44" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E93 E59:E66 E116 E95:E102 E107:E114 E132:E138 E144:E169 E125:E130 E70:E89 E8 E3:E5 E10:E29 E31:E33 E35:E50" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E139:E143" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E104:E106 E115 E119:E120 E122 E6:E7 E91:E92 E46:E47 E54:E55 E68:E69" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E104:E106 E115 E119:E120 E122 E6:E7 E91:E92 E68:E69 E54:E55" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E103 E117:E118 E121 E123:E124 E9 E30 E34 E94 E45 E49:E53 E56:E58 E67 E90" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E103 E117:E118 E121 E123:E124 E9 E30 E34 E94 E90 E67 E56:E58 E51:E53" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2022.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845BB293-B834-4321-9A20-16DC28BB9FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B626A0-8434-457B-A392-4E63B9857EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="106">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -313,6 +313,54 @@
   </si>
   <si>
     <t>Vereinsring Sitzung im Häusle</t>
+  </si>
+  <si>
+    <t>Bingo</t>
+  </si>
+  <si>
+    <t>Wein Aldi</t>
+  </si>
+  <si>
+    <t>Trauerkarte Fr.Kuhn</t>
+  </si>
+  <si>
+    <t>drk notfalldose</t>
+  </si>
+  <si>
+    <t>wulle Vereinsmesse</t>
+  </si>
+  <si>
+    <t>TzgL 31.5.</t>
+  </si>
+  <si>
+    <t>Brezeln</t>
+  </si>
+  <si>
+    <t>Ritter Vereinsmesse</t>
+  </si>
+  <si>
+    <t>Becher Vereinsmesse</t>
+  </si>
+  <si>
+    <t>Marshmallows Vereinsmesse</t>
+  </si>
+  <si>
+    <t>Kaffeemilch</t>
+  </si>
+  <si>
+    <t>TzgL 14.06</t>
+  </si>
+  <si>
+    <t>Ersatzschluessel</t>
+  </si>
+  <si>
+    <t>Busreise</t>
+  </si>
+  <si>
+    <t>MCDonalds Preis Vereinsmesse</t>
+  </si>
+  <si>
+    <t>Helfer Taschengeld</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1058,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="325">
+  <dxfs count="319">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1131,36 +1179,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -6384,9 +6402,9 @@
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6884,14 +6902,22 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
+      <c r="A20" s="15">
+        <v>44713</v>
+      </c>
       <c r="B20" s="60">
         <v>17</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
+      <c r="C20" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21">
+        <v>108.6</v>
+      </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="19"/>
@@ -6899,14 +6925,22 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
+      <c r="A21" s="15">
+        <v>44727</v>
+      </c>
       <c r="B21" s="60">
         <v>18</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
+      <c r="C21" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21">
+        <v>85.5</v>
+      </c>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="19"/>
@@ -8163,7 +8197,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>8132.380000000001</v>
+        <v>8326.4800000000014</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -8202,11 +8236,11 @@
       <c r="D107" s="52"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>259.39999999999998</v>
+        <v>219.39999999999998</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>5784.6100000000015</v>
+        <v>5347.220000000003</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -8244,7 +8278,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>9434.7800000000007</v>
+        <v>8957.3900000000031</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -9044,648 +9078,638 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 G20 F21:G21 F30:G31 F34:G34 F37:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F19:G19 G28:G29 G4:G10 F23:G26 G22 H28:I104 I27 G32:G33 G35:G36 F13:G14 H4:I26 G12 F16:G16 G15 G17:G18">
-    <cfRule type="cellIs" dxfId="324" priority="244" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 F30:G31 F34:G34 F37:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F19:G19 G28:G29 G4:G10 F23:G26 G20:G22 H28:I104 I27 G32:G33 G35:G36 F13:G14 H4:I26 G12 F16:G16 G15 G17:G18">
+    <cfRule type="cellIs" dxfId="318" priority="245" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="323" priority="242" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="243" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="322" priority="236" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="237" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="321" priority="213" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="214" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="320" priority="215" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="216" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="319" priority="211" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="212" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="318" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="186" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="317" priority="180" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="315" priority="170" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="181" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="314" priority="165" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="166" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="313" priority="163" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="164" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="312" priority="162" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="311" priority="160" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="161" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="310" priority="159" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="160" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="309" priority="158" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="159" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="308" priority="157" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="158" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="307" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="155" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="306" priority="152" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="153" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="305" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="149" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="304" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="146" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="303" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="145" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="302" priority="143" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="301" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="143" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="300" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="299" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="298" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="297" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="296" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="295" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="294" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="293" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="292" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="291" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="290" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="289" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="288" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="287" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="286" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="285" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="284" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="283" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="282" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="281" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="280" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="279" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="278" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="277" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="276" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="275" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="274" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="273" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="272" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="271" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="270" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="269" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="268" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="267" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="266" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="265" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="264" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="263" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="262" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="261" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="260" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="259" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="258" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="257" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="256" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="255" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="254" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="253" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="252" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="251" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="250" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="249" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="248" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="247" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="246" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="245" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="244" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="243" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="242" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="241" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="240" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="239" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="238" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="237" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="236" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="235" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="234" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="233" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="231" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="230" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:E21">
-    <cfRule type="cellIs" dxfId="229" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="cellIs" dxfId="228" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="227" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="226" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="225" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="224" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="223" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="222" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="220" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="219" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="218" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="cellIs" dxfId="217" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="216" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="215" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="214" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="213" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="212" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="211" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="210" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="209" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="208" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="207" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="206" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="205" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="204" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="203" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="202" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="201" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="200" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="199" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="198" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="cellIs" dxfId="197" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D15">
-    <cfRule type="cellIs" dxfId="196" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="195" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D18">
-    <cfRule type="cellIs" dxfId="194" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D21">
+    <cfRule type="cellIs" dxfId="191" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9722,9 +9746,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11034,14 +11058,22 @@
     </row>
     <row r="51" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="47"/>
-      <c r="B51" s="15"/>
+      <c r="B51" s="15">
+        <v>44711</v>
+      </c>
       <c r="C51" s="60">
         <v>49</v>
       </c>
-      <c r="D51" s="55"/>
-      <c r="E51" s="23"/>
+      <c r="D51" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="F51" s="20"/>
-      <c r="G51" s="21"/>
+      <c r="G51" s="21">
+        <v>-36</v>
+      </c>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="22"/>
@@ -11051,14 +11083,22 @@
     </row>
     <row r="52" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="47"/>
-      <c r="B52" s="15"/>
+      <c r="B52" s="15">
+        <v>44711</v>
+      </c>
       <c r="C52" s="60">
         <v>50</v>
       </c>
-      <c r="D52" s="55"/>
-      <c r="E52" s="56"/>
+      <c r="D52" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="F52" s="20"/>
-      <c r="G52" s="21"/>
+      <c r="G52" s="21">
+        <v>-4.95</v>
+      </c>
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
       <c r="J52" s="22"/>
@@ -11068,14 +11108,22 @@
     </row>
     <row r="53" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="47"/>
-      <c r="B53" s="15"/>
+      <c r="B53" s="15">
+        <v>44713</v>
+      </c>
       <c r="C53" s="60">
         <v>51</v>
       </c>
-      <c r="D53" s="55"/>
-      <c r="E53" s="41"/>
+      <c r="D53" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="56" t="s">
+        <v>23</v>
+      </c>
       <c r="F53" s="20"/>
-      <c r="G53" s="21"/>
+      <c r="G53" s="21">
+        <v>-25</v>
+      </c>
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
       <c r="J53" s="22"/>
@@ -11085,14 +11133,22 @@
     </row>
     <row r="54" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="47"/>
-      <c r="B54" s="43"/>
+      <c r="B54" s="15">
+        <v>44713</v>
+      </c>
       <c r="C54" s="60">
         <v>52</v>
       </c>
-      <c r="D54" s="55"/>
-      <c r="E54" s="41"/>
+      <c r="D54" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="F54" s="20"/>
-      <c r="G54" s="21"/>
+      <c r="G54" s="21">
+        <v>-100</v>
+      </c>
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
       <c r="J54" s="22"/>
@@ -11336,14 +11392,22 @@
     </row>
     <row r="55" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="47"/>
-      <c r="B55" s="43"/>
+      <c r="B55" s="15">
+        <v>44713</v>
+      </c>
       <c r="C55" s="60">
         <v>53</v>
       </c>
-      <c r="D55" s="55"/>
-      <c r="E55" s="41"/>
+      <c r="D55" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F55" s="20"/>
-      <c r="G55" s="21"/>
+      <c r="G55" s="21">
+        <v>-51.4</v>
+      </c>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
       <c r="J55" s="22"/>
@@ -11353,14 +11417,22 @@
     </row>
     <row r="56" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="47"/>
-      <c r="B56" s="15"/>
+      <c r="B56" s="15">
+        <v>44713</v>
+      </c>
       <c r="C56" s="60">
         <v>54</v>
       </c>
-      <c r="D56" s="55"/>
-      <c r="E56" s="56"/>
+      <c r="D56" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F56" s="20"/>
-      <c r="G56" s="21"/>
+      <c r="G56" s="21">
+        <v>-12</v>
+      </c>
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
       <c r="J56" s="22"/>
@@ -11370,14 +11442,22 @@
     </row>
     <row r="57" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="47"/>
-      <c r="B57" s="15"/>
+      <c r="B57" s="15">
+        <v>44714</v>
+      </c>
       <c r="C57" s="60">
         <v>55</v>
       </c>
-      <c r="D57" s="55"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="21"/>
+      <c r="D57" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="17"/>
+      <c r="G57" s="21">
+        <v>-141</v>
+      </c>
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
       <c r="J57" s="22"/>
@@ -11387,14 +11467,22 @@
     </row>
     <row r="58" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="47"/>
-      <c r="B58" s="43"/>
+      <c r="B58" s="15">
+        <v>44714</v>
+      </c>
       <c r="C58" s="60">
         <v>56</v>
       </c>
-      <c r="D58" s="55"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="21"/>
+      <c r="D58" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="17"/>
+      <c r="G58" s="21">
+        <v>-20</v>
+      </c>
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
       <c r="J58" s="22"/>
@@ -11404,14 +11492,22 @@
     </row>
     <row r="59" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="47"/>
-      <c r="B59" s="43"/>
+      <c r="B59" s="15">
+        <v>44714</v>
+      </c>
       <c r="C59" s="60">
         <v>57</v>
       </c>
-      <c r="D59" s="55"/>
-      <c r="E59" s="41"/>
+      <c r="D59" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="F59" s="20"/>
-      <c r="G59" s="21"/>
+      <c r="G59" s="21">
+        <v>-7.6</v>
+      </c>
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
       <c r="J59" s="22"/>
@@ -11421,14 +11517,22 @@
     </row>
     <row r="60" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="47"/>
-      <c r="B60" s="43"/>
+      <c r="B60" s="43">
+        <v>44720</v>
+      </c>
       <c r="C60" s="60">
         <v>58</v>
       </c>
-      <c r="D60" s="55"/>
-      <c r="E60" s="41"/>
+      <c r="D60" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F60" s="17"/>
-      <c r="G60" s="21"/>
+      <c r="G60" s="21">
+        <v>-26.34</v>
+      </c>
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
       <c r="J60" s="22"/>
@@ -11672,14 +11776,22 @@
     </row>
     <row r="61" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="47"/>
-      <c r="B61" s="43"/>
+      <c r="B61" s="43">
+        <v>44720</v>
+      </c>
       <c r="C61" s="60">
         <v>59</v>
       </c>
-      <c r="D61" s="55"/>
-      <c r="E61" s="41"/>
+      <c r="D61" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F61" s="17"/>
-      <c r="G61" s="21"/>
+      <c r="G61" s="21">
+        <v>-46.41</v>
+      </c>
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
       <c r="J61" s="22"/>
@@ -11923,14 +12035,22 @@
     </row>
     <row r="62" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="47"/>
-      <c r="B62" s="43"/>
+      <c r="B62" s="43">
+        <v>44722</v>
+      </c>
       <c r="C62" s="60">
         <v>60</v>
       </c>
-      <c r="D62" s="55"/>
-      <c r="E62" s="41"/>
+      <c r="D62" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="E62" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F62" s="17"/>
-      <c r="G62" s="21"/>
+      <c r="G62" s="21">
+        <v>-5.98</v>
+      </c>
       <c r="H62" s="21"/>
       <c r="I62" s="21"/>
       <c r="J62" s="22"/>
@@ -12174,14 +12294,22 @@
     </row>
     <row r="63" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="47"/>
-      <c r="B63" s="43"/>
+      <c r="B63" s="43">
+        <v>44722</v>
+      </c>
       <c r="C63" s="60">
         <v>61</v>
       </c>
-      <c r="D63" s="55"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="21"/>
+      <c r="D63" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="17"/>
+      <c r="G63" s="21">
+        <v>-5.98</v>
+      </c>
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
       <c r="J63" s="22"/>
@@ -12425,14 +12553,22 @@
     </row>
     <row r="64" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="47"/>
-      <c r="B64" s="43"/>
+      <c r="B64" s="43">
+        <v>44729</v>
+      </c>
       <c r="C64" s="61">
         <v>62</v>
       </c>
-      <c r="D64" s="40"/>
-      <c r="E64" s="41"/>
+      <c r="D64" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E64" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F64" s="20"/>
-      <c r="G64" s="21"/>
+      <c r="G64" s="21">
+        <v>-13.99</v>
+      </c>
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
       <c r="J64" s="22"/>
@@ -12676,14 +12812,22 @@
     </row>
     <row r="65" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="47"/>
-      <c r="B65" s="43"/>
+      <c r="B65" s="43">
+        <v>44729</v>
+      </c>
       <c r="C65" s="61">
         <v>63</v>
       </c>
-      <c r="D65" s="55"/>
-      <c r="E65" s="41"/>
+      <c r="D65" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E65" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F65" s="20"/>
-      <c r="G65" s="21"/>
+      <c r="G65" s="21">
+        <v>-41.72</v>
+      </c>
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
       <c r="J65" s="22"/>
@@ -12927,14 +13071,22 @@
     </row>
     <row r="66" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="47"/>
-      <c r="B66" s="43"/>
+      <c r="B66" s="43">
+        <v>44732</v>
+      </c>
       <c r="C66" s="61">
         <v>64</v>
       </c>
-      <c r="D66" s="55"/>
-      <c r="E66" s="41"/>
+      <c r="D66" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="E66" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="F66" s="20"/>
-      <c r="G66" s="21"/>
+      <c r="G66" s="21">
+        <v>-20.12</v>
+      </c>
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
       <c r="J66" s="22"/>
@@ -13178,14 +13330,22 @@
     </row>
     <row r="67" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="47"/>
-      <c r="B67" s="15"/>
+      <c r="B67" s="15">
+        <v>44739</v>
+      </c>
       <c r="C67" s="61">
         <v>65</v>
       </c>
-      <c r="D67" s="55"/>
-      <c r="E67" s="41"/>
+      <c r="D67" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F67" s="20"/>
-      <c r="G67" s="21"/>
+      <c r="G67" s="21">
+        <v>-47</v>
+      </c>
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
       <c r="J67" s="22"/>
@@ -13429,14 +13589,22 @@
     </row>
     <row r="68" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="47"/>
-      <c r="B68" s="15"/>
+      <c r="B68" s="15">
+        <v>44739</v>
+      </c>
       <c r="C68" s="61">
         <v>66</v>
       </c>
-      <c r="D68" s="55"/>
-      <c r="E68" s="41"/>
+      <c r="D68" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F68" s="20"/>
-      <c r="G68" s="21"/>
+      <c r="G68" s="21">
+        <v>-26</v>
+      </c>
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
       <c r="J68" s="22"/>
@@ -13680,13 +13848,21 @@
     </row>
     <row r="69" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="47"/>
-      <c r="B69" s="15"/>
+      <c r="B69" s="15">
+        <v>44738</v>
+      </c>
       <c r="C69" s="61">
         <v>67</v>
       </c>
-      <c r="D69" s="55"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="20"/>
+      <c r="D69" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="E69" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="21">
+        <v>-40</v>
+      </c>
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
@@ -39029,11 +39205,11 @@
       <c r="E170" s="32"/>
       <c r="F170" s="33">
         <f>SUM(F3:F169)</f>
-        <v>-200</v>
+        <v>-240</v>
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-2347.7699999999995</v>
+        <v>-2979.2599999999989</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -40966,916 +41142,906 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
-    <cfRule type="cellIs" dxfId="193" priority="537" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="554" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="192" priority="527" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="544" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="191" priority="489" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="506" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="190" priority="445" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="462" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="189" priority="421" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="438" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="188" priority="419" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="436" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="187" priority="405" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="422" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111:D111">
+    <cfRule type="cellIs" dxfId="182" priority="345" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122">
+    <cfRule type="cellIs" dxfId="181" priority="331" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="cellIs" dxfId="180" priority="330" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="179" priority="327" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="cellIs" dxfId="178" priority="326" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="cellIs" dxfId="177" priority="325" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="cellIs" dxfId="176" priority="324" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127">
+    <cfRule type="cellIs" dxfId="175" priority="323" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128:D128">
+    <cfRule type="cellIs" dxfId="174" priority="322" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="173" priority="321" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="cellIs" dxfId="172" priority="320" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="cellIs" dxfId="171" priority="319" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130">
+    <cfRule type="cellIs" dxfId="170" priority="318" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="cellIs" dxfId="169" priority="317" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" dxfId="168" priority="316" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="167" priority="315" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134:C134">
+    <cfRule type="cellIs" dxfId="166" priority="314" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="165" priority="313" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135">
+    <cfRule type="cellIs" dxfId="164" priority="312" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="163" priority="311" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="162" priority="310" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="cellIs" dxfId="161" priority="309" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="cellIs" dxfId="160" priority="307" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E139">
+    <cfRule type="cellIs" dxfId="159" priority="306" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F140">
+    <cfRule type="cellIs" dxfId="158" priority="305" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="cellIs" dxfId="157" priority="304" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141">
+    <cfRule type="cellIs" dxfId="156" priority="303" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="cellIs" dxfId="155" priority="302" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F142">
+    <cfRule type="cellIs" dxfId="154" priority="301" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="cellIs" dxfId="153" priority="300" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F143">
+    <cfRule type="cellIs" dxfId="152" priority="299" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" dxfId="151" priority="298" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145:E145">
+    <cfRule type="cellIs" dxfId="150" priority="295" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146:E146">
+    <cfRule type="cellIs" dxfId="149" priority="294" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:E148">
+    <cfRule type="cellIs" dxfId="148" priority="293" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="cellIs" dxfId="147" priority="292" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="cellIs" dxfId="146" priority="291" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B151">
+    <cfRule type="cellIs" dxfId="145" priority="290" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="cellIs" dxfId="144" priority="289" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E154">
+    <cfRule type="cellIs" dxfId="143" priority="288" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B155:D155">
+    <cfRule type="cellIs" dxfId="142" priority="287" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="cellIs" dxfId="141" priority="285" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156:D156">
+    <cfRule type="cellIs" dxfId="140" priority="284" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E156">
+    <cfRule type="cellIs" dxfId="139" priority="283" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157:E157">
+    <cfRule type="cellIs" dxfId="138" priority="282" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B157">
+    <cfRule type="cellIs" dxfId="137" priority="281" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158:D158">
+    <cfRule type="cellIs" dxfId="136" priority="280" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E158">
+    <cfRule type="cellIs" dxfId="135" priority="279" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159">
+    <cfRule type="cellIs" dxfId="134" priority="278" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159">
+    <cfRule type="cellIs" dxfId="133" priority="276" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160:D160">
+    <cfRule type="cellIs" dxfId="132" priority="275" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="131" priority="274" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D161:E161">
+    <cfRule type="cellIs" dxfId="130" priority="273" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B161:C161">
+    <cfRule type="cellIs" dxfId="129" priority="272" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B162">
+    <cfRule type="cellIs" dxfId="128" priority="271" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B163">
+    <cfRule type="cellIs" dxfId="127" priority="270" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E163">
+    <cfRule type="cellIs" dxfId="126" priority="269" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="125" priority="247" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="cellIs" dxfId="124" priority="238" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="123" priority="236" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
+    <cfRule type="cellIs" dxfId="122" priority="219" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="cellIs" dxfId="121" priority="217" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62:F63">
+    <cfRule type="cellIs" dxfId="120" priority="215" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="119" priority="199" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="118" priority="194" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85">
+    <cfRule type="cellIs" dxfId="117" priority="193" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="116" priority="179" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E5 E7:E19 E21:E25">
+    <cfRule type="cellIs" dxfId="115" priority="174" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="114" priority="148" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="107" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="106" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="105" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="104" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="103" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="102" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="101" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="100" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="99" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="98" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="97" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="96" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="95" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="94" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="93" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="92" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="91" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="90" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="89" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="88" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="87" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="86" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="85" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="84" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="83" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="82" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="81" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="80" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="79" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="78" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="77" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="76" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="75" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="74" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="73" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="72" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="71" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="70" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="69" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="68" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="67" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="66" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D114">
+    <cfRule type="cellIs" dxfId="65" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D115">
+    <cfRule type="cellIs" dxfId="64" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="63" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="62" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="61" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="60" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="59" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="58" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" dxfId="57" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D122">
+    <cfRule type="cellIs" dxfId="56" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="55" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="54" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="53" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="52" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="51" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="50" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="49" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="48" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="47" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="46" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="45" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="44" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="43" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="42" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="41" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E28">
+    <cfRule type="cellIs" dxfId="40" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="cellIs" dxfId="39" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="38" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="37" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E32">
+    <cfRule type="cellIs" dxfId="36" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="35" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="34" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="33" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="32" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="31" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:E41">
+    <cfRule type="cellIs" dxfId="29" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E44">
+    <cfRule type="cellIs" dxfId="28" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E44">
+    <cfRule type="cellIs" dxfId="27" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="26" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="cellIs" dxfId="25" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="24" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:E50">
+    <cfRule type="cellIs" dxfId="23" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:E52">
+    <cfRule type="cellIs" dxfId="22" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="21" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="20" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="19" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="18" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="17" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="cellIs" dxfId="16" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E62">
+    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="186" priority="371" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="185" priority="328" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="184" priority="314" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="183" priority="313" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="182" priority="310" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="181" priority="309" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="180" priority="308" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="179" priority="307" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="178" priority="306" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="177" priority="305" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="176" priority="304" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="175" priority="303" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="174" priority="302" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="173" priority="301" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="172" priority="300" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="171" priority="299" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="170" priority="298" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="169" priority="297" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="168" priority="296" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="167" priority="295" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="166" priority="294" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="165" priority="293" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="164" priority="292" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="163" priority="290" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="162" priority="289" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="161" priority="288" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="160" priority="287" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="159" priority="286" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="158" priority="285" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="157" priority="284" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="156" priority="283" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="155" priority="282" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="154" priority="281" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="153" priority="278" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="152" priority="277" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="151" priority="276" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="150" priority="275" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="149" priority="274" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="148" priority="273" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="147" priority="272" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="146" priority="271" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="145" priority="270" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="144" priority="268" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="143" priority="267" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="142" priority="266" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="141" priority="265" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="140" priority="264" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="139" priority="263" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="138" priority="262" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="137" priority="261" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="136" priority="259" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="135" priority="258" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="134" priority="257" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="133" priority="256" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="132" priority="255" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="131" priority="254" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="130" priority="253" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="129" priority="252" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="128" priority="230" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="127" priority="221" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="126" priority="219" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="125" priority="203" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="124" priority="202" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="123" priority="200" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="122" priority="198" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="121" priority="182" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="120" priority="177" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="119" priority="176" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="118" priority="162" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E5 E7:E19 E21:E25">
-    <cfRule type="cellIs" dxfId="117" priority="157" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="116" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="108" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="107" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="106" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="105" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="104" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="103" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="102" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="101" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="100" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="99" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="98" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="97" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="96" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="95" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="94" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="93" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="92" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="91" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="90" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="89" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="88" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="87" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="86" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="85" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="84" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="83" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="82" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="81" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="80" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="79" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="78" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="77" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="76" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="75" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="74" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="73" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="72" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="71" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="70" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="69" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="68" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="67" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="66" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="65" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="64" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="63" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="62" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="61" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="60" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="59" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="58" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="57" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="56" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="55" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="54" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="53" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="52" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="51" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="50" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D114">
-    <cfRule type="cellIs" dxfId="49" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="48" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="47" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="46" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="45" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="44" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="43" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="42" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="41" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D122">
-    <cfRule type="cellIs" dxfId="40" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="39" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="38" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="37" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="36" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="35" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="34" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="33" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="32" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="31" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="30" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="29" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="28" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="27" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="26" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="25" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E28">
-    <cfRule type="cellIs" dxfId="24" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="23" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="22" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="21" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E32">
-    <cfRule type="cellIs" dxfId="20" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="19" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="18" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="17" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="16" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="15" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="14" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39:E41">
-    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E67:E69">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E93 E59:E66 E116 E95:E102 E107:E114 E132:E138 E144:E169 E125:E130 E70:E89 E8 E3:E5 E10:E29 E31:E33 E35:E50" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E93 E116 E95:E102 E107:E114 E132:E138 E144:E169 E125:E130 E8 E3:E5 E10:E29 E31:E33 E35:E89" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E139:E143" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E104:E106 E115 E119:E120 E122 E6:E7 E91:E92 E68:E69 E54:E55" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E104:E106 E115 E119:E120 E122 E6:E7 E91:E92" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E103 E117:E118 E121 E123:E124 E9 E30 E34 E94 E90 E67 E56:E58 E51:E53" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E103 E117:E118 E121 E123:E124 E9 E30 E34 E94 E90" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2022.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B626A0-8434-457B-A392-4E63B9857EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FC40FF-FFE1-4ED4-8AE7-80844C806EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="112">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -361,6 +361,24 @@
   </si>
   <si>
     <t>Helfer Taschengeld</t>
+  </si>
+  <si>
+    <t>Vereinsmesse</t>
+  </si>
+  <si>
+    <t>Sprudel Vereinsmesse</t>
+  </si>
+  <si>
+    <t>Helfer Essen Vereinsmesse</t>
+  </si>
+  <si>
+    <t>TzgL 28.06</t>
+  </si>
+  <si>
+    <t>Druckerpatrone</t>
+  </si>
+  <si>
+    <t>Häusle Vermietung</t>
   </si>
 </sst>
 </file>
@@ -1058,17 +1076,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="319">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="313">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1179,26 +1187,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -5163,17 +5151,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="7">
+    <format dxfId="5">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5266,17 +5254,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="10">
+    <format dxfId="8">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6402,9 +6390,9 @@
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6948,13 +6936,21 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
+      <c r="A22" s="15">
+        <v>44738</v>
+      </c>
       <c r="B22" s="60">
         <v>19</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="17"/>
+      <c r="C22" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="17">
+        <v>54.4</v>
+      </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
@@ -6963,14 +6959,22 @@
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16">
-        <v>20</v>
-      </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
+      <c r="A23" s="15">
+        <v>44741</v>
+      </c>
+      <c r="B23" s="60">
+        <v>18</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21">
+        <v>120</v>
+      </c>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
       <c r="I23" s="19"/>
@@ -6978,14 +6982,22 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
+      <c r="A24" s="15">
+        <v>44742</v>
+      </c>
       <c r="B24" s="16">
         <v>21</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="57"/>
+      <c r="C24" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>0</v>
+      </c>
       <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18">
+        <v>17.5</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="19"/>
@@ -8193,11 +8205,11 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>459.4</v>
+        <v>513.79999999999995</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>8326.4800000000014</v>
+        <v>8463.9800000000014</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -8236,11 +8248,11 @@
       <c r="D107" s="52"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>219.39999999999998</v>
+        <v>273.79999999999995</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>5347.220000000003</v>
+        <v>5335.0400000000027</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -8278,7 +8290,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>8957.3900000000031</v>
+        <v>8999.6100000000024</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -9078,638 +9090,638 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 F30:G31 F34:G34 F37:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F19:G19 G28:G29 G4:G10 F23:G26 G20:G22 H28:I104 I27 G32:G33 G35:G36 F13:G14 H4:I26 G12 F16:G16 G15 G17:G18">
-    <cfRule type="cellIs" dxfId="318" priority="245" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 F30:G31 F34:G34 F37:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F19:G19 G28:G29 G4:G10 F24:G26 H28:I104 I27 G32:G33 G35:G36 F13:G14 H4:I26 G12 F16:G16 G15 G17:G18 G20:G23">
+    <cfRule type="cellIs" dxfId="312" priority="247" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="317" priority="243" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="245" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="316" priority="237" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="239" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="315" priority="214" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="216" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="314" priority="216" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="313" priority="212" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="214" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="312" priority="186" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="188" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="311" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="183" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="310" priority="166" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="168" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="309" priority="164" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="166" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="308" priority="163" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="165" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="307" priority="161" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="306" priority="160" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="305" priority="159" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="161" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="304" priority="158" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="160" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="303" priority="155" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="157" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="302" priority="153" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="155" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="301" priority="149" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="151" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="300" priority="146" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="148" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="299" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="147" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="298" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="146" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="297" priority="143" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="145" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="296" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="295" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="143" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="294" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="293" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="292" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="138" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="291" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="290" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="289" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="288" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="287" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="286" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="285" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="284" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="283" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="282" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="281" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="280" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="279" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="278" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="277" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="276" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="275" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="274" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="273" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="272" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="271" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="270" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="269" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="268" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="267" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="266" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="265" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="264" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="263" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="262" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="261" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="260" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="259" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="258" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="257" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="256" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="255" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="254" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="253" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="252" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="251" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="250" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="249" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="248" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="247" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="246" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="245" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="244" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="243" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="242" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="241" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="240" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="239" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="238" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="237" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="236" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="235" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="234" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="233" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="232" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="231" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="230" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="229" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="228" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:E23">
-    <cfRule type="cellIs" dxfId="226" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="225" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="224" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="223" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="222" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="221" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="220" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="219" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="218" priority="32" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="214" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="217" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="cellIs" dxfId="216" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="215" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="214" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="213" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="212" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="211" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="210" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="209" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="208" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="207" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="206" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="205" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="204" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="203" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="202" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="201" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="200" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="199" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="198" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="197" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="cellIs" dxfId="196" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D15">
-    <cfRule type="cellIs" dxfId="195" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="194" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D18">
-    <cfRule type="cellIs" dxfId="193" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="192" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D21">
-    <cfRule type="cellIs" dxfId="191" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="186" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:D24">
+    <cfRule type="cellIs" dxfId="185" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9746,9 +9758,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14107,14 +14119,22 @@
     </row>
     <row r="70" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="47"/>
-      <c r="B70" s="15"/>
+      <c r="B70" s="15">
+        <v>44739</v>
+      </c>
       <c r="C70" s="61">
         <v>68</v>
       </c>
-      <c r="D70" s="55"/>
-      <c r="E70" s="41"/>
+      <c r="D70" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="E70" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F70" s="20"/>
-      <c r="G70" s="21"/>
+      <c r="G70" s="21">
+        <v>-13.32</v>
+      </c>
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
       <c r="J70" s="22"/>
@@ -14358,14 +14378,22 @@
     </row>
     <row r="71" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="47"/>
-      <c r="B71" s="15"/>
+      <c r="B71" s="15">
+        <v>44739</v>
+      </c>
       <c r="C71" s="61">
         <v>69</v>
       </c>
-      <c r="D71" s="55"/>
-      <c r="E71" s="41"/>
+      <c r="D71" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="E71" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F71" s="20"/>
-      <c r="G71" s="21"/>
+      <c r="G71" s="21">
+        <v>-55</v>
+      </c>
       <c r="H71" s="20"/>
       <c r="I71" s="21"/>
       <c r="J71" s="22"/>
@@ -14609,14 +14637,22 @@
     </row>
     <row r="72" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="47"/>
-      <c r="B72" s="15"/>
+      <c r="B72" s="15">
+        <v>44741</v>
+      </c>
       <c r="C72" s="60">
         <v>70</v>
       </c>
-      <c r="D72" s="55"/>
-      <c r="E72" s="41"/>
+      <c r="D72" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="E72" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="F72" s="20"/>
-      <c r="G72" s="21"/>
+      <c r="G72" s="21">
+        <v>-17.55</v>
+      </c>
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
       <c r="J72" s="22"/>
@@ -14860,14 +14896,22 @@
     </row>
     <row r="73" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="47"/>
-      <c r="B73" s="15"/>
+      <c r="B73" s="15">
+        <v>44741</v>
+      </c>
       <c r="C73" s="61">
         <v>71</v>
       </c>
-      <c r="D73" s="55"/>
-      <c r="E73" s="41"/>
+      <c r="D73" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="E73" s="41" t="s">
+        <v>15</v>
+      </c>
       <c r="F73" s="20"/>
-      <c r="G73" s="21"/>
+      <c r="G73" s="21">
+        <v>-20.99</v>
+      </c>
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
       <c r="J73" s="22"/>
@@ -15111,14 +15155,22 @@
     </row>
     <row r="74" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="47"/>
-      <c r="B74" s="15"/>
+      <c r="B74" s="15">
+        <v>44741</v>
+      </c>
       <c r="C74" s="60">
         <v>72</v>
       </c>
-      <c r="D74" s="40"/>
-      <c r="E74" s="41"/>
+      <c r="D74" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E74" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="F74" s="20"/>
-      <c r="G74" s="21"/>
+      <c r="G74" s="21">
+        <v>-3.8</v>
+      </c>
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
       <c r="J74" s="22"/>
@@ -15362,14 +15414,22 @@
     </row>
     <row r="75" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="47"/>
-      <c r="B75" s="15"/>
+      <c r="B75" s="15">
+        <v>44742</v>
+      </c>
       <c r="C75" s="60">
         <v>73</v>
       </c>
-      <c r="D75" s="55"/>
-      <c r="E75" s="41"/>
+      <c r="D75" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E75" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F75" s="20"/>
-      <c r="G75" s="21"/>
+      <c r="G75" s="21">
+        <v>-39.020000000000003</v>
+      </c>
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
       <c r="J75" s="22"/>
@@ -39209,7 +39269,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-2979.2599999999989</v>
+        <v>-3128.9399999999991</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -41142,891 +41202,881 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
-    <cfRule type="cellIs" dxfId="190" priority="554" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="557" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="189" priority="544" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="547" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="188" priority="506" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="509" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="187" priority="462" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="465" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="186" priority="438" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="441" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="185" priority="436" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="439" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="184" priority="422" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="425" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="182" priority="345" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="348" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="181" priority="331" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="334" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="180" priority="330" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="333" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="179" priority="327" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="330" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="178" priority="326" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="329" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="177" priority="325" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="328" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="176" priority="324" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="327" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="175" priority="323" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="326" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="174" priority="322" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="325" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="173" priority="321" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="324" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="172" priority="320" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="323" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="171" priority="319" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="322" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="170" priority="318" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="321" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="169" priority="317" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="320" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="168" priority="316" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="319" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="167" priority="315" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="318" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="166" priority="314" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="317" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="165" priority="313" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="316" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="164" priority="312" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="315" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="163" priority="311" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="314" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="162" priority="310" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="313" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="161" priority="309" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="312" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="160" priority="307" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="310" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="159" priority="306" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="309" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="158" priority="305" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="308" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="157" priority="304" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="307" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="156" priority="303" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="306" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="155" priority="302" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="305" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="154" priority="301" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="304" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="153" priority="300" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="303" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="152" priority="299" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="302" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="151" priority="298" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="301" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="150" priority="295" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="298" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="149" priority="294" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="297" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="148" priority="293" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="296" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="147" priority="292" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="295" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="146" priority="291" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="294" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="145" priority="290" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="293" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="144" priority="289" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="292" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="143" priority="288" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="291" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="142" priority="287" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="290" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="141" priority="285" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="288" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="140" priority="284" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="287" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="139" priority="283" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="286" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="138" priority="282" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="285" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="137" priority="281" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="284" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="136" priority="280" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="283" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="135" priority="279" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="282" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="134" priority="278" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="281" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="133" priority="276" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="279" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="132" priority="275" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="278" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="131" priority="274" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="277" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="130" priority="273" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="276" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="129" priority="272" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="275" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="128" priority="271" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="274" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="127" priority="270" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="273" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="126" priority="269" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="272" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="125" priority="247" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="250" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="124" priority="238" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="241" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="123" priority="236" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="239" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="122" priority="219" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="222" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="121" priority="217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="220" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="120" priority="215" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="119" priority="199" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="202" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="118" priority="194" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="197" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="117" priority="193" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="196" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="116" priority="179" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E7:E19 E21:E25">
-    <cfRule type="cellIs" dxfId="115" priority="174" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="177" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="114" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="151" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
+  <conditionalFormatting sqref="E73">
     <cfRule type="cellIs" dxfId="107" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="106" priority="104" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="104" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="103" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="102" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="101" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="100" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="99" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="98" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="97" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="96" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="95" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="94" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="93" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="92" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="91" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="90" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="89" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="88" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="87" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="86" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="85" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="84" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="83" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="82" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="81" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="80" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="79" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="78" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="77" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="76" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="75" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="74" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="73" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="72" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="71" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="70" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="69" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D114">
+    <cfRule type="cellIs" dxfId="68" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D115">
+    <cfRule type="cellIs" dxfId="67" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="66" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="65" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="64" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="63" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="62" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="61" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" dxfId="60" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D122">
+    <cfRule type="cellIs" dxfId="59" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="58" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="57" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="56" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="55" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="54" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="53" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="52" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="51" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="50" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="49" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="48" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="47" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="46" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="45" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="44" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E28">
+    <cfRule type="cellIs" dxfId="43" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="cellIs" dxfId="42" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="41" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="40" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E32">
+    <cfRule type="cellIs" dxfId="39" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="38" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="37" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="36" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="35" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="34" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="33" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:E41">
+    <cfRule type="cellIs" dxfId="32" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E44">
+    <cfRule type="cellIs" dxfId="31" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E44">
+    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="29" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="cellIs" dxfId="28" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="27" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:E50">
+    <cfRule type="cellIs" dxfId="26" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:E52">
+    <cfRule type="cellIs" dxfId="25" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="24" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="23" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="22" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="21" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="20" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="cellIs" dxfId="19" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="cellIs" dxfId="18" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="cellIs" dxfId="17" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="cellIs" dxfId="16" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E62">
+    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E71">
+    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="105" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="104" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="103" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="102" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="101" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="100" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="99" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="98" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="97" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="96" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="95" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="94" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="93" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="92" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="91" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="90" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="89" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="88" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="87" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="86" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="85" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="84" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="83" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="82" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="81" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="80" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="79" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="78" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="77" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="76" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="75" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="74" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="73" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="72" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="71" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="70" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="69" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="68" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="67" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="66" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D114">
-    <cfRule type="cellIs" dxfId="65" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="64" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="63" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="62" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="61" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="60" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="59" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="58" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="57" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D122">
-    <cfRule type="cellIs" dxfId="56" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="55" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="54" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="53" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="52" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="51" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="50" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="49" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="48" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="47" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="46" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="45" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="44" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="43" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="42" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="41" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E28">
-    <cfRule type="cellIs" dxfId="40" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="39" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="38" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="37" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E32">
-    <cfRule type="cellIs" dxfId="36" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="35" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="34" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="33" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="32" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="31" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39:E41">
-    <cfRule type="cellIs" dxfId="29" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="28" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="27" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="26" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47">
-    <cfRule type="cellIs" dxfId="25" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="24" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
-    <cfRule type="cellIs" dxfId="23" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51:E52">
-    <cfRule type="cellIs" dxfId="22" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="21" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="20" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="19" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="18" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="17" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="16" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E62">
-    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67:E69">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/AWO_Einnahmen_Ausgaben_2022.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FC40FF-FFE1-4ED4-8AE7-80844C806EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753BE7B6-648E-4E34-A3AD-3AA99E7A7BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="119">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -379,6 +379,27 @@
   </si>
   <si>
     <t>Häusle Vermietung</t>
+  </si>
+  <si>
+    <t>Awo Bund Buchungen</t>
+  </si>
+  <si>
+    <t>Abfall</t>
+  </si>
+  <si>
+    <t>Awo Zinsen</t>
+  </si>
+  <si>
+    <t>Getränke</t>
+  </si>
+  <si>
+    <t>TzgL 2.8.</t>
+  </si>
+  <si>
+    <t>Sonnenschirme</t>
+  </si>
+  <si>
+    <t>Kaffee+milch</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1097,82 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="313">
+  <dxfs count="328">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -5151,17 +5247,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="5">
+    <format dxfId="20">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5254,17 +5350,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="8">
+    <format dxfId="23">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6391,8 +6487,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7005,14 +7101,22 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
+      <c r="A25" s="15">
+        <v>44763</v>
+      </c>
       <c r="B25" s="60">
         <v>22</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
+      <c r="C25" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21">
+        <v>1355.03</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="19"/>
@@ -7020,14 +7124,22 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
+      <c r="A26" s="15">
+        <v>44767</v>
+      </c>
       <c r="B26" s="60">
         <v>23</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="57"/>
+      <c r="C26" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>25</v>
+      </c>
       <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18">
+        <v>110</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
       <c r="I26" s="19"/>
@@ -7035,14 +7147,22 @@
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
+      <c r="A27" s="15">
+        <v>44777</v>
+      </c>
       <c r="B27" s="16">
         <v>24</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
+      <c r="C27" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21">
+        <v>78</v>
+      </c>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="19"/>
@@ -8209,7 +8329,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>8463.9800000000014</v>
+        <v>10007.010000000002</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -8252,7 +8372,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>5335.0400000000027</v>
+        <v>6033.2000000000025</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -8290,7 +8410,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>8999.6100000000024</v>
+        <v>9697.7700000000041</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -9090,638 +9210,633 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 F30:G31 F34:G34 F37:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F19:G19 G28:G29 G4:G10 F24:G26 H28:I104 I27 G32:G33 G35:G36 F13:G14 H4:I26 G12 F16:G16 G15 G17:G18 G20:G23">
-    <cfRule type="cellIs" dxfId="312" priority="247" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 F30:G31 F34:G34 F37:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F19:G19 G28:G29 G4:G10 F24:G24 H28:I104 I27 G32:G33 G35:G36 F13:G14 H4:I26 G12 F16:G16 G15 G17:G18 G20:G23 F26:G26 G25">
+    <cfRule type="cellIs" dxfId="327" priority="249" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="311" priority="245" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="326" priority="247" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="310" priority="239" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="325" priority="241" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="309" priority="216" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="324" priority="218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="308" priority="218" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="323" priority="220" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="307" priority="214" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="216" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="306" priority="188" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="190" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="305" priority="183" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="185" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="304" priority="168" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="303" priority="166" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="302" priority="165" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="167" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="301" priority="163" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="165" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="300" priority="162" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="164" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="299" priority="161" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="298" priority="160" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="297" priority="157" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="159" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="296" priority="155" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="157" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="295" priority="151" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="153" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="294" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="293" priority="147" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="149" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="292" priority="146" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="148" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="291" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="147" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="290" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="146" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="289" priority="143" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="145" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="288" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="287" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="286" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="285" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="284" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="138" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="283" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="282" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="281" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="280" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="279" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="278" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="277" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="276" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="275" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="274" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="273" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="272" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="271" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="270" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="269" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="268" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="267" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="266" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="265" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="264" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="263" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="262" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="261" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="260" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="259" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="258" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="257" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="256" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="255" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="254" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="253" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="252" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="251" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="250" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="249" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="248" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="247" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="246" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="245" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="244" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="243" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="242" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="241" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="240" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="239" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="238" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="237" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="236" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="235" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="234" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="233" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="232" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="231" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="230" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="229" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="228" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="227" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="226" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="225" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="224" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="223" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="222" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="220" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="219" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="218" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="217" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="216" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="215" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="214" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="213" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="cellIs" dxfId="212" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="211" priority="31" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D31">
+    <cfRule type="cellIs" dxfId="225" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="cellIs" dxfId="224" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="223" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="222" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="cellIs" dxfId="221" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="220" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="cellIs" dxfId="219" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="218" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="217" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="216" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="215" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="214" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="213" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="212" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="cellIs" dxfId="211" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="210" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="209" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D11">
+    <cfRule type="cellIs" dxfId="208" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D15">
+    <cfRule type="cellIs" dxfId="207" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:E16">
+    <cfRule type="cellIs" dxfId="206" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D18">
+    <cfRule type="cellIs" dxfId="205" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="204" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D21">
+    <cfRule type="cellIs" dxfId="203" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="202" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:D24">
+    <cfRule type="cellIs" dxfId="201" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="210" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="209" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="208" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="207" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="206" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="205" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="204" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="203" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="202" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="201" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="200" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="199" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="198" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="197" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="196" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="195" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="194" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="193" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D11">
-    <cfRule type="cellIs" dxfId="192" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D15">
-    <cfRule type="cellIs" dxfId="191" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="190" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D18">
-    <cfRule type="cellIs" dxfId="189" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="188" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D21">
-    <cfRule type="cellIs" dxfId="187" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="186" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" dxfId="185" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9759,8 +9874,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
+      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15673,14 +15788,22 @@
     </row>
     <row r="76" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="47"/>
-      <c r="B76" s="15"/>
+      <c r="B76" s="15">
+        <v>44743</v>
+      </c>
       <c r="C76" s="60">
         <v>74</v>
       </c>
-      <c r="D76" s="55"/>
-      <c r="E76" s="41"/>
+      <c r="D76" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F76" s="20"/>
-      <c r="G76" s="21"/>
+      <c r="G76" s="21">
+        <v>-12</v>
+      </c>
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
       <c r="J76" s="22"/>
@@ -15924,14 +16047,22 @@
     </row>
     <row r="77" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="47"/>
-      <c r="B77" s="15"/>
+      <c r="B77" s="15">
+        <v>44743</v>
+      </c>
       <c r="C77" s="60">
         <v>75</v>
       </c>
-      <c r="D77" s="55"/>
-      <c r="E77" s="41"/>
+      <c r="D77" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="E77" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F77" s="20"/>
-      <c r="G77" s="21"/>
+      <c r="G77" s="21">
+        <v>-63.9</v>
+      </c>
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
       <c r="J77" s="22"/>
@@ -16175,14 +16306,22 @@
     </row>
     <row r="78" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="47"/>
-      <c r="B78" s="15"/>
+      <c r="B78" s="15">
+        <v>44746</v>
+      </c>
       <c r="C78" s="61">
         <v>76</v>
       </c>
-      <c r="D78" s="55"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="21"/>
+      <c r="D78" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="E78" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" s="17"/>
+      <c r="G78" s="21">
+        <v>-20</v>
+      </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="22"/>
@@ -16426,14 +16565,22 @@
     </row>
     <row r="79" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="47"/>
-      <c r="B79" s="15"/>
+      <c r="B79" s="15">
+        <v>44746</v>
+      </c>
       <c r="C79" s="60">
         <v>77</v>
       </c>
-      <c r="D79" s="55"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="21"/>
+      <c r="D79" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="E79" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" s="17"/>
+      <c r="G79" s="21">
+        <v>-111</v>
+      </c>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
       <c r="J79" s="22"/>
@@ -16677,14 +16824,22 @@
     </row>
     <row r="80" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="47"/>
-      <c r="B80" s="15"/>
+      <c r="B80" s="15">
+        <v>44757</v>
+      </c>
       <c r="C80" s="60">
         <v>78</v>
       </c>
-      <c r="D80" s="55"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="21"/>
+      <c r="D80" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" s="99"/>
+      <c r="G80" s="100">
+        <v>-18.36</v>
+      </c>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
       <c r="J80" s="22"/>
@@ -16928,14 +17083,22 @@
     </row>
     <row r="81" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="47"/>
-      <c r="B81" s="15"/>
+      <c r="B81" s="15">
+        <v>44760</v>
+      </c>
       <c r="C81" s="60">
         <v>79</v>
       </c>
-      <c r="D81" s="55"/>
-      <c r="E81" s="56"/>
+      <c r="D81" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E81" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F81" s="20"/>
-      <c r="G81" s="21"/>
+      <c r="G81" s="21">
+        <v>-41.72</v>
+      </c>
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
       <c r="J81" s="22"/>
@@ -17179,14 +17342,22 @@
     </row>
     <row r="82" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="47"/>
-      <c r="B82" s="15"/>
+      <c r="B82" s="15">
+        <v>44760</v>
+      </c>
       <c r="C82" s="60">
         <v>80</v>
       </c>
-      <c r="D82" s="55"/>
-      <c r="E82" s="41"/>
+      <c r="D82" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="E82" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F82" s="20"/>
-      <c r="G82" s="21"/>
+      <c r="G82" s="21">
+        <v>-100.48</v>
+      </c>
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
       <c r="J82" s="22"/>
@@ -17430,14 +17601,22 @@
     </row>
     <row r="83" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="47"/>
-      <c r="B83" s="15"/>
+      <c r="B83" s="15">
+        <v>44774</v>
+      </c>
       <c r="C83" s="60">
         <v>81</v>
       </c>
-      <c r="D83" s="55"/>
-      <c r="E83" s="41"/>
+      <c r="D83" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F83" s="20"/>
-      <c r="G83" s="21"/>
+      <c r="G83" s="21">
+        <v>-12</v>
+      </c>
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
       <c r="J83" s="22"/>
@@ -17681,14 +17860,22 @@
     </row>
     <row r="84" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="47"/>
-      <c r="B84" s="43"/>
+      <c r="B84" s="15">
+        <v>44774</v>
+      </c>
       <c r="C84" s="60">
         <v>82</v>
       </c>
-      <c r="D84" s="55"/>
-      <c r="E84" s="56"/>
+      <c r="D84" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="E84" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="F84" s="20"/>
-      <c r="G84" s="21"/>
+      <c r="G84" s="21">
+        <v>-4.95</v>
+      </c>
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
       <c r="J84" s="22"/>
@@ -17932,14 +18119,22 @@
     </row>
     <row r="85" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="47"/>
-      <c r="B85" s="43"/>
+      <c r="B85" s="15">
+        <v>44775</v>
+      </c>
       <c r="C85" s="60">
         <v>83</v>
       </c>
-      <c r="D85" s="40"/>
-      <c r="E85" s="41"/>
+      <c r="D85" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="E85" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F85" s="17"/>
-      <c r="G85" s="21"/>
+      <c r="G85" s="21">
+        <v>-20</v>
+      </c>
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
       <c r="J85" s="22"/>
@@ -18183,14 +18378,22 @@
     </row>
     <row r="86" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="47"/>
-      <c r="B86" s="43"/>
+      <c r="B86" s="15">
+        <v>44775</v>
+      </c>
       <c r="C86" s="60">
         <v>84</v>
       </c>
-      <c r="D86" s="55"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="21"/>
+      <c r="D86" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86" s="17"/>
+      <c r="G86" s="21">
+        <v>-111</v>
+      </c>
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
       <c r="J86" s="22"/>
@@ -18434,14 +18637,22 @@
     </row>
     <row r="87" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="47"/>
-      <c r="B87" s="15"/>
+      <c r="B87" s="15">
+        <v>44778</v>
+      </c>
       <c r="C87" s="16">
         <v>85</v>
       </c>
-      <c r="D87" s="55"/>
-      <c r="E87" s="56"/>
+      <c r="D87" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="E87" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="F87" s="20"/>
-      <c r="G87" s="21"/>
+      <c r="G87" s="21">
+        <v>-317.49</v>
+      </c>
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
       <c r="J87" s="22"/>
@@ -18685,14 +18896,22 @@
     </row>
     <row r="88" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="47"/>
-      <c r="B88" s="15"/>
+      <c r="B88" s="15">
+        <v>44782</v>
+      </c>
       <c r="C88" s="16">
         <v>86</v>
       </c>
-      <c r="D88" s="55"/>
-      <c r="E88" s="56"/>
+      <c r="D88" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="E88" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="F88" s="20"/>
-      <c r="G88" s="21"/>
+      <c r="G88" s="21">
+        <v>-11.97</v>
+      </c>
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
       <c r="J88" s="22"/>
@@ -39269,7 +39488,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-3128.9399999999991</v>
+        <v>-3973.809999999999</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -41202,887 +41421,907 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
-    <cfRule type="cellIs" dxfId="184" priority="557" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="575" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="183" priority="547" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="565" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="182" priority="509" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="527" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="181" priority="465" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="483" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="180" priority="441" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="459" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="179" priority="439" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="457" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="178" priority="425" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="443" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="177" priority="348" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="366" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
+    <cfRule type="cellIs" dxfId="192" priority="352" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="cellIs" dxfId="191" priority="351" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="190" priority="348" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="cellIs" dxfId="189" priority="347" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="cellIs" dxfId="188" priority="346" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="cellIs" dxfId="187" priority="345" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127">
+    <cfRule type="cellIs" dxfId="186" priority="344" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128:D128">
+    <cfRule type="cellIs" dxfId="185" priority="343" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="184" priority="342" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="cellIs" dxfId="183" priority="341" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="cellIs" dxfId="182" priority="340" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130">
+    <cfRule type="cellIs" dxfId="181" priority="339" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="cellIs" dxfId="180" priority="338" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" dxfId="179" priority="337" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="178" priority="336" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134:C134">
+    <cfRule type="cellIs" dxfId="177" priority="335" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
     <cfRule type="cellIs" dxfId="176" priority="334" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
+  <conditionalFormatting sqref="B135">
     <cfRule type="cellIs" dxfId="175" priority="333" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="174" priority="330" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="173" priority="329" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="172" priority="328" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="171" priority="327" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="170" priority="326" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="169" priority="325" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="168" priority="324" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="167" priority="323" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="166" priority="322" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="165" priority="321" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="164" priority="320" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="163" priority="319" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="162" priority="318" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="161" priority="317" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="160" priority="316" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="159" priority="315" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="158" priority="314" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="332" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="157" priority="313" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="331" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="156" priority="312" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="330" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
+    <cfRule type="cellIs" dxfId="171" priority="328" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E139">
+    <cfRule type="cellIs" dxfId="170" priority="327" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F140">
+    <cfRule type="cellIs" dxfId="169" priority="326" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="cellIs" dxfId="168" priority="325" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141">
+    <cfRule type="cellIs" dxfId="167" priority="324" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="cellIs" dxfId="166" priority="323" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F142">
+    <cfRule type="cellIs" dxfId="165" priority="322" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="cellIs" dxfId="164" priority="321" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F143">
+    <cfRule type="cellIs" dxfId="163" priority="320" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" dxfId="162" priority="319" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145:E145">
+    <cfRule type="cellIs" dxfId="161" priority="316" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146:E146">
+    <cfRule type="cellIs" dxfId="160" priority="315" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:E148">
+    <cfRule type="cellIs" dxfId="159" priority="314" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="cellIs" dxfId="158" priority="313" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="cellIs" dxfId="157" priority="312" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B151">
+    <cfRule type="cellIs" dxfId="156" priority="311" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
     <cfRule type="cellIs" dxfId="155" priority="310" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E139">
+  <conditionalFormatting sqref="E154">
     <cfRule type="cellIs" dxfId="154" priority="309" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F140">
+  <conditionalFormatting sqref="B155:D155">
     <cfRule type="cellIs" dxfId="153" priority="308" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="152" priority="307" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E155">
+    <cfRule type="cellIs" dxfId="152" priority="306" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="151" priority="306" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B156:D156">
+    <cfRule type="cellIs" dxfId="151" priority="305" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="150" priority="305" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E156">
+    <cfRule type="cellIs" dxfId="150" priority="304" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="149" priority="304" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C157:E157">
+    <cfRule type="cellIs" dxfId="149" priority="303" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="148" priority="303" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B157">
+    <cfRule type="cellIs" dxfId="148" priority="302" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="147" priority="302" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B158:D158">
+    <cfRule type="cellIs" dxfId="147" priority="301" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="146" priority="301" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E158">
+    <cfRule type="cellIs" dxfId="146" priority="300" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="145" priority="298" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E159">
+    <cfRule type="cellIs" dxfId="145" priority="299" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C146:E146">
+  <conditionalFormatting sqref="B159">
     <cfRule type="cellIs" dxfId="144" priority="297" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C148:E148">
+  <conditionalFormatting sqref="B160:D160">
     <cfRule type="cellIs" dxfId="143" priority="296" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
+  <conditionalFormatting sqref="E160">
     <cfRule type="cellIs" dxfId="142" priority="295" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
+  <conditionalFormatting sqref="D161:E161">
     <cfRule type="cellIs" dxfId="141" priority="294" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B151">
+  <conditionalFormatting sqref="B161:C161">
     <cfRule type="cellIs" dxfId="140" priority="293" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
+  <conditionalFormatting sqref="B162">
     <cfRule type="cellIs" dxfId="139" priority="292" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E154">
+  <conditionalFormatting sqref="B163">
     <cfRule type="cellIs" dxfId="138" priority="291" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B155:D155">
+  <conditionalFormatting sqref="E163">
     <cfRule type="cellIs" dxfId="137" priority="290" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="136" priority="288" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="135" priority="287" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="134" priority="286" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="133" priority="285" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="132" priority="284" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="131" priority="283" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="130" priority="282" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="129" priority="281" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="128" priority="279" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="127" priority="278" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="126" priority="277" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="125" priority="276" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="124" priority="275" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="123" priority="274" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="122" priority="273" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="121" priority="272" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="120" priority="250" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="268" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="119" priority="241" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="259" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="118" priority="239" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="257" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="117" priority="222" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="240" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="116" priority="220" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="238" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="115" priority="218" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="236" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="114" priority="202" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="127" priority="200" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E5 E7:E19 E21:E25">
+    <cfRule type="cellIs" dxfId="126" priority="195" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="125" priority="169" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="124" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="113" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="112" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="111" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="110" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="109" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="108" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="107" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="106" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="105" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="104" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="103" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="102" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="101" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="100" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="99" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="98" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="97" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="96" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="95" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="94" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="93" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="92" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="91" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="90" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="89" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D114">
+    <cfRule type="cellIs" dxfId="88" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D115">
+    <cfRule type="cellIs" dxfId="87" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="86" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="85" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="84" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="83" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="82" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="81" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" dxfId="80" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D122">
+    <cfRule type="cellIs" dxfId="79" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="78" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="77" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="76" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="75" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="74" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="73" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="72" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="71" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="70" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="69" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="68" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="67" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="66" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="65" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="64" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E28">
+    <cfRule type="cellIs" dxfId="63" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="cellIs" dxfId="62" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="61" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="60" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E32">
+    <cfRule type="cellIs" dxfId="59" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="58" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="57" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="56" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="55" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="54" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="53" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:E41">
+    <cfRule type="cellIs" dxfId="52" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E44">
+    <cfRule type="cellIs" dxfId="51" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E44">
+    <cfRule type="cellIs" dxfId="50" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="49" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="cellIs" dxfId="48" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="47" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:E50">
+    <cfRule type="cellIs" dxfId="46" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:E52">
+    <cfRule type="cellIs" dxfId="45" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="44" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="43" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="42" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="41" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="40" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="cellIs" dxfId="39" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="cellIs" dxfId="38" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="cellIs" dxfId="37" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="cellIs" dxfId="36" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="35" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E62">
+    <cfRule type="cellIs" dxfId="34" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="33" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="32" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="31" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="30" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E71">
+    <cfRule type="cellIs" dxfId="29" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="28" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="27" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="26" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="25" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="24" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F78">
+    <cfRule type="cellIs" dxfId="16" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79">
+    <cfRule type="cellIs" dxfId="15" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78:E79">
+    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78:E79">
+    <cfRule type="cellIs" dxfId="13" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="12" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82">
+    <cfRule type="cellIs" dxfId="10" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="113" priority="197" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="112" priority="196" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="111" priority="182" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F86">
+    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E5 E7:E19 E21:E25">
-    <cfRule type="cellIs" dxfId="110" priority="177" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E85:E86">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="109" priority="151" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E85:E86">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="107" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="104" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="103" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="102" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="101" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="100" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="99" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="98" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="97" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="96" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="95" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="94" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="93" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="92" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="91" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="90" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="89" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="88" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="87" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="86" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="85" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="84" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="83" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="82" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="81" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="80" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="79" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="78" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="77" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="76" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="75" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="74" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="73" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="72" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="71" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="70" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="69" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D114">
-    <cfRule type="cellIs" dxfId="68" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="67" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="66" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="65" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="64" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="63" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="62" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="61" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="60" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D122">
-    <cfRule type="cellIs" dxfId="59" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="58" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="57" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="56" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="55" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="54" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="53" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="52" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="51" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="50" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="49" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="48" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="47" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="46" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="45" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="44" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E28">
-    <cfRule type="cellIs" dxfId="43" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="42" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="41" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="40" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E32">
-    <cfRule type="cellIs" dxfId="39" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="38" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="37" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="36" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="35" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="34" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="33" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39:E41">
-    <cfRule type="cellIs" dxfId="32" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="31" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="29" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47">
-    <cfRule type="cellIs" dxfId="28" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="27" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
-    <cfRule type="cellIs" dxfId="26" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51:E52">
-    <cfRule type="cellIs" dxfId="25" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="24" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="23" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="22" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="21" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="20" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="19" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="18" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="17" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="16" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E62">
-    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67:E71">
-    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
+  <conditionalFormatting sqref="E87:E88">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E93 E116 E95:E102 E107:E114 E132:E138 E144:E169 E125:E130 E8 E3:E5 E10:E29 E31:E33 E35:E89" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E93 E116 E95:E102 E107:E114 E132:E138 E144:E169 E125:E130 E8 E3:E5 E10:E29 E31:E33 E35:E79 E81:E89" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E139:E143" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -42091,7 +42330,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E104:E106 E115 E119:E120 E122 E6:E7 E91:E92" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E103 E117:E118 E121 E123:E124 E9 E30 E34 E94 E90" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E103 E117:E118 E121 E123:E124 E9 E30 E34 E94 E90 E80" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2022.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753BE7B6-648E-4E34-A3AD-3AA99E7A7BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F941EE-CA0B-4844-89D5-8A81DA2546DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="124">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -400,6 +400,21 @@
   </si>
   <si>
     <t>Kaffee+milch</t>
+  </si>
+  <si>
+    <t>Helfer Sommerfest</t>
+  </si>
+  <si>
+    <t>TzgL 16.8.</t>
+  </si>
+  <si>
+    <t>Ausgaben Roland</t>
+  </si>
+  <si>
+    <t>TzgL 30.8.</t>
+  </si>
+  <si>
+    <t>TzgL 13.9.</t>
   </si>
 </sst>
 </file>
@@ -1097,22 +1112,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="328">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="327">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1283,6 +1283,16 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -5247,17 +5257,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="20">
+    <format dxfId="17">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5350,17 +5360,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="23">
+    <format dxfId="20">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6486,9 +6496,9 @@
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7170,14 +7180,22 @@
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
+      <c r="A28" s="15">
+        <v>44790</v>
+      </c>
       <c r="B28" s="16">
         <v>25</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
+      <c r="C28" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21">
+        <v>100</v>
+      </c>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="19"/>
@@ -7185,14 +7203,22 @@
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
+      <c r="A29" s="43">
+        <v>44804</v>
+      </c>
       <c r="B29" s="16">
         <v>26</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
+      <c r="C29" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21">
+        <v>120</v>
+      </c>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
       <c r="I29" s="19"/>
@@ -7200,14 +7226,22 @@
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
+      <c r="A30" s="43">
+        <v>44818</v>
+      </c>
       <c r="B30" s="16">
         <v>27</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
+      <c r="C30" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21">
+        <v>90</v>
+      </c>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
       <c r="I30" s="19"/>
@@ -8329,7 +8363,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>10007.010000000002</v>
+        <v>10317.010000000002</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -8368,11 +8402,11 @@
       <c r="D107" s="52"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>273.79999999999995</v>
+        <v>221.70999999999998</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>6033.2000000000025</v>
+        <v>6049.1200000000026</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -8410,7 +8444,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>9697.7700000000041</v>
+        <v>9661.6000000000022</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -9210,68 +9244,48 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 F30:G31 F34:G34 F37:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F19:G19 G28:G29 G4:G10 F24:G24 H28:I104 I27 G32:G33 G35:G36 F13:G14 H4:I26 G12 F16:G16 G15 G17:G18 G20:G23 F26:G26 G25">
-    <cfRule type="cellIs" dxfId="327" priority="249" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="326" priority="247" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 F31:G31 F34:G34 F37:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F19:G19 G4:G10 F24:G24 H28:I104 I27 G32:G33 G35:G36 F13:G14 H4:I26 G12 F16:G16 G15 G17:G18 G20:G23 F26:G26 G25 G28:G30">
+    <cfRule type="cellIs" dxfId="326" priority="249" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="325" priority="241" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="324" priority="241" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="324" priority="218" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="323" priority="218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="323" priority="220" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="220" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="322" priority="216" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="216" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="321" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="190" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="320" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="185" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="319" priority="170" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
     <cfRule type="cellIs" dxfId="317" priority="167" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="316" priority="165" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="315" priority="164" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="314" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9660,16 +9674,6 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="236" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="235" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D6">
     <cfRule type="cellIs" dxfId="234" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
@@ -9706,137 +9710,132 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="225" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="224" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="223" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="222" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="221" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="220" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="219" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="218" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="217" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="216" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="215" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="214" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="213" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="212" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="211" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="210" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="209" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="cellIs" dxfId="208" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D15">
-    <cfRule type="cellIs" dxfId="207" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="206" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D18">
-    <cfRule type="cellIs" dxfId="205" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="204" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D21">
-    <cfRule type="cellIs" dxfId="203" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="202" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" dxfId="201" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D27:D30">
+    <cfRule type="cellIs" dxfId="201" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9873,9 +9872,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G89" sqref="G89"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -19155,13 +19154,21 @@
     </row>
     <row r="89" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="47"/>
-      <c r="B89" s="15"/>
+      <c r="B89" s="15">
+        <v>44783</v>
+      </c>
       <c r="C89" s="16">
         <v>87</v>
       </c>
-      <c r="D89" s="55"/>
-      <c r="E89" s="56"/>
-      <c r="F89" s="20"/>
+      <c r="D89" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="E89" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="20">
+        <v>-22.09</v>
+      </c>
       <c r="G89" s="21"/>
       <c r="H89" s="21"/>
       <c r="I89" s="21"/>
@@ -19406,14 +19413,22 @@
     </row>
     <row r="90" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="47"/>
-      <c r="B90" s="15"/>
+      <c r="B90" s="15">
+        <v>44789</v>
+      </c>
       <c r="C90" s="61">
         <v>88</v>
       </c>
-      <c r="D90" s="55"/>
-      <c r="E90" s="41"/>
+      <c r="D90" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E90" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F90" s="20"/>
-      <c r="G90" s="21"/>
+      <c r="G90" s="21">
+        <v>-41.72</v>
+      </c>
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
       <c r="J90" s="22"/>
@@ -19657,14 +19672,22 @@
     </row>
     <row r="91" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="47"/>
-      <c r="B91" s="15"/>
+      <c r="B91" s="15">
+        <v>44791</v>
+      </c>
       <c r="C91" s="60">
         <v>89</v>
       </c>
-      <c r="D91" s="55"/>
-      <c r="E91" s="41"/>
+      <c r="D91" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="E91" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="F91" s="20"/>
-      <c r="G91" s="21"/>
+      <c r="G91" s="21">
+        <v>-15.63</v>
+      </c>
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
       <c r="J91" s="22"/>
@@ -19908,14 +19931,22 @@
     </row>
     <row r="92" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="47"/>
-      <c r="B92" s="15"/>
+      <c r="B92" s="15">
+        <v>44792</v>
+      </c>
       <c r="C92" s="60">
         <v>90</v>
       </c>
-      <c r="D92" s="55"/>
-      <c r="E92" s="41"/>
+      <c r="D92" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="E92" s="56" t="s">
+        <v>23</v>
+      </c>
       <c r="F92" s="20"/>
-      <c r="G92" s="21"/>
+      <c r="G92" s="21">
+        <v>-26.78</v>
+      </c>
       <c r="H92" s="21"/>
       <c r="I92" s="21"/>
       <c r="J92" s="22"/>
@@ -20159,14 +20190,22 @@
     </row>
     <row r="93" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="47"/>
-      <c r="B93" s="15"/>
+      <c r="B93" s="15">
+        <v>44799</v>
+      </c>
       <c r="C93" s="60">
         <v>91</v>
       </c>
-      <c r="D93" s="55"/>
-      <c r="E93" s="41"/>
+      <c r="D93" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="E93" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="F93" s="20"/>
-      <c r="G93" s="21"/>
+      <c r="G93" s="21">
+        <v>-25.23</v>
+      </c>
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
       <c r="J93" s="22"/>
@@ -20410,14 +20449,22 @@
     </row>
     <row r="94" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="47"/>
-      <c r="B94" s="15"/>
+      <c r="B94" s="15">
+        <v>44805</v>
+      </c>
       <c r="C94" s="60">
         <v>92</v>
       </c>
-      <c r="D94" s="55"/>
-      <c r="E94" s="23"/>
+      <c r="D94" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F94" s="20"/>
-      <c r="G94" s="21"/>
+      <c r="G94" s="21">
+        <v>-12</v>
+      </c>
       <c r="H94" s="21"/>
       <c r="I94" s="21"/>
       <c r="J94" s="22"/>
@@ -20661,14 +20708,22 @@
     </row>
     <row r="95" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="47"/>
-      <c r="B95" s="15"/>
+      <c r="B95" s="15">
+        <v>44806</v>
+      </c>
       <c r="C95" s="60">
         <v>93</v>
       </c>
-      <c r="D95" s="55"/>
-      <c r="E95" s="41"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="21"/>
+      <c r="D95" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="E95" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F95" s="17"/>
+      <c r="G95" s="21">
+        <v>-111</v>
+      </c>
       <c r="H95" s="21"/>
       <c r="I95" s="21"/>
       <c r="J95" s="22"/>
@@ -20912,14 +20967,22 @@
     </row>
     <row r="96" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="47"/>
-      <c r="B96" s="15"/>
+      <c r="B96" s="15">
+        <v>44806</v>
+      </c>
       <c r="C96" s="60">
         <v>94</v>
       </c>
-      <c r="D96" s="55"/>
-      <c r="E96" s="41"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="21"/>
+      <c r="D96" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="E96" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96" s="17"/>
+      <c r="G96" s="21">
+        <v>-20</v>
+      </c>
       <c r="H96" s="21"/>
       <c r="I96" s="21"/>
       <c r="J96" s="22"/>
@@ -21163,14 +21226,22 @@
     </row>
     <row r="97" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="47"/>
-      <c r="B97" s="15"/>
+      <c r="B97" s="15">
+        <v>44820</v>
+      </c>
       <c r="C97" s="60">
         <v>95</v>
       </c>
-      <c r="D97" s="55"/>
-      <c r="E97" s="41"/>
+      <c r="D97" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E97" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F97" s="20"/>
-      <c r="G97" s="21"/>
+      <c r="G97" s="21">
+        <v>-41.72</v>
+      </c>
       <c r="H97" s="21"/>
       <c r="I97" s="21"/>
       <c r="J97" s="22"/>
@@ -21414,13 +21485,21 @@
     </row>
     <row r="98" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="47"/>
-      <c r="B98" s="15"/>
+      <c r="B98" s="15">
+        <v>44821</v>
+      </c>
       <c r="C98" s="60">
         <v>96</v>
       </c>
-      <c r="D98" s="55"/>
-      <c r="E98" s="41"/>
-      <c r="F98" s="20"/>
+      <c r="D98" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="E98" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F98" s="20">
+        <v>-30</v>
+      </c>
       <c r="G98" s="21"/>
       <c r="H98" s="21"/>
       <c r="I98" s="21"/>
@@ -21670,7 +21749,7 @@
         <v>97</v>
       </c>
       <c r="D99" s="55"/>
-      <c r="E99" s="41"/>
+      <c r="E99" s="56"/>
       <c r="F99" s="20"/>
       <c r="G99" s="21"/>
       <c r="H99" s="21"/>
@@ -39484,11 +39563,11 @@
       <c r="E170" s="32"/>
       <c r="F170" s="33">
         <f>SUM(F3:F169)</f>
-        <v>-240</v>
+        <v>-292.08999999999997</v>
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-3973.809999999999</v>
+        <v>-4267.8899999999994</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -41421,916 +41500,936 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
-    <cfRule type="cellIs" dxfId="200" priority="575" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="592" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="199" priority="565" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="582" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="198" priority="527" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="544" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="197" priority="483" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="500" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="196" priority="459" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="476" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="195" priority="457" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="474" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="194" priority="443" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="460" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="193" priority="366" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="383" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="192" priority="352" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="369" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="191" priority="351" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="368" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="190" priority="348" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="365" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="189" priority="347" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="364" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="188" priority="346" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="363" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="187" priority="345" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="362" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="186" priority="344" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="361" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="185" priority="343" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="360" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="184" priority="342" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="359" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="183" priority="341" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="358" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="182" priority="340" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="357" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="181" priority="339" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="356" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="180" priority="338" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="355" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="179" priority="337" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="354" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="178" priority="336" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="353" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="177" priority="335" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="352" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="176" priority="334" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="351" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="175" priority="333" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="350" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="174" priority="332" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="349" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="173" priority="331" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="348" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="172" priority="330" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="347" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="171" priority="328" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="345" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="170" priority="327" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="344" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="169" priority="326" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="343" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="168" priority="325" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="342" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="167" priority="324" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="341" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="166" priority="323" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="340" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="165" priority="322" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="339" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="164" priority="321" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="338" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="163" priority="320" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="337" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="162" priority="319" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="336" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="161" priority="316" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="333" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="160" priority="315" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="332" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="159" priority="314" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="331" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="158" priority="313" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="330" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="157" priority="312" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="329" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="156" priority="311" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="328" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="155" priority="310" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="327" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="154" priority="309" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="326" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="153" priority="308" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="325" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="152" priority="306" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="323" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="151" priority="305" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="322" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="150" priority="304" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="321" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="149" priority="303" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="320" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="148" priority="302" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="319" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="147" priority="301" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="318" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="146" priority="300" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="317" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="145" priority="299" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="316" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="144" priority="297" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="314" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="143" priority="296" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="313" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="142" priority="295" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="312" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="141" priority="294" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="311" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="140" priority="293" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="310" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="139" priority="292" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="309" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="138" priority="291" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="308" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="137" priority="290" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="307" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="136" priority="268" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="285" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="135" priority="259" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="276" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="134" priority="257" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="274" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="133" priority="240" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="257" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="132" priority="238" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="255" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="131" priority="236" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="253" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="127" priority="200" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="217" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E7:E19 E21:E25">
-    <cfRule type="cellIs" dxfId="126" priority="195" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="212" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="125" priority="169" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="186" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="124" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="117" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="116" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="115" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="114" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="113" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="112" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="111" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="110" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="109" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="108" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="107" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="106" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="105" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="104" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D114">
+    <cfRule type="cellIs" dxfId="103" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D115">
+    <cfRule type="cellIs" dxfId="102" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="101" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="100" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="99" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="98" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="97" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="96" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" dxfId="95" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D122">
+    <cfRule type="cellIs" dxfId="94" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="93" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="92" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="91" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="90" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="89" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="88" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="87" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="86" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="85" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="84" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="83" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="82" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="81" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="80" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="79" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E28">
+    <cfRule type="cellIs" dxfId="78" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="cellIs" dxfId="77" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="76" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="75" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E32">
+    <cfRule type="cellIs" dxfId="74" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="73" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="72" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="71" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="70" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="69" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="68" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:E41">
+    <cfRule type="cellIs" dxfId="67" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E44">
+    <cfRule type="cellIs" dxfId="66" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E44">
+    <cfRule type="cellIs" dxfId="65" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="64" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="cellIs" dxfId="63" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="62" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:E50">
+    <cfRule type="cellIs" dxfId="61" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:E52">
+    <cfRule type="cellIs" dxfId="60" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="59" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="58" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="57" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="56" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="55" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="cellIs" dxfId="54" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="cellIs" dxfId="53" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="cellIs" dxfId="52" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="cellIs" dxfId="51" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="50" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E62">
+    <cfRule type="cellIs" dxfId="49" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="48" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="47" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="46" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="45" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E71">
+    <cfRule type="cellIs" dxfId="44" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="43" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="42" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="41" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="40" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="39" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="38" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F78">
+    <cfRule type="cellIs" dxfId="37" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79">
+    <cfRule type="cellIs" dxfId="36" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78:E79">
+    <cfRule type="cellIs" dxfId="35" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78:E79">
+    <cfRule type="cellIs" dxfId="34" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="33" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="32" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82">
+    <cfRule type="cellIs" dxfId="31" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="29" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="28" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85">
+    <cfRule type="cellIs" dxfId="27" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86">
+    <cfRule type="cellIs" dxfId="26" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85:E86">
+    <cfRule type="cellIs" dxfId="25" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85:E86">
+    <cfRule type="cellIs" dxfId="24" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87:E88">
+    <cfRule type="cellIs" dxfId="23" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="113" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="112" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="111" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="110" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="109" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="108" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="107" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F96">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="106" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="105" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="104" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="103" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="102" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="101" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="100" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="99" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="98" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="97" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="96" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="95" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="94" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="93" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="92" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="91" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="90" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="89" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D114">
-    <cfRule type="cellIs" dxfId="88" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="87" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="86" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="85" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="84" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="83" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="82" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="81" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="80" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D122">
-    <cfRule type="cellIs" dxfId="79" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="78" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="77" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="76" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="75" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="74" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="73" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="72" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="71" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="70" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="69" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="68" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="67" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="66" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="65" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="64" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E28">
-    <cfRule type="cellIs" dxfId="63" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="62" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="61" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="60" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E32">
-    <cfRule type="cellIs" dxfId="59" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="58" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="57" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="56" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="55" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="54" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="53" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39:E41">
-    <cfRule type="cellIs" dxfId="52" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="51" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="50" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="49" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47">
-    <cfRule type="cellIs" dxfId="48" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="47" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
-    <cfRule type="cellIs" dxfId="46" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51:E52">
-    <cfRule type="cellIs" dxfId="45" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="44" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="43" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="42" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="41" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="40" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="39" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="38" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="37" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="36" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="35" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E62">
-    <cfRule type="cellIs" dxfId="34" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="33" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="32" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="31" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="30" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67:E71">
-    <cfRule type="cellIs" dxfId="29" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="28" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="27" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="26" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="25" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="24" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F78">
-    <cfRule type="cellIs" dxfId="16" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F79">
-    <cfRule type="cellIs" dxfId="15" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78:E79">
-    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78:E79">
-    <cfRule type="cellIs" dxfId="13" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="12" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
-    <cfRule type="cellIs" dxfId="10" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F86">
-    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87:E88">
+  <conditionalFormatting sqref="E98:E99">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E93 E116 E95:E102 E107:E114 E132:E138 E144:E169 E125:E130 E8 E3:E5 E10:E29 E31:E33 E35:E79 E81:E89" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E116 E107:E114 E132:E138 E144:E169 E125:E130 E8 E3:E5 E10:E29 E31:E33 E35:E79 E81:E102" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E139:E143" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E104:E106 E115 E119:E120 E122 E6:E7 E91:E92" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E104:E106 E115 E119:E120 E122 E6:E7" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E103 E117:E118 E121 E123:E124 E9 E30 E34 E94 E90 E80" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E103 E117:E118 E121 E123:E124 E9 E30 E34 E80" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2022.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F941EE-CA0B-4844-89D5-8A81DA2546DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2793EBC6-EA8E-49C8-8572-305D7761F167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="125">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t>TzgL 13.9.</t>
+  </si>
+  <si>
+    <t>Sommerfest Einnahmen</t>
   </si>
 </sst>
 </file>
@@ -1112,82 +1115,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="327">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="308">
     <dxf>
       <border>
         <left style="thin">
@@ -1283,26 +1211,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -5257,17 +5165,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="17">
+    <format dxfId="2">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5360,17 +5268,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="20">
+    <format dxfId="5">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6496,9 +6404,9 @@
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7249,13 +7157,21 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
+      <c r="A31" s="43">
+        <v>44821</v>
+      </c>
       <c r="B31" s="16">
         <v>28</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="17"/>
+      <c r="C31" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="17">
+        <v>586.79999999999995</v>
+      </c>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
@@ -7264,14 +7180,22 @@
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
+      <c r="A32" s="43">
+        <v>44822</v>
+      </c>
       <c r="B32" s="16">
         <v>29</v>
       </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="19"/>
+      <c r="C32" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>28</v>
+      </c>
       <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
+      <c r="F32" s="18">
+        <v>785</v>
+      </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="19"/>
@@ -8359,11 +8283,11 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>513.79999999999995</v>
+        <v>1100.5999999999999</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>10317.010000000002</v>
+        <v>11102.010000000002</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -8402,11 +8326,11 @@
       <c r="D107" s="52"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>221.70999999999998</v>
+        <v>23.509999999999991</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>6049.1200000000026</v>
+        <v>6834.1200000000026</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -8444,7 +8368,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>9661.6000000000022</v>
+        <v>10248.400000000003</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -9245,597 +9169,587 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 F31:G31 F34:G34 F37:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F19:G19 G4:G10 F24:G24 H28:I104 I27 G32:G33 G35:G36 F13:G14 H4:I26 G12 F16:G16 G15 G17:G18 G20:G23 F26:G26 G25 G28:G30">
-    <cfRule type="cellIs" dxfId="326" priority="249" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="249" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="324" priority="241" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="241" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="323" priority="218" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="322" priority="220" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="220" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="321" priority="216" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="216" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="320" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="190" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="319" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="185" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="318" priority="170" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="317" priority="167" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="167" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="313" priority="162" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="312" priority="159" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="159" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="311" priority="157" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="157" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="310" priority="153" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="153" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="309" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="308" priority="149" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="149" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="307" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="148" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="306" priority="147" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="147" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="305" priority="146" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="146" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="304" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="145" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="303" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="302" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="301" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="300" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="299" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="138" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="298" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="297" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="296" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="295" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="294" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="293" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="292" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="291" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="290" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="289" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="288" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="287" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="286" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="285" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="284" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="283" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="282" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="281" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="280" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="279" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="278" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="277" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="276" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="275" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="274" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="273" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="272" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="271" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="270" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="269" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="268" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="267" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="266" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="265" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="264" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="263" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="262" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="261" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="260" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="259" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="258" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="257" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="256" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="255" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="254" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="253" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="252" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="251" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="250" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="249" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="248" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="247" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="246" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="245" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="244" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="243" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="242" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="241" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="240" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="239" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="238" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="237" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="234" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="233" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="232" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="231" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="230" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="229" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="cellIs" dxfId="228" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="227" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="226" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="225" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="224" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="223" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="222" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="221" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="220" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="219" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="218" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="217" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="216" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="215" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="214" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="212" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="211" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="cellIs" dxfId="210" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D15">
-    <cfRule type="cellIs" dxfId="209" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="208" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D18">
-    <cfRule type="cellIs" dxfId="207" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="206" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D21">
-    <cfRule type="cellIs" dxfId="205" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="204" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" dxfId="203" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="202" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D30">
-    <cfRule type="cellIs" dxfId="201" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D27:D32">
+    <cfRule type="cellIs" dxfId="190" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9872,9 +9786,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -21744,13 +21658,21 @@
     </row>
     <row r="99" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="47"/>
-      <c r="B99" s="15"/>
+      <c r="B99" s="15">
+        <v>44822</v>
+      </c>
       <c r="C99" s="60">
         <v>97</v>
       </c>
-      <c r="D99" s="55"/>
-      <c r="E99" s="56"/>
-      <c r="F99" s="20"/>
+      <c r="D99" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E99" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="F99" s="20">
+        <v>-785</v>
+      </c>
       <c r="G99" s="21"/>
       <c r="H99" s="21"/>
       <c r="I99" s="21"/>
@@ -39563,7 +39485,7 @@
       <c r="E170" s="32"/>
       <c r="F170" s="33">
         <f>SUM(F3:F169)</f>
-        <v>-292.08999999999997</v>
+        <v>-1077.0899999999999</v>
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
@@ -41500,922 +41422,922 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
-    <cfRule type="cellIs" dxfId="200" priority="592" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="592" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="199" priority="582" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="582" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="198" priority="544" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="544" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="197" priority="500" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="500" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="196" priority="476" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="476" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="195" priority="474" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="474" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="194" priority="460" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="460" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="193" priority="383" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="383" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="192" priority="369" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="369" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="191" priority="368" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="368" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="190" priority="365" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="365" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="189" priority="364" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="364" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="188" priority="363" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="363" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="187" priority="362" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="362" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="186" priority="361" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="361" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="185" priority="360" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="360" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="184" priority="359" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="359" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="183" priority="358" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="358" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="182" priority="357" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="357" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="181" priority="356" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="356" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="180" priority="355" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="355" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="179" priority="354" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="354" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="178" priority="353" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="353" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="177" priority="352" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="352" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="176" priority="351" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="351" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="175" priority="350" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="350" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="174" priority="349" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="349" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="173" priority="348" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="348" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="172" priority="347" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="347" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="171" priority="345" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="345" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="170" priority="344" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="344" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="169" priority="343" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="343" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="168" priority="342" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="342" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="167" priority="341" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="341" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="166" priority="340" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="340" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="165" priority="339" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="339" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="164" priority="338" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="338" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="163" priority="337" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="337" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="162" priority="336" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="336" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="161" priority="333" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="333" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="160" priority="332" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="332" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="159" priority="331" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="331" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="158" priority="330" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="330" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="157" priority="329" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="329" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="156" priority="328" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="328" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="155" priority="327" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="327" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="154" priority="326" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="326" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="153" priority="325" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="325" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="152" priority="323" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="323" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="151" priority="322" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="322" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="150" priority="321" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="321" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="149" priority="320" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="320" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="148" priority="319" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="319" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="147" priority="318" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="318" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="146" priority="317" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="317" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="145" priority="316" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="316" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="144" priority="314" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="314" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="143" priority="313" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="313" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="142" priority="312" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="312" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="141" priority="311" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="311" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="140" priority="310" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="310" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="139" priority="309" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="309" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="138" priority="308" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="308" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="137" priority="307" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="307" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="136" priority="285" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="285" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="135" priority="276" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="276" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="134" priority="274" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="274" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="133" priority="257" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="257" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="132" priority="255" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="255" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="131" priority="253" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="253" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="130" priority="217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="217" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E7:E19 E21:E25">
-    <cfRule type="cellIs" dxfId="129" priority="212" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="212" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="128" priority="186" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="186" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="127" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="117" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="116" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="115" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="114" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="113" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="112" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="111" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="110" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="109" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="108" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="107" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="106" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="105" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="104" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D114">
-    <cfRule type="cellIs" dxfId="103" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="102" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="101" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="100" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="99" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="98" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="97" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="96" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="95" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D122">
-    <cfRule type="cellIs" dxfId="94" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="93" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="92" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="91" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="90" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="89" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="88" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="87" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="86" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="85" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="84" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="83" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="82" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="81" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="80" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="79" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E28">
-    <cfRule type="cellIs" dxfId="78" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="77" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="76" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="75" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:E32">
-    <cfRule type="cellIs" dxfId="74" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="73" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="72" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="71" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="70" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="69" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="68" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:E41">
-    <cfRule type="cellIs" dxfId="67" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="66" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="65" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="64" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:E47">
-    <cfRule type="cellIs" dxfId="63" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="62" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:E50">
-    <cfRule type="cellIs" dxfId="61" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:E52">
-    <cfRule type="cellIs" dxfId="60" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="59" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="58" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="57" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="56" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="55" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="54" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="53" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="52" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="51" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="50" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60:E62">
-    <cfRule type="cellIs" dxfId="49" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="48" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="47" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="46" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="45" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67:E71">
-    <cfRule type="cellIs" dxfId="44" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="43" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="42" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="41" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="40" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="39" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="38" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78">
-    <cfRule type="cellIs" dxfId="37" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79">
-    <cfRule type="cellIs" dxfId="36" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78:E79">
-    <cfRule type="cellIs" dxfId="35" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78:E79">
-    <cfRule type="cellIs" dxfId="34" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="33" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="32" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81:E82">
-    <cfRule type="cellIs" dxfId="31" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="29" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="28" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="27" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86">
-    <cfRule type="cellIs" dxfId="26" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="25" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="24" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87:E88">
-    <cfRule type="cellIs" dxfId="23" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="22" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95">
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98:E99">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AWO_Einnahmen_Ausgaben_2022.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2793EBC6-EA8E-49C8-8572-305D7761F167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989C3B04-DD4D-4265-8EEE-4A5AD14F3794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="136">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -418,6 +418,39 @@
   </si>
   <si>
     <t>Sommerfest Einnahmen</t>
+  </si>
+  <si>
+    <t>Sommerfest</t>
+  </si>
+  <si>
+    <t>Blumen H.Thoben</t>
+  </si>
+  <si>
+    <t>SPD Getränke</t>
+  </si>
+  <si>
+    <t>Ausgaben W.Schwarz</t>
+  </si>
+  <si>
+    <t>SPD Miete</t>
+  </si>
+  <si>
+    <t>Awo Zeitung</t>
+  </si>
+  <si>
+    <t>TzgL 27.9.</t>
+  </si>
+  <si>
+    <t>TzgL 11.10.</t>
+  </si>
+  <si>
+    <t>Spende H.Epple</t>
+  </si>
+  <si>
+    <t>Stempelfarbe</t>
+  </si>
+  <si>
+    <t>Kappel Sommerfest</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1148,92 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="308">
+  <dxfs count="324">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1211,11 +1329,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -5165,17 +5278,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="2">
+    <format dxfId="19">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5268,17 +5381,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="5">
+    <format dxfId="22">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6405,8 +6518,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7203,14 +7316,22 @@
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
+      <c r="A33" s="15">
+        <v>44824</v>
+      </c>
       <c r="B33" s="16">
         <v>30</v>
       </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="19"/>
+      <c r="C33" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>0</v>
+      </c>
       <c r="E33" s="17"/>
-      <c r="F33" s="18"/>
+      <c r="F33" s="18">
+        <v>11.5</v>
+      </c>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
       <c r="I33" s="19"/>
@@ -7218,14 +7339,22 @@
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
+      <c r="A34" s="15">
+        <v>44830</v>
+      </c>
       <c r="B34" s="16">
         <v>31</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="19"/>
+      <c r="C34" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>0</v>
+      </c>
       <c r="E34" s="17"/>
-      <c r="F34" s="18"/>
+      <c r="F34" s="18">
+        <v>15</v>
+      </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="19"/>
@@ -7233,14 +7362,22 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
+      <c r="A35" s="15">
+        <v>44834</v>
+      </c>
       <c r="B35" s="16">
         <v>32</v>
       </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="18"/>
+      <c r="C35" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="21">
+        <v>80</v>
+      </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
       <c r="I35" s="19"/>
@@ -7248,14 +7385,22 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
+      <c r="A36" s="15">
+        <v>44847</v>
+      </c>
       <c r="B36" s="16">
         <v>33</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="18"/>
+      <c r="C36" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21">
+        <v>120</v>
+      </c>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
       <c r="I36" s="19"/>
@@ -7263,14 +7408,22 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
+      <c r="A37" s="15">
+        <v>44847</v>
+      </c>
       <c r="B37" s="16">
         <v>34</v>
       </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="41"/>
+      <c r="C37" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>13</v>
+      </c>
       <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
+      <c r="F37" s="18">
+        <v>300</v>
+      </c>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
       <c r="I37" s="19"/>
@@ -8287,7 +8440,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>11102.010000000002</v>
+        <v>11628.510000000002</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -8330,7 +8483,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>6834.1200000000026</v>
+        <v>6225.4500000000025</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -8368,7 +8521,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>10248.400000000003</v>
+        <v>9639.7300000000032</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -9169,587 +9322,547 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 F31:G31 F34:G34 F37:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F19:G19 G4:G10 F24:G24 H28:I104 I27 G32:G33 G35:G36 F13:G14 H4:I26 G12 F16:G16 G15 G17:G18 G20:G23 F26:G26 G25 G28:G30">
-    <cfRule type="cellIs" dxfId="307" priority="249" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="306" priority="241" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="323" priority="249" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="305" priority="218" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="304" priority="220" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="220" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="303" priority="216" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="216" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="302" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="190" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="301" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="185" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="300" priority="170" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="299" priority="167" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="167" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="298" priority="162" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="297" priority="159" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="296" priority="157" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="159" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="295" priority="153" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="153" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="294" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="293" priority="149" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="149" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="292" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="148" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="291" priority="147" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="147" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="290" priority="146" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="146" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="289" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="145" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="288" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="287" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="286" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="285" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="284" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="138" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="283" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="282" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="281" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="280" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="279" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="278" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="277" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="276" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="275" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="274" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="273" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="272" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="271" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="270" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="269" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="268" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="267" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="266" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="265" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="264" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="263" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="262" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="261" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="260" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="259" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="258" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="257" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="256" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="255" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="254" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="253" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="252" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="251" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="250" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="249" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="248" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="247" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="246" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="245" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="244" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="243" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="242" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="241" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="240" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="239" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="238" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="237" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="236" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="235" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="234" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="233" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="232" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="231" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="230" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="229" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="228" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="227" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="226" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="225" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="224" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="223" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="222" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="221" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="220" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="219" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="218" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="217" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="216" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="cellIs" dxfId="215" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="214" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="213" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="211" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="210" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="209" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="208" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="207" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" dxfId="206" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="205" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="204" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="203" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="202" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="201" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="200" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="cellIs" dxfId="199" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D15">
-    <cfRule type="cellIs" dxfId="198" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="197" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D18">
-    <cfRule type="cellIs" dxfId="196" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="195" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D21">
-    <cfRule type="cellIs" dxfId="194" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="193" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" dxfId="192" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="191" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D32">
-    <cfRule type="cellIs" dxfId="190" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D27:D36">
+    <cfRule type="cellIs" dxfId="207" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9787,8 +9900,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
+      <pane ySplit="2" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -21917,14 +22030,22 @@
     </row>
     <row r="100" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="47"/>
-      <c r="B100" s="15"/>
+      <c r="B100" s="15">
+        <v>44824</v>
+      </c>
       <c r="C100" s="60">
         <v>98</v>
       </c>
-      <c r="D100" s="55"/>
-      <c r="E100" s="41"/>
+      <c r="D100" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="E100" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="F100" s="20"/>
-      <c r="G100" s="21"/>
+      <c r="G100" s="21">
+        <v>-400.02</v>
+      </c>
       <c r="H100" s="21"/>
       <c r="I100" s="21"/>
       <c r="J100" s="22"/>
@@ -22168,14 +22289,22 @@
     </row>
     <row r="101" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="47"/>
-      <c r="B101" s="15"/>
+      <c r="B101" s="15">
+        <v>44824</v>
+      </c>
       <c r="C101" s="60">
         <v>99</v>
       </c>
-      <c r="D101" s="55"/>
-      <c r="E101" s="41"/>
+      <c r="D101" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="E101" s="56" t="s">
+        <v>23</v>
+      </c>
       <c r="F101" s="20"/>
-      <c r="G101" s="21"/>
+      <c r="G101" s="21">
+        <v>-5</v>
+      </c>
       <c r="H101" s="21"/>
       <c r="I101" s="21"/>
       <c r="J101" s="22"/>
@@ -22419,14 +22548,22 @@
     </row>
     <row r="102" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="47"/>
-      <c r="B102" s="15"/>
+      <c r="B102" s="15">
+        <v>44830</v>
+      </c>
       <c r="C102" s="60">
         <v>100</v>
       </c>
-      <c r="D102" s="55"/>
-      <c r="E102" s="41"/>
+      <c r="D102" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="E102" s="41" t="s">
+        <v>15</v>
+      </c>
       <c r="F102" s="20"/>
-      <c r="G102" s="21"/>
+      <c r="G102" s="21">
+        <v>-15.73</v>
+      </c>
       <c r="H102" s="21"/>
       <c r="I102" s="21"/>
       <c r="J102" s="22"/>
@@ -22670,14 +22807,22 @@
     </row>
     <row r="103" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="47"/>
-      <c r="B103" s="15"/>
+      <c r="B103" s="15">
+        <v>44831</v>
+      </c>
       <c r="C103" s="60">
         <v>101</v>
       </c>
-      <c r="D103" s="55"/>
-      <c r="E103" s="41"/>
+      <c r="D103" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="E103" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F103" s="20"/>
-      <c r="G103" s="21"/>
+      <c r="G103" s="21">
+        <v>-108</v>
+      </c>
       <c r="H103" s="21"/>
       <c r="I103" s="21"/>
       <c r="J103" s="22"/>
@@ -22921,14 +23066,22 @@
     </row>
     <row r="104" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="47"/>
-      <c r="B104" s="15"/>
+      <c r="B104" s="15">
+        <v>44834</v>
+      </c>
       <c r="C104" s="60">
         <v>102</v>
       </c>
-      <c r="D104" s="40"/>
-      <c r="E104" s="41"/>
+      <c r="D104" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E104" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F104" s="20"/>
-      <c r="G104" s="21"/>
+      <c r="G104" s="21">
+        <v>-39.020000000000003</v>
+      </c>
       <c r="H104" s="21"/>
       <c r="I104" s="21"/>
       <c r="J104" s="22"/>
@@ -23172,14 +23325,22 @@
     </row>
     <row r="105" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="47"/>
-      <c r="B105" s="15"/>
+      <c r="B105" s="15">
+        <v>44839</v>
+      </c>
       <c r="C105" s="60">
         <v>103</v>
       </c>
-      <c r="D105" s="55"/>
-      <c r="E105" s="41"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="21"/>
+      <c r="D105" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="E105" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F105" s="17"/>
+      <c r="G105" s="21">
+        <v>-111</v>
+      </c>
       <c r="H105" s="21"/>
       <c r="I105" s="21"/>
       <c r="J105" s="22"/>
@@ -23423,14 +23584,22 @@
     </row>
     <row r="106" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="47"/>
-      <c r="B106" s="15"/>
+      <c r="B106" s="15">
+        <v>44839</v>
+      </c>
       <c r="C106" s="61">
         <v>104</v>
       </c>
-      <c r="D106" s="55"/>
-      <c r="E106" s="41"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="21"/>
+      <c r="D106" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="E106" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F106" s="17"/>
+      <c r="G106" s="21">
+        <v>-22</v>
+      </c>
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
       <c r="J106" s="22"/>
@@ -23674,14 +23843,22 @@
     </row>
     <row r="107" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="47"/>
-      <c r="B107" s="43"/>
+      <c r="B107" s="43">
+        <v>44841</v>
+      </c>
       <c r="C107" s="60">
         <v>105</v>
       </c>
-      <c r="D107" s="55"/>
-      <c r="E107" s="41"/>
+      <c r="D107" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E107" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F107" s="20"/>
-      <c r="G107" s="21"/>
+      <c r="G107" s="21">
+        <v>-12</v>
+      </c>
       <c r="H107" s="21"/>
       <c r="I107" s="21"/>
       <c r="J107" s="22"/>
@@ -23925,14 +24102,22 @@
     </row>
     <row r="108" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="47"/>
-      <c r="B108" s="43"/>
+      <c r="B108" s="43">
+        <v>44847</v>
+      </c>
       <c r="C108" s="60">
         <v>106</v>
       </c>
-      <c r="D108" s="40"/>
-      <c r="E108" s="41"/>
+      <c r="D108" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="E108" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="F108" s="20"/>
-      <c r="G108" s="21"/>
+      <c r="G108" s="21">
+        <v>-40.159999999999997</v>
+      </c>
       <c r="H108" s="21"/>
       <c r="I108" s="21"/>
       <c r="J108" s="22"/>
@@ -24176,14 +24361,22 @@
     </row>
     <row r="109" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="47"/>
-      <c r="B109" s="43"/>
+      <c r="B109" s="43">
+        <v>44851</v>
+      </c>
       <c r="C109" s="60">
         <v>107</v>
       </c>
-      <c r="D109" s="55"/>
-      <c r="E109" s="41"/>
+      <c r="D109" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="E109" s="41" t="s">
+        <v>15</v>
+      </c>
       <c r="F109" s="20"/>
-      <c r="G109" s="21"/>
+      <c r="G109" s="21">
+        <v>-12.8</v>
+      </c>
       <c r="H109" s="21"/>
       <c r="I109" s="21"/>
       <c r="J109" s="22"/>
@@ -24427,14 +24620,22 @@
     </row>
     <row r="110" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="47"/>
-      <c r="B110" s="43"/>
+      <c r="B110" s="43">
+        <v>44851</v>
+      </c>
       <c r="C110" s="60">
         <v>108</v>
       </c>
-      <c r="D110" s="40"/>
-      <c r="E110" s="41"/>
+      <c r="D110" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="E110" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="F110" s="20"/>
-      <c r="G110" s="21"/>
+      <c r="G110" s="21">
+        <v>-369.44</v>
+      </c>
       <c r="H110" s="21"/>
       <c r="I110" s="21"/>
       <c r="J110" s="22"/>
@@ -39489,7 +39690,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-4267.8899999999994</v>
+        <v>-5403.0599999999995</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -41422,936 +41623,961 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
-    <cfRule type="cellIs" dxfId="189" priority="592" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="609" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="188" priority="582" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="599" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="187" priority="544" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="561" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="186" priority="500" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="517" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="185" priority="476" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="493" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="184" priority="474" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="491" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="183" priority="460" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="477" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="182" priority="383" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="400" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="181" priority="369" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="386" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="180" priority="368" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="385" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="196" priority="382" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="cellIs" dxfId="195" priority="381" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="cellIs" dxfId="194" priority="380" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="cellIs" dxfId="193" priority="379" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127">
+    <cfRule type="cellIs" dxfId="192" priority="378" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128:D128">
+    <cfRule type="cellIs" dxfId="191" priority="377" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="190" priority="376" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="cellIs" dxfId="189" priority="375" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="cellIs" dxfId="188" priority="374" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130">
+    <cfRule type="cellIs" dxfId="187" priority="373" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="cellIs" dxfId="186" priority="372" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" dxfId="185" priority="371" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="184" priority="370" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134:C134">
+    <cfRule type="cellIs" dxfId="183" priority="369" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="182" priority="368" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135">
+    <cfRule type="cellIs" dxfId="181" priority="367" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="180" priority="366" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
     <cfRule type="cellIs" dxfId="179" priority="365" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
+  <conditionalFormatting sqref="B136">
     <cfRule type="cellIs" dxfId="178" priority="364" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="177" priority="363" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="176" priority="362" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="175" priority="361" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="174" priority="360" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="173" priority="359" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="172" priority="358" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="171" priority="357" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="170" priority="356" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="169" priority="355" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="168" priority="354" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="167" priority="353" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="166" priority="352" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="165" priority="351" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="164" priority="350" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="163" priority="349" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="162" priority="348" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="161" priority="347" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="160" priority="345" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="362" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="159" priority="344" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="361" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="158" priority="343" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="360" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="157" priority="342" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="359" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="156" priority="341" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="358" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="155" priority="340" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="357" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="154" priority="339" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="356" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="153" priority="338" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="355" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="152" priority="337" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="354" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="151" priority="336" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="353" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="150" priority="333" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="350" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="149" priority="332" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="349" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="148" priority="331" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="348" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="147" priority="330" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="347" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="146" priority="329" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="346" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="145" priority="328" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="345" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="144" priority="327" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="344" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="143" priority="326" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="343" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="142" priority="325" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="342" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="141" priority="323" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="340" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="140" priority="322" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="339" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="139" priority="321" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="338" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="138" priority="320" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="337" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="137" priority="319" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="336" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="136" priority="318" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="335" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="135" priority="317" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="334" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="134" priority="316" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="333" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="133" priority="314" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="331" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="132" priority="313" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="330" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="131" priority="312" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="329" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="130" priority="311" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="328" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="129" priority="310" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="327" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="128" priority="309" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="326" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="127" priority="308" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="325" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="126" priority="307" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="324" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="125" priority="285" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="302" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="124" priority="276" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="293" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="123" priority="274" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="291" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="122" priority="257" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="274" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="121" priority="255" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="272" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="120" priority="253" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="270" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E5 E7:E19 E21:E25">
+    <cfRule type="cellIs" dxfId="135" priority="229" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="134" priority="203" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="133" priority="157" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="122" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="121" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="120" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="119" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D114">
+    <cfRule type="cellIs" dxfId="118" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D115">
+    <cfRule type="cellIs" dxfId="117" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="116" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="115" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="114" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="113" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="112" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="111" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" dxfId="110" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D122">
+    <cfRule type="cellIs" dxfId="109" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="108" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="107" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="106" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="105" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="104" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="103" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="102" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="101" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="100" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="99" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="98" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="97" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="96" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="95" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="94" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E28">
+    <cfRule type="cellIs" dxfId="93" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="cellIs" dxfId="92" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="91" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="90" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E32">
+    <cfRule type="cellIs" dxfId="89" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="88" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="87" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="86" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="85" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="84" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="83" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:E41">
+    <cfRule type="cellIs" dxfId="82" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E44">
+    <cfRule type="cellIs" dxfId="81" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E44">
+    <cfRule type="cellIs" dxfId="80" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="79" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="cellIs" dxfId="78" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="77" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:E50">
+    <cfRule type="cellIs" dxfId="76" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:E52">
+    <cfRule type="cellIs" dxfId="75" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="74" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="73" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="72" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="71" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="70" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="cellIs" dxfId="69" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="cellIs" dxfId="68" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="cellIs" dxfId="67" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="cellIs" dxfId="66" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="65" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E62">
+    <cfRule type="cellIs" dxfId="64" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="63" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="62" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="61" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="60" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E71">
+    <cfRule type="cellIs" dxfId="59" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="58" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="57" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="56" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="55" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="54" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="53" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F78">
+    <cfRule type="cellIs" dxfId="52" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79">
+    <cfRule type="cellIs" dxfId="51" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78:E79">
+    <cfRule type="cellIs" dxfId="50" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78:E79">
+    <cfRule type="cellIs" dxfId="49" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="48" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="47" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82">
+    <cfRule type="cellIs" dxfId="46" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="45" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="44" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="43" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85">
+    <cfRule type="cellIs" dxfId="42" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86">
+    <cfRule type="cellIs" dxfId="41" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85:E86">
+    <cfRule type="cellIs" dxfId="40" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85:E86">
+    <cfRule type="cellIs" dxfId="39" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87:E88">
+    <cfRule type="cellIs" dxfId="38" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="37" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="36" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="35" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="34" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="33" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="32" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="31" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95">
+    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="29" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="28" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F96">
+    <cfRule type="cellIs" dxfId="27" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="26" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="25" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="24" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98:E99">
+    <cfRule type="cellIs" dxfId="23" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="119" priority="217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E5 E7:E19 E21:E25">
-    <cfRule type="cellIs" dxfId="118" priority="212" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="117" priority="186" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="116" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="115" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="114" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="113" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="112" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F105">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="111" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F106">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="110" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="109" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="108" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="107" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="106" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="105" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="104" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="103" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="102" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D114">
-    <cfRule type="cellIs" dxfId="101" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="100" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="99" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="98" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="97" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="96" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="95" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="94" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="93" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D122">
-    <cfRule type="cellIs" dxfId="92" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="91" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="90" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="89" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="88" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="87" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="86" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="85" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="84" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="83" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="82" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="81" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="80" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="79" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="78" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="77" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E28">
-    <cfRule type="cellIs" dxfId="76" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="75" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="74" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="73" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E32">
-    <cfRule type="cellIs" dxfId="72" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="71" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="70" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="69" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="68" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="67" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="66" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39:E41">
-    <cfRule type="cellIs" dxfId="65" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="64" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="63" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="62" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47">
-    <cfRule type="cellIs" dxfId="61" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="60" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
-    <cfRule type="cellIs" dxfId="59" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51:E52">
-    <cfRule type="cellIs" dxfId="58" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="57" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="56" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="55" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="54" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="53" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="52" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="51" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="50" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="49" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="48" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E62">
-    <cfRule type="cellIs" dxfId="47" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="46" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="45" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="44" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="43" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67:E71">
-    <cfRule type="cellIs" dxfId="42" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="41" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="40" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="39" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="38" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="37" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="36" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F78">
-    <cfRule type="cellIs" dxfId="35" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F79">
-    <cfRule type="cellIs" dxfId="34" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78:E79">
-    <cfRule type="cellIs" dxfId="33" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78:E79">
-    <cfRule type="cellIs" dxfId="32" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="31" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="30" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
-    <cfRule type="cellIs" dxfId="29" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="28" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="27" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="26" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="25" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F86">
-    <cfRule type="cellIs" dxfId="24" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="23" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="22" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87:E88">
-    <cfRule type="cellIs" dxfId="21" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="20" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="19" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="18" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="17" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="16" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
-    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F96">
-    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98:E99">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E116 E107:E114 E132:E138 E144:E169 E125:E130 E8 E3:E5 E10:E29 E31:E33 E35:E79 E81:E102" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E116 E132:E138 E144:E169 E125:E130 E8 E3:E5 E10:E29 E31:E33 E35:E79 E81:E114" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E139:E143" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E104:E106 E115 E119:E120 E122 E6:E7" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E7 E115 E119:E120 E122" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E103 E117:E118 E121 E123:E124 E9 E30 E34 E80" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E80 E117:E118 E121 E123:E124 E9 E30 E34" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2022.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989C3B04-DD4D-4265-8EEE-4A5AD14F3794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF116BCD-B99C-42BD-8719-D927A70EBBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="143">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -451,6 +451,27 @@
   </si>
   <si>
     <t>Kappel Sommerfest</t>
+  </si>
+  <si>
+    <t>Spende F.Steibing</t>
+  </si>
+  <si>
+    <t>80er Muessle</t>
+  </si>
+  <si>
+    <t>Brezeln Arbeitseinsatz</t>
+  </si>
+  <si>
+    <t>Dach Lampe</t>
+  </si>
+  <si>
+    <t>Spende Muessle</t>
+  </si>
+  <si>
+    <t>80er Schupp</t>
+  </si>
+  <si>
+    <t>SPD Getraenke</t>
   </si>
 </sst>
 </file>
@@ -1148,52 +1169,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="324">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="312">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1329,21 +1305,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -5278,17 +5239,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="19">
+    <format dxfId="10">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5381,17 +5342,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="22">
+    <format dxfId="13">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6518,8 +6479,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="D43:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7431,14 +7392,22 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
+      <c r="A38" s="15">
+        <v>44851</v>
+      </c>
       <c r="B38" s="61">
         <v>35</v>
       </c>
-      <c r="C38" s="40"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="18"/>
+      <c r="C38" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="18">
+        <v>40</v>
+      </c>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
       <c r="I38" s="19"/>
@@ -7446,14 +7415,22 @@
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
+      <c r="A39" s="15">
+        <v>44858</v>
+      </c>
       <c r="B39" s="16">
         <v>36</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="41"/>
+      <c r="C39" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>13</v>
+      </c>
       <c r="E39" s="17"/>
-      <c r="F39" s="18"/>
+      <c r="F39" s="18">
+        <v>100</v>
+      </c>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
       <c r="I39" s="19"/>
@@ -7461,14 +7438,22 @@
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
+      <c r="A40" s="15">
+        <v>44860</v>
+      </c>
       <c r="B40" s="16">
         <v>37</v>
       </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="41"/>
+      <c r="C40" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="E40" s="17"/>
-      <c r="F40" s="18"/>
+      <c r="F40" s="18">
+        <v>79</v>
+      </c>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
       <c r="I40" s="19"/>
@@ -7476,14 +7461,22 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
+      <c r="A41" s="15">
+        <v>44862</v>
+      </c>
       <c r="B41" s="16">
         <v>38</v>
       </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="18"/>
+      <c r="C41" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="21">
+        <v>15</v>
+      </c>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
       <c r="I41" s="19"/>
@@ -7491,14 +7484,22 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
+      <c r="A42" s="15">
+        <v>44865</v>
+      </c>
       <c r="B42" s="61">
         <v>39</v>
       </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="19"/>
+      <c r="C42" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>0</v>
+      </c>
       <c r="E42" s="20"/>
-      <c r="F42" s="18"/>
+      <c r="F42" s="21">
+        <v>12</v>
+      </c>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
       <c r="I42" s="19"/>
@@ -7511,9 +7512,9 @@
         <v>40</v>
       </c>
       <c r="C43" s="55"/>
-      <c r="D43" s="19"/>
+      <c r="D43" s="41"/>
       <c r="E43" s="20"/>
-      <c r="F43" s="18"/>
+      <c r="F43" s="21"/>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
       <c r="I43" s="19"/>
@@ -8440,7 +8441,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>11628.510000000002</v>
+        <v>11874.510000000002</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -8483,7 +8484,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>6225.4500000000025</v>
+        <v>6280.0200000000032</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -8521,7 +8522,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>9639.7300000000032</v>
+        <v>9694.3000000000029</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -9321,556 +9322,526 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 F31:G31 F34:G34 F37:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F19:G19 G4:G10 F24:G24 H28:I104 I27 G32:G33 G35:G36 F13:G14 H4:I26 G12 F16:G16 G15 G17:G18 G20:G23 F26:G26 G25 G28:G30">
-    <cfRule type="cellIs" dxfId="323" priority="249" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 F31:G31 F34:G34 F45:G49 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F19:G19 G4:G10 F24:G24 H28:I104 I27 G32:G33 G35:G36 F13:G14 H4:I26 G12 F16:G16 G15 G17:G18 G20:G23 F26:G26 G25 G28:G30 F37:G40 G41:G44">
+    <cfRule type="cellIs" dxfId="311" priority="251" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="321" priority="218" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="220" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="320" priority="220" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="222" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="319" priority="216" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="318" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="192" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="317" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="187" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="316" priority="170" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="172" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="315" priority="167" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="169" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="314" priority="162" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="164" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="313" priority="159" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="161" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="311" priority="153" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="310" priority="150" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="309" priority="149" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E37:E39">
+    <cfRule type="cellIs" dxfId="301" priority="155" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="308" priority="148" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="307" priority="147" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="306" priority="146" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="305" priority="145" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="304" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="303" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="291" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="cellIs" dxfId="290" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:E45">
+    <cfRule type="cellIs" dxfId="289" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="288" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="287" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="286" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="cellIs" dxfId="285" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" dxfId="284" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="283" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="cellIs" dxfId="282" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="281" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="cellIs" dxfId="280" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="279" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="cellIs" dxfId="278" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="cellIs" dxfId="277" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="cellIs" dxfId="276" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="275" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="cellIs" dxfId="274" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="cellIs" dxfId="273" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="272" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="271" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="cellIs" dxfId="270" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="cellIs" dxfId="269" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="cellIs" dxfId="268" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="cellIs" dxfId="267" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="cellIs" dxfId="266" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="cellIs" dxfId="265" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69:E69">
+    <cfRule type="cellIs" dxfId="264" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="263" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70">
+    <cfRule type="cellIs" dxfId="262" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="261" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71">
+    <cfRule type="cellIs" dxfId="260" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="259" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72">
+    <cfRule type="cellIs" dxfId="258" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="257" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73">
+    <cfRule type="cellIs" dxfId="256" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="255" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74">
+    <cfRule type="cellIs" dxfId="254" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="253" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75">
+    <cfRule type="cellIs" dxfId="252" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="cellIs" dxfId="251" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="250" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D83">
+    <cfRule type="cellIs" dxfId="249" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="248" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84">
+    <cfRule type="cellIs" dxfId="247" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="246" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85">
+    <cfRule type="cellIs" dxfId="245" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="244" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D86">
+    <cfRule type="cellIs" dxfId="243" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="242" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87">
+    <cfRule type="cellIs" dxfId="241" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="240" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D88">
+    <cfRule type="cellIs" dxfId="239" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D90:E90">
+    <cfRule type="cellIs" dxfId="238" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92:D92">
+    <cfRule type="cellIs" dxfId="237" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D93">
+    <cfRule type="cellIs" dxfId="236" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="235" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D94">
+    <cfRule type="cellIs" dxfId="234" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D96:E96">
+    <cfRule type="cellIs" dxfId="233" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="232" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97">
+    <cfRule type="cellIs" dxfId="231" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:D98">
+    <cfRule type="cellIs" dxfId="230" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="229" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="228" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="227" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="226" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="225" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="cellIs" dxfId="224" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="223" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="cellIs" dxfId="222" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:H27">
+    <cfRule type="cellIs" dxfId="221" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="cellIs" dxfId="220" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="219" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="cellIs" dxfId="218" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="217" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:D40">
+    <cfRule type="cellIs" dxfId="216" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="214" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="213" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D11">
+    <cfRule type="cellIs" dxfId="212" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D15">
+    <cfRule type="cellIs" dxfId="211" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:E16">
+    <cfRule type="cellIs" dxfId="210" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D18">
+    <cfRule type="cellIs" dxfId="209" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="208" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D21">
+    <cfRule type="cellIs" dxfId="207" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="206" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:D24">
+    <cfRule type="cellIs" dxfId="205" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="cellIs" dxfId="204" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D36">
+    <cfRule type="cellIs" dxfId="203" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:D42">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="302" priority="140" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="301" priority="139" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="300" priority="138" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="299" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="298" priority="136" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="297" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="296" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="295" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="294" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="293" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="292" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="291" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="290" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="289" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="288" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="287" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="286" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="285" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="284" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="283" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="282" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="281" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="280" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="279" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="278" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="277" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="276" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="275" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="274" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="273" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="272" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="271" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="270" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="269" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="268" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="267" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="266" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="265" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="264" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="263" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="262" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="261" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="260" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="259" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="258" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="257" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="256" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="255" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="254" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="253" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="252" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="251" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="250" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="249" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="248" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="247" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="246" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="245" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="244" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="243" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="242" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="241" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="240" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="239" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="238" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="237" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="236" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="235" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="234" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="233" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="232" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:H27">
-    <cfRule type="cellIs" dxfId="231" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="230" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="229" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="228" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="227" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="220" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="219" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="218" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="217" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D11">
-    <cfRule type="cellIs" dxfId="216" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D15">
-    <cfRule type="cellIs" dxfId="215" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="214" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D18">
-    <cfRule type="cellIs" dxfId="213" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="212" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D21">
-    <cfRule type="cellIs" dxfId="211" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="210" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" dxfId="209" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="208" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D36">
-    <cfRule type="cellIs" dxfId="207" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D39:D40 D42:D44 D83:D88 D71:D72 D67 D57:D61 D53 D55" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D55 D53 D83:D88 D71:D72 D67 D57:D61 D44" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D45 D41 D66 D68:D70 D73:D81 D89:D91 D93:D97 D99:D104 D3:D38" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D45 D66 D68:D70 D73:D81 D89:D91 D93:D97 D99:D104 D3:D43" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D56" xr:uid="{00000000-0002-0000-0000-000002000000}">
@@ -9900,8 +9871,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
+      <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -24879,14 +24850,22 @@
     </row>
     <row r="111" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="47"/>
-      <c r="B111" s="15"/>
+      <c r="B111" s="43">
+        <v>44851</v>
+      </c>
       <c r="C111" s="60">
         <v>109</v>
       </c>
-      <c r="D111" s="40"/>
-      <c r="E111" s="41"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="21"/>
+      <c r="D111" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="E111" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111" s="99"/>
+      <c r="G111" s="100">
+        <v>-18.36</v>
+      </c>
       <c r="H111" s="21"/>
       <c r="I111" s="21"/>
       <c r="J111" s="22"/>
@@ -25130,14 +25109,22 @@
     </row>
     <row r="112" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="47"/>
-      <c r="B112" s="15"/>
+      <c r="B112" s="15">
+        <v>44852</v>
+      </c>
       <c r="C112" s="16">
         <v>110</v>
       </c>
-      <c r="D112" s="55"/>
-      <c r="E112" s="41"/>
+      <c r="D112" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="E112" s="56" t="s">
+        <v>23</v>
+      </c>
       <c r="F112" s="20"/>
-      <c r="G112" s="21"/>
+      <c r="G112" s="21">
+        <v>-30.5</v>
+      </c>
       <c r="H112" s="21"/>
       <c r="I112" s="21"/>
       <c r="J112" s="22"/>
@@ -25381,14 +25368,22 @@
     </row>
     <row r="113" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="47"/>
-      <c r="B113" s="15"/>
+      <c r="B113" s="15">
+        <v>44853</v>
+      </c>
       <c r="C113" s="16">
         <v>111</v>
       </c>
-      <c r="D113" s="55"/>
-      <c r="E113" s="41"/>
+      <c r="D113" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E113" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F113" s="20"/>
-      <c r="G113" s="21"/>
+      <c r="G113" s="21">
+        <v>-41.72</v>
+      </c>
       <c r="H113" s="21"/>
       <c r="I113" s="21"/>
       <c r="J113" s="22"/>
@@ -25632,14 +25627,22 @@
     </row>
     <row r="114" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="47"/>
-      <c r="B114" s="15"/>
+      <c r="B114" s="15">
+        <v>44858</v>
+      </c>
       <c r="C114" s="16">
         <v>112</v>
       </c>
-      <c r="D114" s="40"/>
-      <c r="E114" s="41"/>
+      <c r="D114" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="E114" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F114" s="20"/>
-      <c r="G114" s="21"/>
+      <c r="G114" s="21">
+        <v>-36</v>
+      </c>
       <c r="H114" s="21"/>
       <c r="I114" s="21"/>
       <c r="J114" s="22"/>
@@ -25883,14 +25886,22 @@
     </row>
     <row r="115" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="47"/>
-      <c r="B115" s="15"/>
+      <c r="B115" s="15">
+        <v>44858</v>
+      </c>
       <c r="C115" s="60">
         <v>113</v>
       </c>
-      <c r="D115" s="40"/>
-      <c r="E115" s="41"/>
+      <c r="D115" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="E115" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="F115" s="20"/>
-      <c r="G115" s="21"/>
+      <c r="G115" s="21">
+        <v>-7.2</v>
+      </c>
       <c r="H115" s="21"/>
       <c r="I115" s="21"/>
       <c r="J115" s="22"/>
@@ -26134,14 +26145,22 @@
     </row>
     <row r="116" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="47"/>
-      <c r="B116" s="43"/>
+      <c r="B116" s="15">
+        <v>44858</v>
+      </c>
       <c r="C116" s="60">
         <v>114</v>
       </c>
-      <c r="D116" s="55"/>
-      <c r="E116" s="41"/>
+      <c r="D116" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="E116" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="F116" s="20"/>
-      <c r="G116" s="21"/>
+      <c r="G116" s="21">
+        <v>-28.15</v>
+      </c>
       <c r="H116" s="21"/>
       <c r="I116" s="21"/>
       <c r="J116" s="22"/>
@@ -26385,14 +26404,22 @@
     </row>
     <row r="117" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="47"/>
-      <c r="B117" s="43"/>
+      <c r="B117" s="43">
+        <v>44862</v>
+      </c>
       <c r="C117" s="60">
         <v>115</v>
       </c>
-      <c r="D117" s="55"/>
-      <c r="E117" s="41"/>
+      <c r="D117" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="E117" s="56" t="s">
+        <v>23</v>
+      </c>
       <c r="F117" s="20"/>
-      <c r="G117" s="21"/>
+      <c r="G117" s="21">
+        <v>-29.5</v>
+      </c>
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
       <c r="J117" s="22"/>
@@ -39690,7 +39717,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-5403.0599999999995</v>
+        <v>-5594.4899999999989</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -41623,961 +41650,961 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
-    <cfRule type="cellIs" dxfId="206" priority="609" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="615" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="205" priority="599" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="605" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="204" priority="561" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="567" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="203" priority="517" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="523" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="202" priority="493" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="499" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="201" priority="491" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="497" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="200" priority="477" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="483" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="199" priority="400" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C111">
+    <cfRule type="cellIs" dxfId="195" priority="406" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="198" priority="386" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="392" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="197" priority="385" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="391" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="196" priority="382" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="388" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="195" priority="381" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="387" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="194" priority="380" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="386" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="193" priority="379" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="385" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="192" priority="378" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="384" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="191" priority="377" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="383" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="190" priority="376" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="382" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="189" priority="375" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="381" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="188" priority="374" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="380" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="187" priority="373" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="379" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="186" priority="372" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="378" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="185" priority="371" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="377" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="184" priority="370" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="376" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="183" priority="369" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="375" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="182" priority="368" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="374" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="181" priority="367" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="373" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="180" priority="366" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="372" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="179" priority="365" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="371" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="178" priority="364" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="370" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="177" priority="362" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="368" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="176" priority="361" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="367" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="175" priority="360" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="366" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="174" priority="359" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="365" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="173" priority="358" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="364" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="172" priority="357" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="363" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="171" priority="356" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="362" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="170" priority="355" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="361" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="169" priority="354" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="360" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="168" priority="353" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="359" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="167" priority="350" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="356" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="166" priority="349" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="355" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="165" priority="348" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="354" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="164" priority="347" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="353" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="163" priority="346" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="352" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="162" priority="345" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="351" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="161" priority="344" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="350" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="160" priority="343" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="349" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="159" priority="342" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="348" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="158" priority="340" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="346" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="157" priority="339" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="345" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="156" priority="338" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="344" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="155" priority="337" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="343" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="154" priority="336" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="342" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="153" priority="335" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="341" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="152" priority="334" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="340" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="151" priority="333" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="339" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="150" priority="331" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="337" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="149" priority="330" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="336" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="148" priority="329" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="335" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="147" priority="328" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="334" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="146" priority="327" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="333" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="145" priority="326" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="332" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="144" priority="325" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="331" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="143" priority="324" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="330" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="142" priority="302" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="308" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="141" priority="293" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="299" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="140" priority="291" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="297" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="139" priority="274" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="280" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="138" priority="272" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="278" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="137" priority="270" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="276" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E7:E19 E21:E25">
-    <cfRule type="cellIs" dxfId="135" priority="229" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="235" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="134" priority="203" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="209" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="133" priority="157" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="163" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="126" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D114">
+    <cfRule type="cellIs" dxfId="125" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D115">
+    <cfRule type="cellIs" dxfId="124" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="120" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="119" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="118" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" dxfId="117" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D122">
+    <cfRule type="cellIs" dxfId="116" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="115" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="114" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="113" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="112" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="111" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="110" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="109" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="108" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="107" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="106" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="105" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="104" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="103" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="102" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="101" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E28">
+    <cfRule type="cellIs" dxfId="100" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="cellIs" dxfId="99" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="98" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="97" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E32">
+    <cfRule type="cellIs" dxfId="96" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="95" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="94" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="93" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="92" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="91" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="90" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:E41">
+    <cfRule type="cellIs" dxfId="89" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E44">
+    <cfRule type="cellIs" dxfId="88" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E44">
+    <cfRule type="cellIs" dxfId="87" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="86" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="cellIs" dxfId="85" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="84" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:E50">
+    <cfRule type="cellIs" dxfId="83" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:E52">
+    <cfRule type="cellIs" dxfId="82" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="81" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="80" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="79" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="78" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="77" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="cellIs" dxfId="76" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="cellIs" dxfId="75" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="cellIs" dxfId="74" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="cellIs" dxfId="73" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="72" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E62">
+    <cfRule type="cellIs" dxfId="71" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="70" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="69" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="68" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="67" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E71">
+    <cfRule type="cellIs" dxfId="66" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="65" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="64" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="63" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="62" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="61" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="60" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F78">
+    <cfRule type="cellIs" dxfId="59" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79">
+    <cfRule type="cellIs" dxfId="58" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78:E79">
+    <cfRule type="cellIs" dxfId="57" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78:E79">
+    <cfRule type="cellIs" dxfId="56" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="55" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="54" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82">
+    <cfRule type="cellIs" dxfId="53" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="52" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="51" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="50" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85">
+    <cfRule type="cellIs" dxfId="49" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86">
+    <cfRule type="cellIs" dxfId="48" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85:E86">
+    <cfRule type="cellIs" dxfId="47" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85:E86">
+    <cfRule type="cellIs" dxfId="46" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87:E88">
+    <cfRule type="cellIs" dxfId="45" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="44" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="43" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="42" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="41" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="40" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="39" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="38" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95">
+    <cfRule type="cellIs" dxfId="37" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="36" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="35" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F96">
+    <cfRule type="cellIs" dxfId="34" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="33" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="32" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="31" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98:E99">
+    <cfRule type="cellIs" dxfId="30" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="29" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="28" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="27" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="26" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="25" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F105">
+    <cfRule type="cellIs" dxfId="24" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="23" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="22" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F106">
+    <cfRule type="cellIs" dxfId="21" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="20" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="19" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="18" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="17" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="16" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="122" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="121" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="120" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="119" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D114">
-    <cfRule type="cellIs" dxfId="118" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="117" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="116" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="115" priority="112" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E115:E116">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="114" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="113" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="112" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="111" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="110" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D122">
-    <cfRule type="cellIs" dxfId="109" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="108" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="107" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="106" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="105" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="104" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="103" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="102" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="101" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="100" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="99" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="98" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="97" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="96" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="95" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="94" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E28">
-    <cfRule type="cellIs" dxfId="93" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="92" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="91" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="90" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E32">
-    <cfRule type="cellIs" dxfId="89" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="88" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="87" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="86" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="85" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="84" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="83" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39:E41">
-    <cfRule type="cellIs" dxfId="82" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="81" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="80" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="79" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47">
-    <cfRule type="cellIs" dxfId="78" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="77" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
-    <cfRule type="cellIs" dxfId="76" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51:E52">
-    <cfRule type="cellIs" dxfId="75" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="74" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="73" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="72" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="71" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="70" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="69" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="68" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="67" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="66" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="65" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E62">
-    <cfRule type="cellIs" dxfId="64" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="63" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="62" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="61" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="60" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67:E71">
-    <cfRule type="cellIs" dxfId="59" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="58" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="57" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="56" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="55" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="54" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="53" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F78">
-    <cfRule type="cellIs" dxfId="52" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F79">
-    <cfRule type="cellIs" dxfId="51" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78:E79">
-    <cfRule type="cellIs" dxfId="50" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78:E79">
-    <cfRule type="cellIs" dxfId="49" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="48" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="47" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
-    <cfRule type="cellIs" dxfId="46" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="45" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="44" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="43" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="42" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F86">
-    <cfRule type="cellIs" dxfId="41" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="40" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="39" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87:E88">
-    <cfRule type="cellIs" dxfId="38" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="37" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="36" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="35" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="34" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="33" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="32" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="31" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
-    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="29" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="28" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F96">
-    <cfRule type="cellIs" dxfId="27" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="26" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="25" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="24" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98:E99">
-    <cfRule type="cellIs" dxfId="23" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F105">
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F106">
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E116 E132:E138 E144:E169 E125:E130 E8 E3:E5 E10:E29 E31:E33 E35:E79 E81:E114" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E132:E138 E144:E169 E125:E130 E8 E3:E5 E10:E29 E31:E33 E35:E79 E81:E110 E112:E117" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E139:E143" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E7 E115 E119:E120 E122" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E7 E122 E119:E120" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E80 E117:E118 E121 E123:E124 E9 E30 E34" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E80 E111 E121 E123:E124 E9 E30 E34 E118" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2022.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF116BCD-B99C-42BD-8719-D927A70EBBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE163966-A960-4301-AA13-FC435CBDC60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="144">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -472,6 +472,9 @@
   </si>
   <si>
     <t>SPD Getraenke</t>
+  </si>
+  <si>
+    <t>Thermometer</t>
   </si>
 </sst>
 </file>
@@ -1169,12 +1172,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="312">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="305">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1305,36 +1303,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -5239,17 +5207,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="10">
+    <format dxfId="9">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5342,17 +5310,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="13">
+    <format dxfId="12">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6478,7 +6446,7 @@
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F43" sqref="D43:F43"/>
     </sheetView>
@@ -8484,7 +8452,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>6280.0200000000032</v>
+        <v>6139.0300000000034</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -8522,7 +8490,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>9694.3000000000029</v>
+        <v>9553.3100000000031</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -9323,67 +9291,67 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 F31:G31 F34:G34 F45:G49 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F19:G19 G4:G10 F24:G24 H28:I104 I27 G32:G33 G35:G36 F13:G14 H4:I26 G12 F16:G16 G15 G17:G18 G20:G23 F26:G26 G25 G28:G30 F37:G40 G41:G44">
-    <cfRule type="cellIs" dxfId="311" priority="251" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="251" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="310" priority="220" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="220" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="309" priority="222" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="222" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="308" priority="218" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="307" priority="192" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="192" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="306" priority="187" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="187" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="305" priority="172" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="172" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="304" priority="169" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="169" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="303" priority="164" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="164" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="302" priority="161" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="161" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:E39">
-    <cfRule type="cellIs" dxfId="301" priority="155" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="155" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="298" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="293" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9768,72 +9736,72 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="214" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="213" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="cellIs" dxfId="212" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D15">
-    <cfRule type="cellIs" dxfId="211" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="210" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D18">
-    <cfRule type="cellIs" dxfId="209" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="208" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D21">
-    <cfRule type="cellIs" dxfId="207" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="206" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" dxfId="205" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="204" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D36">
-    <cfRule type="cellIs" dxfId="203" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D42">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9870,9 +9838,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
+      <selection pane="bottomLeft" activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -26663,14 +26631,22 @@
     </row>
     <row r="118" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="47"/>
-      <c r="B118" s="43"/>
+      <c r="B118" s="43">
+        <v>44868</v>
+      </c>
       <c r="C118" s="60">
         <v>116</v>
       </c>
-      <c r="D118" s="55"/>
-      <c r="E118" s="56"/>
-      <c r="F118" s="20"/>
-      <c r="G118" s="21"/>
+      <c r="D118" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="E118" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F118" s="17"/>
+      <c r="G118" s="21">
+        <v>-22</v>
+      </c>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="22"/>
@@ -26914,14 +26890,22 @@
     </row>
     <row r="119" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="47"/>
-      <c r="B119" s="15"/>
+      <c r="B119" s="43">
+        <v>44868</v>
+      </c>
       <c r="C119" s="60">
         <v>117</v>
       </c>
-      <c r="D119" s="55"/>
-      <c r="E119" s="41"/>
-      <c r="F119" s="20"/>
-      <c r="G119" s="21"/>
+      <c r="D119" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="E119" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F119" s="17"/>
+      <c r="G119" s="21">
+        <v>-111</v>
+      </c>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="22"/>
@@ -27165,14 +27149,22 @@
     </row>
     <row r="120" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="47"/>
-      <c r="B120" s="15"/>
+      <c r="B120" s="43">
+        <v>44868</v>
+      </c>
       <c r="C120" s="61">
         <v>118</v>
       </c>
-      <c r="D120" s="55"/>
-      <c r="E120" s="41"/>
+      <c r="D120" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="E120" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="F120" s="20"/>
-      <c r="G120" s="21"/>
+      <c r="G120" s="21">
+        <v>-7.99</v>
+      </c>
       <c r="H120" s="21"/>
       <c r="I120" s="21"/>
       <c r="J120" s="22"/>
@@ -39717,7 +39709,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-5594.4899999999989</v>
+        <v>-5735.4799999999987</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -41650,961 +41642,981 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
-    <cfRule type="cellIs" dxfId="202" priority="615" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="622" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="201" priority="605" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="612" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="200" priority="567" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="574" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="199" priority="523" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="530" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="198" priority="499" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="506" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="197" priority="497" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="504" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="196" priority="483" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="490" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111">
-    <cfRule type="cellIs" dxfId="195" priority="406" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="413" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="194" priority="392" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="399" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="193" priority="391" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="398" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="192" priority="388" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="395" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="191" priority="387" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="394" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="190" priority="386" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="393" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="189" priority="385" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="392" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="188" priority="384" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="391" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="187" priority="383" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="390" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="186" priority="382" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="389" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="185" priority="381" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="388" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="184" priority="380" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="387" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="183" priority="379" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="386" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="182" priority="378" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="385" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="181" priority="377" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="384" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="180" priority="376" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="383" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="179" priority="375" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="382" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="178" priority="374" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="381" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="177" priority="373" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="380" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="176" priority="372" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="379" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="175" priority="371" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="378" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="174" priority="370" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="377" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="173" priority="368" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="375" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="172" priority="367" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="374" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="171" priority="366" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="373" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="170" priority="365" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="372" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="169" priority="364" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="371" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="168" priority="363" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="370" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="167" priority="362" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="369" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="166" priority="361" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="368" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="165" priority="360" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="367" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="164" priority="359" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="366" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="163" priority="356" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="363" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="162" priority="355" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="362" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="161" priority="354" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="361" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="160" priority="353" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="360" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="159" priority="352" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="359" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="158" priority="351" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="358" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="157" priority="350" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="357" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="156" priority="349" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="356" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="155" priority="348" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="355" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="154" priority="346" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="353" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="153" priority="345" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="352" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="152" priority="344" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="351" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="151" priority="343" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="350" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="150" priority="342" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="349" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="149" priority="341" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="348" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="148" priority="340" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="347" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="147" priority="339" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="346" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="146" priority="337" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="344" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="145" priority="336" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="343" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="144" priority="335" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="342" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="143" priority="334" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="341" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="142" priority="333" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="340" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="141" priority="332" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="339" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="140" priority="331" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="338" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="139" priority="330" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="337" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="138" priority="308" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="315" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="137" priority="299" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="306" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="136" priority="297" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="304" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="135" priority="280" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="287" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="134" priority="278" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="285" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="133" priority="276" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="283" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E7:E19 E21:E25">
-    <cfRule type="cellIs" dxfId="132" priority="235" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="242" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="131" priority="209" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="216" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="130" priority="163" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="126" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D114">
-    <cfRule type="cellIs" dxfId="125" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="124" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" dxfId="122" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D122">
+    <cfRule type="cellIs" dxfId="121" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="120" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="119" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="118" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="117" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="116" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="115" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="114" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="113" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="112" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="111" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="110" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="109" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="108" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="107" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="106" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E28">
+    <cfRule type="cellIs" dxfId="105" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="cellIs" dxfId="104" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="103" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="102" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E32">
+    <cfRule type="cellIs" dxfId="101" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="100" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="99" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="98" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="97" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="96" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="95" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:E41">
+    <cfRule type="cellIs" dxfId="94" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E44">
+    <cfRule type="cellIs" dxfId="93" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E44">
+    <cfRule type="cellIs" dxfId="92" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="91" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="cellIs" dxfId="90" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="89" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:E50">
+    <cfRule type="cellIs" dxfId="88" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:E52">
+    <cfRule type="cellIs" dxfId="87" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="86" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="85" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="84" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="83" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="82" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="cellIs" dxfId="81" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="cellIs" dxfId="80" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="cellIs" dxfId="79" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="cellIs" dxfId="78" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="77" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E62">
+    <cfRule type="cellIs" dxfId="76" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="75" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="74" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="73" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="72" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E71">
+    <cfRule type="cellIs" dxfId="71" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="70" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="69" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="68" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="67" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="66" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="65" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F78">
+    <cfRule type="cellIs" dxfId="64" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79">
+    <cfRule type="cellIs" dxfId="63" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78:E79">
+    <cfRule type="cellIs" dxfId="62" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78:E79">
+    <cfRule type="cellIs" dxfId="61" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="60" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="59" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82">
+    <cfRule type="cellIs" dxfId="58" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="57" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="56" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="55" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85">
+    <cfRule type="cellIs" dxfId="54" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86">
+    <cfRule type="cellIs" dxfId="53" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85:E86">
+    <cfRule type="cellIs" dxfId="52" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85:E86">
+    <cfRule type="cellIs" dxfId="51" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87:E88">
+    <cfRule type="cellIs" dxfId="50" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="49" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="48" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="47" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="46" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="45" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="44" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="43" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95">
+    <cfRule type="cellIs" dxfId="42" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="41" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="40" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F96">
+    <cfRule type="cellIs" dxfId="39" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="38" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="37" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="36" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98:E99">
+    <cfRule type="cellIs" dxfId="35" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="34" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="33" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="32" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="31" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F105">
+    <cfRule type="cellIs" dxfId="29" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="28" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="27" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F106">
+    <cfRule type="cellIs" dxfId="26" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="25" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="24" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="23" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="22" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="21" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="20" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="19" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="18" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="17" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="16" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115:E116">
+    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F118">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="120" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F119">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="119" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="118" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="117" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D122">
-    <cfRule type="cellIs" dxfId="116" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="115" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="114" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="113" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="112" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="111" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="110" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="109" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="108" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="107" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="106" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="105" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="104" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="103" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="102" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="101" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E28">
-    <cfRule type="cellIs" dxfId="100" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="99" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="98" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="97" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E32">
-    <cfRule type="cellIs" dxfId="96" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="95" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="94" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="93" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="92" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="91" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="90" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39:E41">
-    <cfRule type="cellIs" dxfId="89" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="88" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="87" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="86" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47">
-    <cfRule type="cellIs" dxfId="85" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="84" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
-    <cfRule type="cellIs" dxfId="83" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51:E52">
-    <cfRule type="cellIs" dxfId="82" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="81" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="80" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="79" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="78" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="77" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="76" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="75" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="74" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="73" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="72" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E62">
-    <cfRule type="cellIs" dxfId="71" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="70" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="69" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="68" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="67" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67:E71">
-    <cfRule type="cellIs" dxfId="66" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="65" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="64" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="63" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="62" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="61" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="60" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F78">
-    <cfRule type="cellIs" dxfId="59" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F79">
-    <cfRule type="cellIs" dxfId="58" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78:E79">
-    <cfRule type="cellIs" dxfId="57" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78:E79">
-    <cfRule type="cellIs" dxfId="56" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="55" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="54" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
-    <cfRule type="cellIs" dxfId="53" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="52" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="51" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="50" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="49" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F86">
-    <cfRule type="cellIs" dxfId="48" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="47" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="46" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87:E88">
-    <cfRule type="cellIs" dxfId="45" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="44" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="43" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="42" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="41" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="40" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="39" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="38" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
-    <cfRule type="cellIs" dxfId="37" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="36" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="35" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F96">
-    <cfRule type="cellIs" dxfId="34" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="33" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="32" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="31" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98:E99">
-    <cfRule type="cellIs" dxfId="30" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="29" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="28" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="27" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="26" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="25" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F105">
-    <cfRule type="cellIs" dxfId="24" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="23" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="22" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F106">
-    <cfRule type="cellIs" dxfId="21" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="20" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="19" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="18" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="17" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="16" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="7" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115:E116">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E132:E138 E144:E169 E125:E130 E8 E3:E5 E10:E29 E31:E33 E35:E79 E81:E110 E112:E117" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E132:E138 E144:E169 E125:E130 E8 E3:E5 E10:E29 E31:E33 E35:E79 E81:E110 E112:E120" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E139:E143" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E7 E122 E119:E120" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E7 E122" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E80 E111 E121 E123:E124 E9 E30 E34 E118" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E80 E111 E121 E123:E124 E9 E30 E34" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2022.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE163966-A960-4301-AA13-FC435CBDC60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52737EE-22D6-419C-B894-7B7EF341DCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -1172,42 +1172,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="305">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="302">
     <dxf>
       <border>
         <left style="thin">
@@ -1303,6 +1268,26 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -5207,17 +5192,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="9">
+    <format dxfId="2">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5310,17 +5295,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="12">
+    <format dxfId="5">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6446,9 +6431,9 @@
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="D43:F43"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9291,517 +9276,517 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 F31:G31 F34:G34 F45:G49 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F19:G19 G4:G10 F24:G24 H28:I104 I27 G32:G33 G35:G36 F13:G14 H4:I26 G12 F16:G16 G15 G17:G18 G20:G23 F26:G26 G25 G28:G30 F37:G40 G41:G44">
-    <cfRule type="cellIs" dxfId="304" priority="251" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="251" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="303" priority="220" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="220" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="302" priority="222" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="222" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="301" priority="218" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="300" priority="192" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="192" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="299" priority="187" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="187" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="298" priority="172" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="172" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="297" priority="169" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="169" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="296" priority="164" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="164" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="295" priority="161" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="161" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:E39">
-    <cfRule type="cellIs" dxfId="294" priority="155" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="155" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="293" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="292" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="291" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="290" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="289" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="288" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="138" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="287" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="286" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="285" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="284" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="283" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="282" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="281" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="280" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="279" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="278" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="277" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="276" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="275" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="274" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="273" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="272" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="271" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="270" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="269" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="268" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="267" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="266" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="265" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="264" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="263" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="262" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="261" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="260" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="259" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="258" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="257" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="256" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="255" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="254" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="253" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="252" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="251" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="250" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="249" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="248" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="247" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="246" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="245" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="244" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="243" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="242" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="241" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="240" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="239" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="238" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="237" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="236" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="235" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="234" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="233" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="232" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="231" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="230" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="229" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="228" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="227" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="226" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="225" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="224" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="223" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="222" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="cellIs" dxfId="221" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="220" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="219" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="218" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="217" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:D40">
-    <cfRule type="cellIs" dxfId="216" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="215" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="214" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="cellIs" dxfId="213" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D15">
-    <cfRule type="cellIs" dxfId="212" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="211" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D18">
-    <cfRule type="cellIs" dxfId="210" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="209" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D21">
-    <cfRule type="cellIs" dxfId="208" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="207" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" dxfId="206" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="205" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D36">
-    <cfRule type="cellIs" dxfId="204" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D42">
-    <cfRule type="cellIs" dxfId="203" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="202" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9838,9 +9823,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B120" sqref="B120"/>
+      <selection pane="bottomLeft" activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -41642,382 +41627,382 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
-    <cfRule type="cellIs" dxfId="201" priority="622" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="622" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="200" priority="612" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="612" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="199" priority="574" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="574" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="198" priority="530" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="530" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="197" priority="506" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="506" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="196" priority="504" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="504" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="195" priority="490" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="490" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111">
-    <cfRule type="cellIs" dxfId="194" priority="413" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="413" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="193" priority="399" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="399" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="192" priority="398" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="398" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="191" priority="395" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="395" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="190" priority="394" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="394" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="189" priority="393" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="393" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="188" priority="392" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="392" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="187" priority="391" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="391" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="186" priority="390" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="390" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="185" priority="389" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="389" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="184" priority="388" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="388" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="183" priority="387" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="387" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="182" priority="386" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="386" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="181" priority="385" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="385" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="180" priority="384" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="384" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="179" priority="383" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="383" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="178" priority="382" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="382" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="177" priority="381" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="381" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="176" priority="380" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="380" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="175" priority="379" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="379" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="174" priority="378" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="378" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="173" priority="377" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="377" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="172" priority="375" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="375" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="171" priority="374" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="374" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="170" priority="373" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="373" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="169" priority="372" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="372" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="168" priority="371" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="371" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="167" priority="370" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="370" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="166" priority="369" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="369" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="165" priority="368" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="368" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="164" priority="367" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="367" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="163" priority="366" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="366" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="162" priority="363" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="363" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="161" priority="362" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="362" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="160" priority="361" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="361" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="159" priority="360" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="360" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="158" priority="359" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="359" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="157" priority="358" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="358" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="156" priority="357" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="357" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="155" priority="356" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="356" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="154" priority="355" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="355" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="153" priority="353" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="353" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="152" priority="352" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="352" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="151" priority="351" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="351" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="150" priority="350" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="350" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="149" priority="349" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="349" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="148" priority="348" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="348" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="147" priority="347" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="347" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="146" priority="346" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="346" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="145" priority="344" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="344" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="144" priority="343" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="343" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="143" priority="342" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="342" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="142" priority="341" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="341" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="141" priority="340" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="340" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="140" priority="339" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="339" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="139" priority="338" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="338" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="138" priority="337" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="337" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="137" priority="315" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="315" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="136" priority="306" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="306" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="135" priority="304" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="304" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="134" priority="287" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="287" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="133" priority="285" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="285" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="132" priority="283" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="283" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5 E7:E19 E21:E25">
-    <cfRule type="cellIs" dxfId="131" priority="242" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="242" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="130" priority="216" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="216" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="129" priority="170" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="128" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D114">
-    <cfRule type="cellIs" dxfId="127" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="126" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42572,37 +42557,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118">
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AWO_Einnahmen_Ausgaben_2022.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52737EE-22D6-419C-B894-7B7EF341DCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB88D115-3D0A-4C64-A74A-1C05A91EBB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="154">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -475,6 +475,36 @@
   </si>
   <si>
     <t>Thermometer</t>
+  </si>
+  <si>
+    <t>Trauerkarte Epple</t>
+  </si>
+  <si>
+    <t>TzgL 09.11.</t>
+  </si>
+  <si>
+    <t>Bierbank Rep. August</t>
+  </si>
+  <si>
+    <t>Deko TzGL</t>
+  </si>
+  <si>
+    <t>Stempel</t>
+  </si>
+  <si>
+    <t>Stollen</t>
+  </si>
+  <si>
+    <t>Schoko</t>
+  </si>
+  <si>
+    <t>TzgL 22.11.</t>
+  </si>
+  <si>
+    <t>Aufkleber</t>
+  </si>
+  <si>
+    <t>Soforthilfe</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1202,102 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="302">
+  <dxfs count="321">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -5192,17 +5317,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="2">
+    <format dxfId="21">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5295,17 +5420,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="5">
+    <format dxfId="24">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6432,8 +6557,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7460,14 +7585,22 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
+      <c r="A43" s="15">
+        <v>44874</v>
+      </c>
       <c r="B43" s="16">
         <v>40</v>
       </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="41"/>
+      <c r="C43" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>0</v>
+      </c>
       <c r="E43" s="20"/>
-      <c r="F43" s="21"/>
+      <c r="F43" s="21">
+        <v>80</v>
+      </c>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
       <c r="I43" s="19"/>
@@ -7475,14 +7608,22 @@
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
+      <c r="A44" s="15">
+        <v>44889</v>
+      </c>
       <c r="B44" s="16">
         <v>41</v>
       </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="19"/>
+      <c r="C44" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="41" t="s">
+        <v>0</v>
+      </c>
       <c r="E44" s="20"/>
-      <c r="F44" s="18"/>
+      <c r="F44" s="21">
+        <v>80</v>
+      </c>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
       <c r="I44" s="19"/>
@@ -7490,14 +7631,22 @@
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
+      <c r="A45" s="15">
+        <v>44893</v>
+      </c>
       <c r="B45" s="16">
         <v>42</v>
       </c>
-      <c r="C45" s="55"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="18"/>
+      <c r="C45" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21">
+        <v>20</v>
+      </c>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
       <c r="I45" s="19"/>
@@ -8394,7 +8543,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>11874.510000000002</v>
+        <v>12054.510000000002</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -8437,7 +8586,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>6139.0300000000034</v>
+        <v>5568.4500000000044</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -8475,7 +8624,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>9553.3100000000031</v>
+        <v>8982.730000000005</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -9275,526 +9424,516 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 F31:G31 F34:G34 F45:G49 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F19:G19 G4:G10 F24:G24 H28:I104 I27 G32:G33 G35:G36 F13:G14 H4:I26 G12 F16:G16 G15 G17:G18 G20:G23 F26:G26 G25 G28:G30 F37:G40 G41:G44">
-    <cfRule type="cellIs" dxfId="301" priority="251" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 F31:G31 F34:G34 F46:G49 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F19:G19 G4:G10 F24:G24 H28:I104 I27 G32:G33 G35:G36 F13:G14 H4:I26 G12 F16:G16 G15 G17:G18 G20:G23 F26:G26 G25 G28:G30 F37:G40 G41:G45">
+    <cfRule type="cellIs" dxfId="320" priority="253" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="300" priority="220" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="222" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="299" priority="222" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="224" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="298" priority="218" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="220" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="297" priority="192" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="194" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="296" priority="187" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="189" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="295" priority="172" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="174" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="294" priority="169" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="171" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="293" priority="164" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="166" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="292" priority="161" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:E39">
-    <cfRule type="cellIs" dxfId="291" priority="155" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="157" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="290" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="152" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="289" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="288" priority="141" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="287" priority="140" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="286" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="285" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="284" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="283" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="138" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="282" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="281" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="280" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="279" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="278" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="277" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="276" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="275" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="274" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="273" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="272" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="271" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="270" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="269" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="268" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="267" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="266" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="265" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="264" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="263" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="262" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="261" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="260" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="259" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="258" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="257" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="256" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="255" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="254" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="253" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="252" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="251" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="250" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="249" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="248" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="247" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="246" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="245" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="244" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="243" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="242" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="241" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="240" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="239" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="238" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="237" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="236" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="235" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="234" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="233" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="232" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="231" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="230" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="229" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="228" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="227" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="226" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="225" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="224" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="223" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="222" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="221" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="220" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="219" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="cellIs" dxfId="218" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="217" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="216" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="215" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="214" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:D40">
-    <cfRule type="cellIs" dxfId="213" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="212" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="211" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="cellIs" dxfId="210" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D15">
-    <cfRule type="cellIs" dxfId="209" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="208" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D18">
-    <cfRule type="cellIs" dxfId="207" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="206" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D21">
-    <cfRule type="cellIs" dxfId="205" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="204" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" dxfId="203" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="202" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D36">
-    <cfRule type="cellIs" dxfId="201" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D42">
-    <cfRule type="cellIs" dxfId="200" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="199" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D43:D44">
+    <cfRule type="cellIs" dxfId="15" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D55 D53 D83:D88 D71:D72 D67 D57:D61 D44" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D55 D53 D83:D88 D71:D72 D67 D57:D61" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D45 D66 D68:D70 D73:D81 D89:D91 D93:D97 D99:D104 D3:D43" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D66 D68:D70 D73:D81 D89:D91 D93:D97 D99:D104 D3:D45" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D56" xr:uid="{00000000-0002-0000-0000-000002000000}">
@@ -9824,8 +9963,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G117" sqref="G117"/>
+      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -27393,14 +27532,22 @@
     </row>
     <row r="121" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="47"/>
-      <c r="B121" s="15"/>
+      <c r="B121" s="15">
+        <v>44872</v>
+      </c>
       <c r="C121" s="60">
         <v>119</v>
       </c>
-      <c r="D121" s="55"/>
-      <c r="E121" s="56"/>
+      <c r="D121" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E121" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F121" s="20"/>
-      <c r="G121" s="21"/>
+      <c r="G121" s="21">
+        <v>-12</v>
+      </c>
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
       <c r="J121" s="22"/>
@@ -27644,14 +27791,22 @@
     </row>
     <row r="122" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="47"/>
-      <c r="B122" s="15"/>
+      <c r="B122" s="15">
+        <v>44872</v>
+      </c>
       <c r="C122" s="60">
         <v>120</v>
       </c>
-      <c r="D122" s="40"/>
-      <c r="E122" s="41"/>
+      <c r="D122" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="E122" s="56" t="s">
+        <v>23</v>
+      </c>
       <c r="F122" s="20"/>
-      <c r="G122" s="21"/>
+      <c r="G122" s="21">
+        <v>-25</v>
+      </c>
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
       <c r="J122" s="22"/>
@@ -27895,14 +28050,22 @@
     </row>
     <row r="123" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="47"/>
-      <c r="B123" s="15"/>
+      <c r="B123" s="15">
+        <v>44874</v>
+      </c>
       <c r="C123" s="60">
         <v>121</v>
       </c>
-      <c r="D123" s="55"/>
-      <c r="E123" s="56"/>
+      <c r="D123" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="E123" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F123" s="20"/>
-      <c r="G123" s="21"/>
+      <c r="G123" s="21">
+        <v>-89.11</v>
+      </c>
       <c r="H123" s="21"/>
       <c r="I123" s="21"/>
       <c r="J123" s="22"/>
@@ -28146,14 +28309,22 @@
     </row>
     <row r="124" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="47"/>
-      <c r="B124" s="15"/>
+      <c r="B124" s="15">
+        <v>44879</v>
+      </c>
       <c r="C124" s="60">
         <v>122</v>
       </c>
-      <c r="D124" s="55"/>
-      <c r="E124" s="56"/>
+      <c r="D124" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="E124" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F124" s="20"/>
-      <c r="G124" s="21"/>
+      <c r="G124" s="21">
+        <v>-4.5999999999999996</v>
+      </c>
       <c r="H124" s="21"/>
       <c r="I124" s="21"/>
       <c r="J124" s="22"/>
@@ -28397,14 +28568,22 @@
     </row>
     <row r="125" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="47"/>
-      <c r="B125" s="15"/>
+      <c r="B125" s="15">
+        <v>44879</v>
+      </c>
       <c r="C125" s="60">
         <v>123</v>
       </c>
-      <c r="D125" s="55"/>
-      <c r="E125" s="56"/>
+      <c r="D125" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="E125" s="56" t="s">
+        <v>19</v>
+      </c>
       <c r="F125" s="20"/>
-      <c r="G125" s="21"/>
+      <c r="G125" s="21">
+        <v>-23.4</v>
+      </c>
       <c r="H125" s="21"/>
       <c r="I125" s="21"/>
       <c r="J125" s="22"/>
@@ -28648,14 +28827,22 @@
     </row>
     <row r="126" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="47"/>
-      <c r="B126" s="15"/>
+      <c r="B126" s="15">
+        <v>44882</v>
+      </c>
       <c r="C126" s="60">
         <v>124</v>
       </c>
-      <c r="D126" s="40"/>
-      <c r="E126" s="41"/>
+      <c r="D126" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E126" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F126" s="20"/>
-      <c r="G126" s="21"/>
+      <c r="G126" s="21">
+        <v>-41.72</v>
+      </c>
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
       <c r="J126" s="22"/>
@@ -28899,14 +29086,22 @@
     </row>
     <row r="127" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="47"/>
-      <c r="B127" s="15"/>
+      <c r="B127" s="15">
+        <v>44882</v>
+      </c>
       <c r="C127" s="60">
         <v>125</v>
       </c>
-      <c r="D127" s="40"/>
-      <c r="E127" s="19"/>
+      <c r="D127" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="E127" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="F127" s="20"/>
-      <c r="G127" s="21"/>
+      <c r="G127" s="21">
+        <v>-18.149999999999999</v>
+      </c>
       <c r="H127" s="21"/>
       <c r="I127" s="21"/>
       <c r="J127" s="22"/>
@@ -29150,14 +29345,22 @@
     </row>
     <row r="128" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="47"/>
-      <c r="B128" s="15"/>
+      <c r="B128" s="15">
+        <v>44882</v>
+      </c>
       <c r="C128" s="60">
         <v>126</v>
       </c>
-      <c r="D128" s="40"/>
-      <c r="E128" s="19"/>
+      <c r="D128" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E128" s="56" t="s">
+        <v>19</v>
+      </c>
       <c r="F128" s="20"/>
-      <c r="G128" s="21"/>
+      <c r="G128" s="21">
+        <v>-103.2</v>
+      </c>
       <c r="H128" s="21"/>
       <c r="I128" s="21"/>
       <c r="J128" s="22"/>
@@ -29401,14 +29604,22 @@
     </row>
     <row r="129" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="47"/>
-      <c r="B129" s="15"/>
+      <c r="B129" s="15">
+        <v>44886</v>
+      </c>
       <c r="C129" s="60">
         <v>127</v>
       </c>
-      <c r="D129" s="40"/>
-      <c r="E129" s="56"/>
+      <c r="D129" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="E129" s="56" t="s">
+        <v>19</v>
+      </c>
       <c r="F129" s="20"/>
-      <c r="G129" s="21"/>
+      <c r="G129" s="21">
+        <v>-67</v>
+      </c>
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
       <c r="J129" s="22"/>
@@ -29652,14 +29863,22 @@
     </row>
     <row r="130" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="47"/>
-      <c r="B130" s="15"/>
+      <c r="B130" s="15">
+        <v>44893</v>
+      </c>
       <c r="C130" s="60">
         <v>128</v>
       </c>
-      <c r="D130" s="55"/>
-      <c r="E130" s="23"/>
+      <c r="D130" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="E130" s="56" t="s">
+        <v>19</v>
+      </c>
       <c r="F130" s="20"/>
-      <c r="G130" s="21"/>
+      <c r="G130" s="21">
+        <v>-71.400000000000006</v>
+      </c>
       <c r="H130" s="21"/>
       <c r="I130" s="21"/>
       <c r="J130" s="22"/>
@@ -29903,14 +30122,22 @@
     </row>
     <row r="131" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="47"/>
-      <c r="B131" s="15"/>
+      <c r="B131" s="15">
+        <v>44895</v>
+      </c>
       <c r="C131" s="60">
         <v>129</v>
       </c>
-      <c r="D131" s="64"/>
-      <c r="E131" s="39"/>
+      <c r="D131" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="E131" s="56" t="s">
+        <v>13</v>
+      </c>
       <c r="F131" s="65"/>
-      <c r="G131" s="21"/>
+      <c r="G131" s="21">
+        <v>-150</v>
+      </c>
       <c r="H131" s="21"/>
       <c r="I131" s="21"/>
       <c r="J131" s="22"/>
@@ -30154,14 +30381,22 @@
     </row>
     <row r="132" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="47"/>
-      <c r="B132" s="15"/>
+      <c r="B132" s="15">
+        <v>44896</v>
+      </c>
       <c r="C132" s="60">
         <v>130</v>
       </c>
-      <c r="D132" s="40"/>
-      <c r="E132" s="41"/>
+      <c r="D132" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E132" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F132" s="20"/>
-      <c r="G132" s="21"/>
+      <c r="G132" s="21">
+        <v>-12</v>
+      </c>
       <c r="H132" s="21"/>
       <c r="I132" s="21"/>
       <c r="J132" s="22"/>
@@ -30405,14 +30640,22 @@
     </row>
     <row r="133" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="47"/>
-      <c r="B133" s="15"/>
+      <c r="B133" s="15">
+        <v>44897</v>
+      </c>
       <c r="C133" s="60">
         <v>131</v>
       </c>
-      <c r="D133" s="40"/>
-      <c r="E133" s="19"/>
-      <c r="F133" s="20"/>
-      <c r="G133" s="21"/>
+      <c r="D133" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="E133" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F133" s="17"/>
+      <c r="G133" s="21">
+        <v>-111</v>
+      </c>
       <c r="H133" s="21"/>
       <c r="I133" s="21"/>
       <c r="J133" s="22"/>
@@ -30656,14 +30899,22 @@
     </row>
     <row r="134" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="47"/>
-      <c r="B134" s="15"/>
+      <c r="B134" s="15">
+        <v>44897</v>
+      </c>
       <c r="C134" s="60">
         <v>132</v>
       </c>
-      <c r="D134" s="55"/>
-      <c r="E134" s="23"/>
-      <c r="F134" s="20"/>
-      <c r="G134" s="21"/>
+      <c r="D134" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="E134" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F134" s="17"/>
+      <c r="G134" s="21">
+        <v>-22</v>
+      </c>
       <c r="H134" s="21"/>
       <c r="I134" s="21"/>
       <c r="J134" s="22"/>
@@ -39694,7 +39945,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-5735.4799999999987</v>
+        <v>-6486.0599999999977</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -41626,982 +41877,1002 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 D126:E126 B127 C123 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53">
-    <cfRule type="cellIs" dxfId="198" priority="622" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A85:A235 C110:D110 C123 A55:A83 C126:C127 D127 B129:D129 C132:C133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163 A3:A53 B133:B134">
+    <cfRule type="cellIs" dxfId="217" priority="638" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="197" priority="612" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="628" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="196" priority="574" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="590" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="195" priority="530" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="546" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="194" priority="506" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="522" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="193" priority="504" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="520" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="192" priority="490" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="506" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111">
-    <cfRule type="cellIs" dxfId="191" priority="413" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="190" priority="399" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="429" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="189" priority="398" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="414" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="188" priority="395" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="411" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="187" priority="394" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B124:B125">
+    <cfRule type="cellIs" dxfId="206" priority="410" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="186" priority="393" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B126:B128">
+    <cfRule type="cellIs" dxfId="204" priority="408" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="185" priority="392" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C128:D128">
+    <cfRule type="cellIs" dxfId="202" priority="406" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130">
+    <cfRule type="cellIs" dxfId="198" priority="402" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="cellIs" dxfId="197" priority="401" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C134">
+    <cfRule type="cellIs" dxfId="194" priority="398" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="193" priority="397" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135">
+    <cfRule type="cellIs" dxfId="192" priority="396" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="191" priority="395" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="190" priority="394" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="cellIs" dxfId="189" priority="393" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="cellIs" dxfId="188" priority="391" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E139">
+    <cfRule type="cellIs" dxfId="187" priority="390" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F140">
+    <cfRule type="cellIs" dxfId="186" priority="389" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="cellIs" dxfId="185" priority="388" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141">
+    <cfRule type="cellIs" dxfId="184" priority="387" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="cellIs" dxfId="183" priority="386" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F142">
+    <cfRule type="cellIs" dxfId="182" priority="385" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="cellIs" dxfId="181" priority="384" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F143">
+    <cfRule type="cellIs" dxfId="180" priority="383" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" dxfId="179" priority="382" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145:E145">
+    <cfRule type="cellIs" dxfId="178" priority="379" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146:E146">
+    <cfRule type="cellIs" dxfId="177" priority="378" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:E148">
+    <cfRule type="cellIs" dxfId="176" priority="377" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="cellIs" dxfId="175" priority="376" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="cellIs" dxfId="174" priority="375" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B151">
+    <cfRule type="cellIs" dxfId="173" priority="374" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="cellIs" dxfId="172" priority="373" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E154">
+    <cfRule type="cellIs" dxfId="171" priority="372" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B155:D155">
+    <cfRule type="cellIs" dxfId="170" priority="371" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="cellIs" dxfId="169" priority="369" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156:D156">
+    <cfRule type="cellIs" dxfId="168" priority="368" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E156">
+    <cfRule type="cellIs" dxfId="167" priority="367" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157:E157">
+    <cfRule type="cellIs" dxfId="166" priority="366" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B157">
+    <cfRule type="cellIs" dxfId="165" priority="365" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158:D158">
+    <cfRule type="cellIs" dxfId="164" priority="364" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E158">
+    <cfRule type="cellIs" dxfId="163" priority="363" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159">
+    <cfRule type="cellIs" dxfId="162" priority="362" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159">
+    <cfRule type="cellIs" dxfId="161" priority="360" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160:D160">
+    <cfRule type="cellIs" dxfId="160" priority="359" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="159" priority="358" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D161:E161">
+    <cfRule type="cellIs" dxfId="158" priority="357" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B161:C161">
+    <cfRule type="cellIs" dxfId="157" priority="356" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B162">
+    <cfRule type="cellIs" dxfId="156" priority="355" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B163">
+    <cfRule type="cellIs" dxfId="155" priority="354" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E163">
+    <cfRule type="cellIs" dxfId="154" priority="353" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="153" priority="331" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="cellIs" dxfId="152" priority="322" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="151" priority="320" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
+    <cfRule type="cellIs" dxfId="150" priority="303" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="cellIs" dxfId="149" priority="301" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62:F63">
+    <cfRule type="cellIs" dxfId="148" priority="299" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E5 E7:E19 E21:E25">
+    <cfRule type="cellIs" dxfId="147" priority="258" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="146" priority="232" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="145" priority="186" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="144" priority="145" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D114">
+    <cfRule type="cellIs" dxfId="143" priority="144" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D115">
+    <cfRule type="cellIs" dxfId="142" priority="143" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D122">
+    <cfRule type="cellIs" dxfId="140" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="136" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="135" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="134" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="133" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="132" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="131" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="130" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="129" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="128" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="127" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="126" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="125" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E28">
+    <cfRule type="cellIs" dxfId="124" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="cellIs" dxfId="123" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="122" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="121" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E32">
+    <cfRule type="cellIs" dxfId="120" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="119" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="118" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="117" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="116" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="115" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="114" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:E41">
+    <cfRule type="cellIs" dxfId="113" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E44">
+    <cfRule type="cellIs" dxfId="112" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E44">
+    <cfRule type="cellIs" dxfId="111" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="110" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="cellIs" dxfId="109" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="108" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:E50">
+    <cfRule type="cellIs" dxfId="107" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:E52">
+    <cfRule type="cellIs" dxfId="106" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="105" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="104" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="103" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="102" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="101" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="cellIs" dxfId="100" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="cellIs" dxfId="99" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="cellIs" dxfId="98" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="cellIs" dxfId="97" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="96" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E62">
+    <cfRule type="cellIs" dxfId="95" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="94" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="93" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="92" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="91" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E71">
+    <cfRule type="cellIs" dxfId="90" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="89" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="88" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="87" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="86" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="85" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="84" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F78">
+    <cfRule type="cellIs" dxfId="83" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79">
+    <cfRule type="cellIs" dxfId="82" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78:E79">
+    <cfRule type="cellIs" dxfId="81" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78:E79">
+    <cfRule type="cellIs" dxfId="80" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="79" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="78" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82">
+    <cfRule type="cellIs" dxfId="77" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="76" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="75" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="74" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85">
+    <cfRule type="cellIs" dxfId="73" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86">
+    <cfRule type="cellIs" dxfId="72" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85:E86">
+    <cfRule type="cellIs" dxfId="71" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85:E86">
+    <cfRule type="cellIs" dxfId="70" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87:E88">
+    <cfRule type="cellIs" dxfId="69" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="68" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="67" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="66" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="65" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="64" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="63" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="62" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95">
+    <cfRule type="cellIs" dxfId="61" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="60" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="59" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F96">
+    <cfRule type="cellIs" dxfId="58" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="57" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="56" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="55" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98:E99">
+    <cfRule type="cellIs" dxfId="54" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="53" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="52" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="51" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="50" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="49" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F105">
+    <cfRule type="cellIs" dxfId="48" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="47" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="46" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F106">
+    <cfRule type="cellIs" dxfId="45" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="44" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="43" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="42" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="41" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="40" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="39" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="38" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="37" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="36" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="35" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="34" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115:E116">
+    <cfRule type="cellIs" dxfId="33" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="32" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F118">
+    <cfRule type="cellIs" dxfId="31" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="30" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="29" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F119">
+    <cfRule type="cellIs" dxfId="28" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="27" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="26" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="25" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" dxfId="18" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" dxfId="17" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123:E124">
+    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123:E124">
+    <cfRule type="cellIs" dxfId="13" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E126">
+    <cfRule type="cellIs" dxfId="12" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="184" priority="391" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="183" priority="390" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E128:E131">
+    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="182" priority="389" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E132">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="181" priority="388" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E132">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="180" priority="387" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="179" priority="386" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="178" priority="385" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F133">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="177" priority="384" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F134">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="176" priority="383" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="175" priority="382" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="174" priority="381" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="173" priority="380" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="172" priority="379" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="171" priority="378" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="170" priority="377" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="169" priority="375" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="168" priority="374" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="167" priority="373" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="166" priority="372" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="165" priority="371" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="164" priority="370" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="163" priority="369" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="162" priority="368" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="161" priority="367" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="160" priority="366" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="159" priority="363" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="158" priority="362" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="157" priority="361" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="156" priority="360" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="155" priority="359" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="154" priority="358" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="153" priority="357" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="152" priority="356" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="151" priority="355" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="150" priority="353" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="149" priority="352" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="148" priority="351" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="147" priority="350" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="146" priority="349" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="145" priority="348" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="144" priority="347" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="143" priority="346" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="142" priority="344" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="141" priority="343" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="140" priority="342" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="139" priority="341" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="138" priority="340" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="137" priority="339" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="136" priority="338" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="135" priority="337" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="134" priority="315" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="133" priority="306" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="132" priority="304" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="131" priority="287" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="130" priority="285" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="129" priority="283" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E5 E7:E19 E21:E25">
-    <cfRule type="cellIs" dxfId="128" priority="242" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="127" priority="216" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="126" priority="170" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="125" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D114">
-    <cfRule type="cellIs" dxfId="124" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="123" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="122" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D122">
-    <cfRule type="cellIs" dxfId="121" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="120" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="119" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="118" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="117" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="116" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="115" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="114" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="113" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="112" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="111" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="110" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="109" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="108" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="107" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="106" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E28">
-    <cfRule type="cellIs" dxfId="105" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="104" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="103" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="102" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E32">
-    <cfRule type="cellIs" dxfId="101" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="100" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="99" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="98" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="97" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="96" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="95" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39:E41">
-    <cfRule type="cellIs" dxfId="94" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="93" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="92" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="91" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47">
-    <cfRule type="cellIs" dxfId="90" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="89" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
-    <cfRule type="cellIs" dxfId="88" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51:E52">
-    <cfRule type="cellIs" dxfId="87" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="86" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="85" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="84" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="83" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="82" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="81" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="80" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="79" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="78" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="77" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E62">
-    <cfRule type="cellIs" dxfId="76" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="75" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="74" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="73" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="72" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67:E71">
-    <cfRule type="cellIs" dxfId="71" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="70" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="69" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="68" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="67" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="66" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="65" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F78">
-    <cfRule type="cellIs" dxfId="64" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F79">
-    <cfRule type="cellIs" dxfId="63" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78:E79">
-    <cfRule type="cellIs" dxfId="62" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78:E79">
-    <cfRule type="cellIs" dxfId="61" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="60" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="59" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
-    <cfRule type="cellIs" dxfId="58" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="57" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="56" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="55" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="54" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F86">
-    <cfRule type="cellIs" dxfId="53" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="52" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="51" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87:E88">
-    <cfRule type="cellIs" dxfId="50" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="49" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="48" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="47" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="46" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="45" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="44" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="43" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
-    <cfRule type="cellIs" dxfId="42" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="41" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="40" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F96">
-    <cfRule type="cellIs" dxfId="39" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="38" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="37" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="36" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98:E99">
-    <cfRule type="cellIs" dxfId="35" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="34" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="33" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="32" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="31" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F105">
-    <cfRule type="cellIs" dxfId="29" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="28" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="27" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F106">
-    <cfRule type="cellIs" dxfId="26" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="25" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="24" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="23" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="22" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="21" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="20" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="19" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="18" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="17" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="16" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115:E116">
-    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F118">
-    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F119">
-    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E132:E138 E144:E169 E125:E130 E8 E3:E5 E10:E29 E31:E33 E35:E79 E81:E110 E112:E120" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E144:E169 E8 E3:E5 E10:E29 E31:E33 E35:E79 E81:E110 E112:E138" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E139:E143" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E7 E122" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E7" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E80 E111 E121 E123:E124 E9 E30 E34" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E80 E111 E34 E30 E9" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2022.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC0F2DA-26EE-4AC3-8D01-DEA65CBC6C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1D7E2B-D6CD-403D-95F3-1376CCB8595C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,24 +28,11 @@
     <pivotCache cacheId="0" r:id="rId4"/>
     <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="166">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -530,6 +517,21 @@
   </si>
   <si>
     <t>Wechselgeld</t>
+  </si>
+  <si>
+    <t>Weihnachtsfeier H.Heimann</t>
+  </si>
+  <si>
+    <t>Weihnachtsfeier H.Dolleschel</t>
+  </si>
+  <si>
+    <t>Weihnachtsfeier Fr.Hertel-Steckbeck</t>
+  </si>
+  <si>
+    <t>Weihnachtsfeier Früchtelädle</t>
+  </si>
+  <si>
+    <t>Weihnachtsfeier Spendenkässle</t>
   </si>
 </sst>
 </file>
@@ -1210,27 +1212,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="308">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="302">
     <dxf>
       <border>
         <left style="thin">
@@ -1326,16 +1308,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -5175,6 +5147,109 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item h="1" m="1" x="9"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item h="1" x="0"/>
+        <item m="1" x="8"/>
+        <item x="3"/>
+        <item h="1" m="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="2">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -5260,120 +5335,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="6">
+    <format dxfId="5">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item h="1" m="1" x="9"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item h="1" x="0"/>
-        <item m="1" x="8"/>
-        <item x="3"/>
-        <item h="1" m="1" x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="9">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="7">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6501,7 +6473,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7643,13 +7615,21 @@
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
+      <c r="A48" s="15">
+        <v>44907</v>
+      </c>
       <c r="B48" s="16">
         <v>45</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="17"/>
+      <c r="C48" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="17">
+        <v>50</v>
+      </c>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
@@ -7658,13 +7638,21 @@
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
+      <c r="A49" s="15">
+        <v>44907</v>
+      </c>
       <c r="B49" s="16">
         <v>46</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="17"/>
+      <c r="C49" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="17">
+        <v>50</v>
+      </c>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
       <c r="H49" s="18"/>
@@ -7673,13 +7661,21 @@
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="15"/>
+      <c r="A50" s="15">
+        <v>44907</v>
+      </c>
       <c r="B50" s="16">
         <v>47</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="20"/>
+      <c r="C50" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="17">
+        <v>50</v>
+      </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
       <c r="H50" s="18"/>
@@ -7688,13 +7684,21 @@
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="15"/>
+      <c r="A51" s="15">
+        <v>44907</v>
+      </c>
       <c r="B51" s="16">
         <v>48</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="20"/>
+      <c r="C51" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="20">
+        <v>200</v>
+      </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
       <c r="H51" s="18"/>
@@ -7703,13 +7707,21 @@
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="15"/>
+      <c r="A52" s="15">
+        <v>44907</v>
+      </c>
       <c r="B52" s="16">
         <v>49</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="20"/>
+      <c r="C52" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="20">
+        <v>105.9</v>
+      </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
@@ -8498,7 +8510,7 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>1250.5999999999999</v>
+        <v>1706.5</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
@@ -8541,7 +8553,7 @@
       <c r="D107" s="48"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>173.51</v>
+        <v>629.41000000000008</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
@@ -8583,7 +8595,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>8863.9000000000051</v>
+        <v>9319.8000000000047</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -9384,510 +9396,495 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 E11:G11 F31:G31 F34:G34 F46:G49 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F19:G19 G4:G10 F24:G24 H28:I104 I27 G32:G33 G35:G36 F13:G14 H4:I26 G12 F16:G16 G15 G17:G18 G20:G23 F26:G26 G25 G28:G30 F37:G40 G41:G45">
-    <cfRule type="cellIs" dxfId="307" priority="254" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="254" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="306" priority="223" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="223" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="305" priority="225" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="225" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="304" priority="221" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="221" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="303" priority="195" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="195" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="302" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="190" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="301" priority="175" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="175" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="300" priority="172" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="172" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="299" priority="167" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="167" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="298" priority="164" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="164" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:E39">
-    <cfRule type="cellIs" dxfId="297" priority="158" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="158" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="296" priority="153" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="295" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="153" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="294" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="292" priority="139" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="290" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="289" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="288" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48:E50">
+    <cfRule type="cellIs" dxfId="285" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="287" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="286" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="285" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="284" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="283" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="282" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="281" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="280" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="279" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="278" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="277" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="276" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="275" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="274" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="273" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="272" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="271" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="270" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="269" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="268" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="267" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule